--- a/AAII_Financials/Yearly/ELD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ELD_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -711,25 +711,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1316800</v>
+        <v>1307800</v>
       </c>
       <c r="E8" s="3">
-        <v>792400</v>
+        <v>787000</v>
       </c>
       <c r="F8" s="3">
-        <v>588700</v>
+        <v>584700</v>
       </c>
       <c r="G8" s="3">
-        <v>502000</v>
+        <v>498600</v>
       </c>
       <c r="H8" s="3">
-        <v>555000</v>
+        <v>551200</v>
       </c>
       <c r="I8" s="3">
-        <v>614500</v>
+        <v>610300</v>
       </c>
       <c r="J8" s="3">
-        <v>1369700</v>
+        <v>1360300</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -738,25 +738,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>887300</v>
+        <v>881300</v>
       </c>
       <c r="E9" s="3">
-        <v>625900</v>
+        <v>621600</v>
       </c>
       <c r="F9" s="3">
-        <v>481200</v>
+        <v>477900</v>
       </c>
       <c r="G9" s="3">
-        <v>340300</v>
+        <v>338000</v>
       </c>
       <c r="H9" s="3">
-        <v>345700</v>
+        <v>343400</v>
       </c>
       <c r="I9" s="3">
-        <v>453400</v>
+        <v>450200</v>
       </c>
       <c r="J9" s="3">
-        <v>896500</v>
+        <v>890400</v>
       </c>
       <c r="K9" s="3"/>
     </row>
@@ -765,25 +765,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>429500</v>
+        <v>426500</v>
       </c>
       <c r="E10" s="3">
-        <v>166600</v>
+        <v>165400</v>
       </c>
       <c r="F10" s="3">
-        <v>107500</v>
+        <v>106800</v>
       </c>
       <c r="G10" s="3">
-        <v>161700</v>
+        <v>160600</v>
       </c>
       <c r="H10" s="3">
-        <v>209300</v>
+        <v>207800</v>
       </c>
       <c r="I10" s="3">
-        <v>161100</v>
+        <v>160000</v>
       </c>
       <c r="J10" s="3">
-        <v>473200</v>
+        <v>469900</v>
       </c>
       <c r="K10" s="3"/>
     </row>
@@ -805,25 +805,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>16300</v>
+        <v>16200</v>
       </c>
       <c r="E12" s="3">
-        <v>18800</v>
+        <v>18700</v>
       </c>
       <c r="F12" s="3">
-        <v>43400</v>
+        <v>43100</v>
       </c>
       <c r="G12" s="3">
-        <v>49100</v>
+        <v>48700</v>
       </c>
       <c r="H12" s="3">
-        <v>24100</v>
+        <v>23900</v>
       </c>
       <c r="I12" s="3">
-        <v>20900</v>
+        <v>20800</v>
       </c>
       <c r="J12" s="3">
-        <v>20800</v>
+        <v>20700</v>
       </c>
       <c r="K12" s="3"/>
     </row>
@@ -859,22 +859,22 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>46400</v>
+        <v>46100</v>
       </c>
       <c r="E14" s="3">
-        <v>-111700</v>
+        <v>-110900</v>
       </c>
       <c r="F14" s="3">
-        <v>576300</v>
+        <v>572400</v>
       </c>
       <c r="G14" s="3">
-        <v>65400</v>
+        <v>64900</v>
       </c>
       <c r="H14" s="3">
         <v>5800</v>
       </c>
       <c r="I14" s="3">
-        <v>2376700</v>
+        <v>2360400</v>
       </c>
       <c r="J14" s="3">
         <v>3800</v>
@@ -923,25 +923,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1020300</v>
+        <v>1013300</v>
       </c>
       <c r="E17" s="3">
-        <v>608700</v>
+        <v>604500</v>
       </c>
       <c r="F17" s="3">
-        <v>1200200</v>
+        <v>1192000</v>
       </c>
       <c r="G17" s="3">
-        <v>551500</v>
+        <v>547700</v>
       </c>
       <c r="H17" s="3">
-        <v>469100</v>
+        <v>465900</v>
       </c>
       <c r="I17" s="3">
-        <v>2964100</v>
+        <v>2943700</v>
       </c>
       <c r="J17" s="3">
-        <v>1044000</v>
+        <v>1036800</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -950,25 +950,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>296500</v>
+        <v>294500</v>
       </c>
       <c r="E18" s="3">
-        <v>183800</v>
+        <v>182500</v>
       </c>
       <c r="F18" s="3">
-        <v>-611500</v>
+        <v>-607300</v>
       </c>
       <c r="G18" s="3">
-        <v>-49400</v>
+        <v>-49100</v>
       </c>
       <c r="H18" s="3">
-        <v>85900</v>
+        <v>85400</v>
       </c>
       <c r="I18" s="3">
-        <v>-2349600</v>
+        <v>-2333500</v>
       </c>
       <c r="J18" s="3">
-        <v>325700</v>
+        <v>323400</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -990,19 +990,19 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-16000</v>
+        <v>-15900</v>
       </c>
       <c r="E20" s="3">
-        <v>17400</v>
+        <v>17300</v>
       </c>
       <c r="F20" s="3">
-        <v>13700</v>
+        <v>13600</v>
       </c>
       <c r="G20" s="3">
-        <v>50400</v>
+        <v>50100</v>
       </c>
       <c r="H20" s="3">
-        <v>-16500</v>
+        <v>-16400</v>
       </c>
       <c r="I20" s="3">
         <v>-3400</v>
@@ -1017,25 +1017,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>595300</v>
+        <v>596700</v>
       </c>
       <c r="E21" s="3">
-        <v>397800</v>
+        <v>398400</v>
       </c>
       <c r="F21" s="3">
-        <v>-464100</v>
+        <v>-458600</v>
       </c>
       <c r="G21" s="3">
-        <v>92300</v>
+        <v>93200</v>
       </c>
       <c r="H21" s="3">
-        <v>164200</v>
+        <v>164700</v>
       </c>
       <c r="I21" s="3">
-        <v>-2240000</v>
+        <v>-2222700</v>
       </c>
       <c r="J21" s="3">
-        <v>546000</v>
+        <v>546100</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -1044,10 +1044,10 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>54100</v>
+        <v>53800</v>
       </c>
       <c r="E22" s="3">
-        <v>55700</v>
+        <v>55300</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>17</v>
@@ -1056,13 +1056,13 @@
         <v>17</v>
       </c>
       <c r="H22" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="I22" s="3">
-        <v>12300</v>
+        <v>12200</v>
       </c>
       <c r="J22" s="3">
-        <v>29500</v>
+        <v>29300</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -1071,25 +1071,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>226400</v>
+        <v>224800</v>
       </c>
       <c r="E23" s="3">
-        <v>145500</v>
+        <v>144500</v>
       </c>
       <c r="F23" s="3">
-        <v>-597900</v>
+        <v>-593800</v>
       </c>
       <c r="G23" s="3">
         <v>1000</v>
       </c>
       <c r="H23" s="3">
-        <v>62500</v>
+        <v>62000</v>
       </c>
       <c r="I23" s="3">
-        <v>-2365300</v>
+        <v>-2349100</v>
       </c>
       <c r="J23" s="3">
-        <v>292200</v>
+        <v>290200</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -1098,25 +1098,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>101500</v>
+        <v>100800</v>
       </c>
       <c r="E24" s="3">
-        <v>51000</v>
+        <v>50700</v>
       </c>
       <c r="F24" s="3">
-        <v>-110900</v>
+        <v>-110200</v>
       </c>
       <c r="G24" s="3">
-        <v>24900</v>
+        <v>24700</v>
       </c>
       <c r="H24" s="3">
-        <v>72100</v>
+        <v>71600</v>
       </c>
       <c r="I24" s="3">
-        <v>-284000</v>
+        <v>-282000</v>
       </c>
       <c r="J24" s="3">
-        <v>155500</v>
+        <v>154500</v>
       </c>
       <c r="K24" s="3"/>
     </row>
@@ -1152,25 +1152,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>124900</v>
+        <v>124000</v>
       </c>
       <c r="E26" s="3">
-        <v>94500</v>
+        <v>93900</v>
       </c>
       <c r="F26" s="3">
-        <v>-486900</v>
+        <v>-483600</v>
       </c>
       <c r="G26" s="3">
-        <v>-23800</v>
+        <v>-23700</v>
       </c>
       <c r="H26" s="3">
         <v>-9600</v>
       </c>
       <c r="I26" s="3">
-        <v>-2081300</v>
+        <v>-2067100</v>
       </c>
       <c r="J26" s="3">
-        <v>136700</v>
+        <v>135700</v>
       </c>
       <c r="K26" s="3"/>
     </row>
@@ -1179,25 +1179,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>134100</v>
+        <v>133200</v>
       </c>
       <c r="E27" s="3">
-        <v>103400</v>
+        <v>102700</v>
       </c>
       <c r="F27" s="3">
-        <v>-464200</v>
+        <v>-461000</v>
       </c>
       <c r="G27" s="3">
-        <v>-9200</v>
+        <v>-9100</v>
       </c>
       <c r="H27" s="3">
         <v>-6100</v>
       </c>
       <c r="I27" s="3">
-        <v>-1947600</v>
+        <v>-1934300</v>
       </c>
       <c r="J27" s="3">
-        <v>131600</v>
+        <v>130700</v>
       </c>
       <c r="K27" s="3"/>
     </row>
@@ -1245,10 +1245,10 @@
         <v>-3600</v>
       </c>
       <c r="H29" s="3">
-        <v>-435300</v>
+        <v>-432300</v>
       </c>
       <c r="I29" s="3">
-        <v>-28700</v>
+        <v>-28500</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>17</v>
@@ -1314,19 +1314,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>16000</v>
+        <v>15900</v>
       </c>
       <c r="E32" s="3">
-        <v>-17400</v>
+        <v>-17300</v>
       </c>
       <c r="F32" s="3">
-        <v>-13700</v>
+        <v>-13600</v>
       </c>
       <c r="G32" s="3">
-        <v>-50400</v>
+        <v>-50100</v>
       </c>
       <c r="H32" s="3">
-        <v>16500</v>
+        <v>16400</v>
       </c>
       <c r="I32" s="3">
         <v>3400</v>
@@ -1341,25 +1341,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>134100</v>
+        <v>133200</v>
       </c>
       <c r="E33" s="3">
-        <v>103400</v>
+        <v>102700</v>
       </c>
       <c r="F33" s="3">
-        <v>-464200</v>
+        <v>-461000</v>
       </c>
       <c r="G33" s="3">
         <v>-12700</v>
       </c>
       <c r="H33" s="3">
-        <v>-441400</v>
+        <v>-438400</v>
       </c>
       <c r="I33" s="3">
-        <v>-1976400</v>
+        <v>-1962800</v>
       </c>
       <c r="J33" s="3">
-        <v>131600</v>
+        <v>130700</v>
       </c>
       <c r="K33" s="3"/>
     </row>
@@ -1395,25 +1395,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>134100</v>
+        <v>133200</v>
       </c>
       <c r="E35" s="3">
-        <v>103400</v>
+        <v>102700</v>
       </c>
       <c r="F35" s="3">
-        <v>-464200</v>
+        <v>-461000</v>
       </c>
       <c r="G35" s="3">
         <v>-12700</v>
       </c>
       <c r="H35" s="3">
-        <v>-441400</v>
+        <v>-438400</v>
       </c>
       <c r="I35" s="3">
-        <v>-1976400</v>
+        <v>-1962800</v>
       </c>
       <c r="J35" s="3">
-        <v>131600</v>
+        <v>130700</v>
       </c>
       <c r="K35" s="3"/>
     </row>
@@ -1480,25 +1480,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>475900</v>
+        <v>1048400</v>
       </c>
       <c r="E41" s="3">
-        <v>222900</v>
+        <v>221400</v>
       </c>
       <c r="F41" s="3">
-        <v>257300</v>
+        <v>255600</v>
       </c>
       <c r="G41" s="3">
-        <v>376400</v>
+        <v>373800</v>
       </c>
       <c r="H41" s="3">
-        <v>361700</v>
+        <v>359200</v>
       </c>
       <c r="I41" s="3">
-        <v>308300</v>
+        <v>306200</v>
       </c>
       <c r="J41" s="3">
-        <v>569700</v>
+        <v>565800</v>
       </c>
       <c r="K41" s="3"/>
     </row>
@@ -1507,25 +1507,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>179700</v>
+        <v>178500</v>
       </c>
       <c r="E42" s="3">
-        <v>14200</v>
+        <v>14100</v>
       </c>
       <c r="F42" s="3">
-        <v>121700</v>
+        <v>120900</v>
       </c>
       <c r="G42" s="3">
-        <v>252100</v>
+        <v>250400</v>
       </c>
       <c r="H42" s="3">
-        <v>814200</v>
+        <v>808600</v>
       </c>
       <c r="I42" s="3">
-        <v>90400</v>
+        <v>89800</v>
       </c>
       <c r="J42" s="3">
-        <v>78700</v>
+        <v>78200</v>
       </c>
       <c r="K42" s="3"/>
     </row>
@@ -1534,25 +1534,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>68800</v>
+        <v>68400</v>
       </c>
       <c r="E43" s="3">
-        <v>81400</v>
+        <v>80900</v>
       </c>
       <c r="F43" s="3">
-        <v>83700</v>
+        <v>83100</v>
       </c>
       <c r="G43" s="3">
-        <v>76400</v>
+        <v>75900</v>
       </c>
       <c r="H43" s="3">
-        <v>53100</v>
+        <v>52800</v>
       </c>
       <c r="I43" s="3">
-        <v>61900</v>
+        <v>61400</v>
       </c>
       <c r="J43" s="3">
-        <v>101000</v>
+        <v>100300</v>
       </c>
       <c r="K43" s="3"/>
     </row>
@@ -1561,25 +1561,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>226100</v>
+        <v>209100</v>
       </c>
       <c r="E44" s="3">
-        <v>209400</v>
+        <v>207900</v>
       </c>
       <c r="F44" s="3">
-        <v>176900</v>
+        <v>175600</v>
       </c>
       <c r="G44" s="3">
-        <v>216600</v>
+        <v>215100</v>
       </c>
       <c r="H44" s="3">
-        <v>155000</v>
+        <v>153900</v>
       </c>
       <c r="I44" s="3">
-        <v>225300</v>
+        <v>223700</v>
       </c>
       <c r="J44" s="3">
-        <v>286500</v>
+        <v>284600</v>
       </c>
       <c r="K44" s="3"/>
     </row>
@@ -1588,25 +1588,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>32200</v>
+        <v>32000</v>
       </c>
       <c r="E45" s="3">
-        <v>31100</v>
+        <v>30900</v>
       </c>
       <c r="F45" s="3">
-        <v>20600</v>
+        <v>20400</v>
       </c>
       <c r="G45" s="3">
-        <v>24400</v>
+        <v>24300</v>
       </c>
       <c r="H45" s="3">
-        <v>16900</v>
+        <v>16700</v>
       </c>
       <c r="I45" s="3">
-        <v>48100</v>
+        <v>47700</v>
       </c>
       <c r="J45" s="3">
-        <v>50700</v>
+        <v>50400</v>
       </c>
       <c r="K45" s="3"/>
     </row>
@@ -1615,25 +1615,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>982800</v>
+        <v>960600</v>
       </c>
       <c r="E46" s="3">
-        <v>559000</v>
+        <v>555200</v>
       </c>
       <c r="F46" s="3">
-        <v>660200</v>
+        <v>655600</v>
       </c>
       <c r="G46" s="3">
-        <v>945900</v>
+        <v>939400</v>
       </c>
       <c r="H46" s="3">
-        <v>1400800</v>
+        <v>1391200</v>
       </c>
       <c r="I46" s="3">
-        <v>734000</v>
+        <v>728900</v>
       </c>
       <c r="J46" s="3">
-        <v>1086700</v>
+        <v>1079200</v>
       </c>
       <c r="K46" s="3"/>
     </row>
@@ -1642,25 +1642,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>41200</v>
+        <v>41000</v>
       </c>
       <c r="E47" s="3">
-        <v>17600</v>
+        <v>17500</v>
       </c>
       <c r="F47" s="3">
-        <v>8600</v>
+        <v>8500</v>
       </c>
       <c r="G47" s="3">
         <v>6900</v>
       </c>
       <c r="H47" s="3">
-        <v>59600</v>
+        <v>59200</v>
       </c>
       <c r="I47" s="3">
-        <v>85600</v>
+        <v>85000</v>
       </c>
       <c r="J47" s="3">
-        <v>31600</v>
+        <v>31400</v>
       </c>
       <c r="K47" s="3"/>
     </row>
@@ -1669,25 +1669,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5128500</v>
+        <v>10242200</v>
       </c>
       <c r="E48" s="3">
-        <v>5243500</v>
+        <v>5207600</v>
       </c>
       <c r="F48" s="3">
-        <v>5115600</v>
+        <v>5080500</v>
       </c>
       <c r="G48" s="3">
-        <v>5422100</v>
+        <v>5384900</v>
       </c>
       <c r="H48" s="3">
-        <v>4676100</v>
+        <v>4644100</v>
       </c>
       <c r="I48" s="3">
-        <v>6093000</v>
+        <v>6051200</v>
       </c>
       <c r="J48" s="3">
-        <v>7652700</v>
+        <v>7600200</v>
       </c>
       <c r="K48" s="3"/>
     </row>
@@ -1696,25 +1696,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>118800</v>
+        <v>117900</v>
       </c>
       <c r="E49" s="3">
-        <v>118800</v>
+        <v>117900</v>
       </c>
       <c r="F49" s="3">
-        <v>118800</v>
+        <v>117900</v>
       </c>
       <c r="G49" s="3">
-        <v>118800</v>
+        <v>117900</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>64500</v>
+        <v>64000</v>
       </c>
       <c r="J49" s="3">
-        <v>675000</v>
+        <v>670400</v>
       </c>
       <c r="K49" s="3"/>
     </row>
@@ -1777,25 +1777,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12200</v>
+        <v>62500</v>
       </c>
       <c r="E52" s="3">
-        <v>23800</v>
+        <v>23600</v>
       </c>
       <c r="F52" s="3">
-        <v>34000</v>
+        <v>33700</v>
       </c>
       <c r="G52" s="3">
-        <v>35200</v>
+        <v>34900</v>
       </c>
       <c r="H52" s="3">
-        <v>17200</v>
+        <v>17100</v>
       </c>
       <c r="I52" s="3">
-        <v>31600</v>
+        <v>31300</v>
       </c>
       <c r="J52" s="3">
-        <v>37100</v>
+        <v>36900</v>
       </c>
       <c r="K52" s="3"/>
     </row>
@@ -1831,25 +1831,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6283400</v>
+        <v>6280500</v>
       </c>
       <c r="E54" s="3">
-        <v>5962700</v>
+        <v>5921800</v>
       </c>
       <c r="F54" s="3">
-        <v>5937100</v>
+        <v>5896300</v>
       </c>
       <c r="G54" s="3">
-        <v>6528900</v>
+        <v>6484100</v>
       </c>
       <c r="H54" s="3">
-        <v>6153800</v>
+        <v>6111600</v>
       </c>
       <c r="I54" s="3">
-        <v>7008500</v>
+        <v>6960500</v>
       </c>
       <c r="J54" s="3">
-        <v>9483100</v>
+        <v>9418000</v>
       </c>
       <c r="K54" s="3"/>
     </row>
@@ -1884,25 +1884,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>83400</v>
+        <v>311400</v>
       </c>
       <c r="E57" s="3">
-        <v>86100</v>
+        <v>85500</v>
       </c>
       <c r="F57" s="3">
-        <v>50000</v>
+        <v>49600</v>
       </c>
       <c r="G57" s="3">
-        <v>77100</v>
+        <v>76500</v>
       </c>
       <c r="H57" s="3">
-        <v>56100</v>
+        <v>55700</v>
       </c>
       <c r="I57" s="3">
-        <v>124900</v>
+        <v>124000</v>
       </c>
       <c r="J57" s="3">
-        <v>107200</v>
+        <v>106400</v>
       </c>
       <c r="K57" s="3"/>
     </row>
@@ -1911,10 +1911,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100000</v>
+        <v>99300</v>
       </c>
       <c r="E58" s="3">
-        <v>98200</v>
+        <v>97500</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>17</v>
@@ -1929,7 +1929,7 @@
         <v>17</v>
       </c>
       <c r="J58" s="3">
-        <v>21000</v>
+        <v>20800</v>
       </c>
       <c r="K58" s="3"/>
     </row>
@@ -1938,25 +1938,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>152600</v>
+        <v>151600</v>
       </c>
       <c r="E59" s="3">
-        <v>100100</v>
+        <v>99400</v>
       </c>
       <c r="F59" s="3">
-        <v>131800</v>
+        <v>130900</v>
       </c>
       <c r="G59" s="3">
-        <v>69300</v>
+        <v>68900</v>
       </c>
       <c r="H59" s="3">
-        <v>60300</v>
+        <v>59900</v>
       </c>
       <c r="I59" s="3">
-        <v>178900</v>
+        <v>177700</v>
       </c>
       <c r="J59" s="3">
-        <v>129700</v>
+        <v>128800</v>
       </c>
       <c r="K59" s="3"/>
     </row>
@@ -1965,25 +1965,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>336100</v>
+        <v>333800</v>
       </c>
       <c r="E60" s="3">
-        <v>284400</v>
+        <v>282400</v>
       </c>
       <c r="F60" s="3">
-        <v>181700</v>
+        <v>180500</v>
       </c>
       <c r="G60" s="3">
-        <v>146400</v>
+        <v>145400</v>
       </c>
       <c r="H60" s="3">
-        <v>116300</v>
+        <v>115500</v>
       </c>
       <c r="I60" s="3">
-        <v>303700</v>
+        <v>301700</v>
       </c>
       <c r="J60" s="3">
-        <v>257900</v>
+        <v>256100</v>
       </c>
       <c r="K60" s="3"/>
     </row>
@@ -1992,25 +1992,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>576000</v>
+        <v>572100</v>
       </c>
       <c r="E61" s="3">
-        <v>549200</v>
+        <v>545500</v>
       </c>
       <c r="F61" s="3">
-        <v>772800</v>
+        <v>767500</v>
       </c>
       <c r="G61" s="3">
-        <v>761600</v>
+        <v>756400</v>
       </c>
       <c r="H61" s="3">
-        <v>758800</v>
+        <v>753600</v>
       </c>
       <c r="I61" s="3">
-        <v>756000</v>
+        <v>750800</v>
       </c>
       <c r="J61" s="3">
-        <v>753100</v>
+        <v>748000</v>
       </c>
       <c r="K61" s="3"/>
     </row>
@@ -2019,25 +2019,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>681500</v>
+        <v>688900</v>
       </c>
       <c r="E62" s="3">
-        <v>673600</v>
+        <v>669000</v>
       </c>
       <c r="F62" s="3">
-        <v>689600</v>
+        <v>684800</v>
       </c>
       <c r="G62" s="3">
-        <v>845100</v>
+        <v>839300</v>
       </c>
       <c r="H62" s="3">
-        <v>697900</v>
+        <v>693200</v>
       </c>
       <c r="I62" s="3">
-        <v>919200</v>
+        <v>912900</v>
       </c>
       <c r="J62" s="3">
-        <v>1317800</v>
+        <v>1308800</v>
       </c>
       <c r="K62" s="3"/>
     </row>
@@ -2127,25 +2127,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1646100</v>
+        <v>1646800</v>
       </c>
       <c r="E66" s="3">
-        <v>1583300</v>
+        <v>1572400</v>
       </c>
       <c r="F66" s="3">
-        <v>1725400</v>
+        <v>1713600</v>
       </c>
       <c r="G66" s="3">
-        <v>1855600</v>
+        <v>1842900</v>
       </c>
       <c r="H66" s="3">
-        <v>1686900</v>
+        <v>1675400</v>
       </c>
       <c r="I66" s="3">
-        <v>2196600</v>
+        <v>2181600</v>
       </c>
       <c r="J66" s="3">
-        <v>2692300</v>
+        <v>2673800</v>
       </c>
       <c r="K66" s="3"/>
     </row>
@@ -2275,25 +2275,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2725900</v>
+        <v>-2679100</v>
       </c>
       <c r="E72" s="3">
-        <v>-2860000</v>
+        <v>-2840400</v>
       </c>
       <c r="F72" s="3">
-        <v>-2963400</v>
+        <v>-2943100</v>
       </c>
       <c r="G72" s="3">
-        <v>-2499200</v>
+        <v>-2482100</v>
       </c>
       <c r="H72" s="3">
-        <v>-2472900</v>
+        <v>-2455900</v>
       </c>
       <c r="I72" s="3">
-        <v>-2031500</v>
+        <v>-2017500</v>
       </c>
       <c r="J72" s="3">
-        <v>-40700</v>
+        <v>-40400</v>
       </c>
       <c r="K72" s="3"/>
     </row>
@@ -2383,25 +2383,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4637300</v>
+        <v>4633700</v>
       </c>
       <c r="E76" s="3">
-        <v>4379400</v>
+        <v>4349400</v>
       </c>
       <c r="F76" s="3">
-        <v>4211600</v>
+        <v>4182700</v>
       </c>
       <c r="G76" s="3">
-        <v>4673200</v>
+        <v>4641100</v>
       </c>
       <c r="H76" s="3">
-        <v>4466900</v>
+        <v>4436200</v>
       </c>
       <c r="I76" s="3">
-        <v>4811900</v>
+        <v>4778900</v>
       </c>
       <c r="J76" s="3">
-        <v>6790800</v>
+        <v>6744200</v>
       </c>
       <c r="K76" s="3"/>
     </row>
@@ -2469,25 +2469,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>134100</v>
+        <v>133200</v>
       </c>
       <c r="E81" s="3">
-        <v>103400</v>
+        <v>102700</v>
       </c>
       <c r="F81" s="3">
-        <v>-464200</v>
+        <v>-461000</v>
       </c>
       <c r="G81" s="3">
         <v>-12700</v>
       </c>
       <c r="H81" s="3">
-        <v>-441400</v>
+        <v>-438400</v>
       </c>
       <c r="I81" s="3">
-        <v>-1976400</v>
+        <v>-1962800</v>
       </c>
       <c r="J81" s="3">
-        <v>131600</v>
+        <v>130700</v>
       </c>
       <c r="K81" s="3"/>
     </row>
@@ -2509,25 +2509,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>319100</v>
+        <v>316900</v>
       </c>
       <c r="E83" s="3">
-        <v>199200</v>
+        <v>197900</v>
       </c>
       <c r="F83" s="3">
-        <v>135600</v>
+        <v>134700</v>
       </c>
       <c r="G83" s="3">
-        <v>92500</v>
+        <v>91900</v>
       </c>
       <c r="H83" s="3">
-        <v>96100</v>
+        <v>95400</v>
       </c>
       <c r="I83" s="3">
-        <v>114600</v>
+        <v>113800</v>
       </c>
       <c r="J83" s="3">
-        <v>227300</v>
+        <v>225800</v>
       </c>
       <c r="K83" s="3"/>
     </row>
@@ -2671,25 +2671,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>545900</v>
+        <v>542100</v>
       </c>
       <c r="E89" s="3">
-        <v>212600</v>
+        <v>211100</v>
       </c>
       <c r="F89" s="3">
-        <v>86600</v>
+        <v>86000</v>
       </c>
       <c r="G89" s="3">
-        <v>35900</v>
+        <v>35600</v>
       </c>
       <c r="H89" s="3">
-        <v>145800</v>
+        <v>144800</v>
       </c>
       <c r="I89" s="3">
-        <v>286500</v>
+        <v>284500</v>
       </c>
       <c r="J89" s="3">
-        <v>363400</v>
+        <v>360900</v>
       </c>
       <c r="K89" s="3"/>
     </row>
@@ -2711,25 +2711,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-244900</v>
+        <v>-243200</v>
       </c>
       <c r="E91" s="3">
-        <v>-275100</v>
+        <v>-273200</v>
       </c>
       <c r="F91" s="3">
-        <v>-297100</v>
+        <v>-295100</v>
       </c>
       <c r="G91" s="3">
-        <v>-443600</v>
+        <v>-440600</v>
       </c>
       <c r="H91" s="3">
-        <v>-381800</v>
+        <v>-379200</v>
       </c>
       <c r="I91" s="3">
-        <v>-445100</v>
+        <v>-442100</v>
       </c>
       <c r="J91" s="3">
-        <v>-526800</v>
+        <v>-523100</v>
       </c>
       <c r="K91" s="3"/>
     </row>
@@ -2792,25 +2792,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-313200</v>
+        <v>-311100</v>
       </c>
       <c r="E94" s="3">
-        <v>-242200</v>
+        <v>-240600</v>
       </c>
       <c r="F94" s="3">
-        <v>-330100</v>
+        <v>-327900</v>
       </c>
       <c r="G94" s="3">
-        <v>-534000</v>
+        <v>-530300</v>
       </c>
       <c r="H94" s="3">
-        <v>617300</v>
+        <v>613100</v>
       </c>
       <c r="I94" s="3">
-        <v>-503900</v>
+        <v>-500400</v>
       </c>
       <c r="J94" s="3">
-        <v>-492700</v>
+        <v>-489300</v>
       </c>
       <c r="K94" s="3"/>
     </row>
@@ -2841,16 +2841,16 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-13600</v>
+        <v>-13500</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-14400</v>
+        <v>-14300</v>
       </c>
       <c r="J96" s="3">
-        <v>-16700</v>
+        <v>-16600</v>
       </c>
       <c r="K96" s="3"/>
     </row>
@@ -2940,25 +2940,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>119100</v>
+        <v>118300</v>
       </c>
       <c r="E100" s="3">
-        <v>-109600</v>
+        <v>-108900</v>
       </c>
       <c r="F100" s="3">
-        <v>-4300</v>
+        <v>-4200</v>
       </c>
       <c r="G100" s="3">
-        <v>-19700</v>
+        <v>-19500</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>-52400</v>
+        <v>-52000</v>
       </c>
       <c r="J100" s="3">
-        <v>13000</v>
+        <v>12900</v>
       </c>
       <c r="K100" s="3"/>
     </row>
@@ -2994,25 +2994,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>351700</v>
+        <v>349300</v>
       </c>
       <c r="E102" s="3">
-        <v>-139300</v>
+        <v>-138300</v>
       </c>
       <c r="F102" s="3">
-        <v>-247800</v>
+        <v>-246100</v>
       </c>
       <c r="G102" s="3">
-        <v>-517700</v>
+        <v>-514200</v>
       </c>
       <c r="H102" s="3">
-        <v>763100</v>
+        <v>757900</v>
       </c>
       <c r="I102" s="3">
-        <v>-269800</v>
+        <v>-267900</v>
       </c>
       <c r="J102" s="3">
-        <v>-116300</v>
+        <v>-115500</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/AAII_Financials/Yearly/ELD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ELD_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>ELD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,141 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1307800</v>
+        <v>1199000</v>
       </c>
       <c r="E8" s="3">
-        <v>787000</v>
+        <v>1308300</v>
       </c>
       <c r="F8" s="3">
-        <v>584700</v>
+        <v>787300</v>
       </c>
       <c r="G8" s="3">
-        <v>498600</v>
+        <v>584900</v>
       </c>
       <c r="H8" s="3">
-        <v>551200</v>
+        <v>498800</v>
       </c>
       <c r="I8" s="3">
-        <v>610300</v>
+        <v>551400</v>
       </c>
       <c r="J8" s="3">
+        <v>610500</v>
+      </c>
+      <c r="K8" s="3">
         <v>1360300</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>881300</v>
+        <v>829200</v>
       </c>
       <c r="E9" s="3">
-        <v>621600</v>
+        <v>845200</v>
       </c>
       <c r="F9" s="3">
-        <v>477900</v>
+        <v>621800</v>
       </c>
       <c r="G9" s="3">
-        <v>338000</v>
+        <v>478100</v>
       </c>
       <c r="H9" s="3">
-        <v>343400</v>
+        <v>338100</v>
       </c>
       <c r="I9" s="3">
-        <v>450200</v>
+        <v>343500</v>
       </c>
       <c r="J9" s="3">
+        <v>450400</v>
+      </c>
+      <c r="K9" s="3">
         <v>890400</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>426500</v>
+        <v>369800</v>
       </c>
       <c r="E10" s="3">
-        <v>165400</v>
+        <v>463100</v>
       </c>
       <c r="F10" s="3">
+        <v>165500</v>
+      </c>
+      <c r="G10" s="3">
         <v>106800</v>
       </c>
-      <c r="G10" s="3">
-        <v>160600</v>
-      </c>
       <c r="H10" s="3">
-        <v>207800</v>
+        <v>160700</v>
       </c>
       <c r="I10" s="3">
-        <v>160000</v>
+        <v>207900</v>
       </c>
       <c r="J10" s="3">
+        <v>160100</v>
+      </c>
+      <c r="K10" s="3">
         <v>469900</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,35 +811,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>16200</v>
+        <v>23300</v>
       </c>
       <c r="E12" s="3">
+        <v>15900</v>
+      </c>
+      <c r="F12" s="3">
         <v>18700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>43100</v>
       </c>
-      <c r="G12" s="3">
-        <v>48700</v>
-      </c>
       <c r="H12" s="3">
+        <v>48800</v>
+      </c>
+      <c r="I12" s="3">
         <v>23900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>20800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>20700</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -852,36 +868,42 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E14" s="3">
         <v>46100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-110900</v>
       </c>
-      <c r="F14" s="3">
-        <v>572400</v>
-      </c>
       <c r="G14" s="3">
+        <v>572600</v>
+      </c>
+      <c r="H14" s="3">
         <v>64900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>5800</v>
       </c>
-      <c r="I14" s="3">
-        <v>2360400</v>
-      </c>
       <c r="J14" s="3">
+        <v>2361300</v>
+      </c>
+      <c r="K14" s="3">
         <v>3800</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -906,9 +928,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1013300</v>
+        <v>927700</v>
       </c>
       <c r="E17" s="3">
-        <v>604500</v>
+        <v>976300</v>
       </c>
       <c r="F17" s="3">
-        <v>1192000</v>
+        <v>604700</v>
       </c>
       <c r="G17" s="3">
-        <v>547700</v>
+        <v>1192500</v>
       </c>
       <c r="H17" s="3">
-        <v>465900</v>
+        <v>547900</v>
       </c>
       <c r="I17" s="3">
-        <v>2943700</v>
+        <v>466000</v>
       </c>
       <c r="J17" s="3">
+        <v>2944900</v>
+      </c>
+      <c r="K17" s="3">
         <v>1036800</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>294500</v>
+        <v>271300</v>
       </c>
       <c r="E18" s="3">
-        <v>182500</v>
+        <v>332000</v>
       </c>
       <c r="F18" s="3">
-        <v>-607300</v>
+        <v>182600</v>
       </c>
       <c r="G18" s="3">
+        <v>-607600</v>
+      </c>
+      <c r="H18" s="3">
         <v>-49100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>85400</v>
       </c>
-      <c r="I18" s="3">
-        <v>-2333500</v>
-      </c>
       <c r="J18" s="3">
+        <v>-2334400</v>
+      </c>
+      <c r="K18" s="3">
         <v>323400</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -984,143 +1016,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-15900</v>
+        <v>-59100</v>
       </c>
       <c r="E20" s="3">
+        <v>-58500</v>
+      </c>
+      <c r="F20" s="3">
         <v>17300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>13600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>50100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-16400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3900</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>596700</v>
+        <v>472000</v>
       </c>
       <c r="E21" s="3">
-        <v>398400</v>
+        <v>555500</v>
       </c>
       <c r="F21" s="3">
+        <v>398800</v>
+      </c>
+      <c r="G21" s="3">
         <v>-458600</v>
       </c>
-      <c r="G21" s="3">
-        <v>93200</v>
-      </c>
       <c r="H21" s="3">
-        <v>164700</v>
+        <v>93400</v>
       </c>
       <c r="I21" s="3">
-        <v>-2222700</v>
+        <v>164900</v>
       </c>
       <c r="J21" s="3">
+        <v>-2223400</v>
+      </c>
+      <c r="K21" s="3">
         <v>546100</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>53800</v>
+        <v>19700</v>
       </c>
       <c r="E22" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F22" s="3">
         <v>55300</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="3">
         <v>6900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>12200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>29300</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>224800</v>
+        <v>192500</v>
       </c>
       <c r="E23" s="3">
-        <v>144500</v>
+        <v>262900</v>
       </c>
       <c r="F23" s="3">
-        <v>-593800</v>
+        <v>144600</v>
       </c>
       <c r="G23" s="3">
+        <v>-594000</v>
+      </c>
+      <c r="H23" s="3">
         <v>1000</v>
       </c>
-      <c r="H23" s="3">
-        <v>62000</v>
-      </c>
       <c r="I23" s="3">
-        <v>-2349100</v>
+        <v>62100</v>
       </c>
       <c r="J23" s="3">
+        <v>-2350000</v>
+      </c>
+      <c r="K23" s="3">
         <v>290200</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100800</v>
+        <v>178400</v>
       </c>
       <c r="E24" s="3">
+        <v>105000</v>
+      </c>
+      <c r="F24" s="3">
         <v>50700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-110200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>24700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>71600</v>
       </c>
-      <c r="I24" s="3">
-        <v>-282000</v>
-      </c>
       <c r="J24" s="3">
+        <v>-282100</v>
+      </c>
+      <c r="K24" s="3">
         <v>154500</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>124000</v>
+        <v>14100</v>
       </c>
       <c r="E26" s="3">
+        <v>158000</v>
+      </c>
+      <c r="F26" s="3">
         <v>93900</v>
       </c>
-      <c r="F26" s="3">
-        <v>-483600</v>
-      </c>
       <c r="G26" s="3">
+        <v>-483800</v>
+      </c>
+      <c r="H26" s="3">
         <v>-23700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9600</v>
       </c>
-      <c r="I26" s="3">
-        <v>-2067100</v>
-      </c>
       <c r="J26" s="3">
+        <v>-2067900</v>
+      </c>
+      <c r="K26" s="3">
         <v>135700</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>133200</v>
+        <v>13700</v>
       </c>
       <c r="E27" s="3">
+        <v>167100</v>
+      </c>
+      <c r="F27" s="3">
         <v>102700</v>
       </c>
-      <c r="F27" s="3">
-        <v>-461000</v>
-      </c>
       <c r="G27" s="3">
+        <v>-461100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-9100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6100</v>
       </c>
-      <c r="I27" s="3">
-        <v>-1934300</v>
-      </c>
       <c r="J27" s="3">
+        <v>-1935000</v>
+      </c>
+      <c r="K27" s="3">
         <v>130700</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,36 +1283,42 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>-187100</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-432500</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="H29" s="3">
-        <v>-432300</v>
-      </c>
-      <c r="I29" s="3">
-        <v>-28500</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>15900</v>
+        <v>59100</v>
       </c>
       <c r="E32" s="3">
+        <v>58500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-17300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-13600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-50100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>16400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3900</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>133200</v>
+        <v>-173300</v>
       </c>
       <c r="E33" s="3">
+        <v>159000</v>
+      </c>
+      <c r="F33" s="3">
         <v>102700</v>
       </c>
-      <c r="F33" s="3">
-        <v>-461000</v>
-      </c>
       <c r="G33" s="3">
+        <v>-461100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-12700</v>
       </c>
-      <c r="H33" s="3">
-        <v>-438400</v>
-      </c>
       <c r="I33" s="3">
-        <v>-1962800</v>
+        <v>-438600</v>
       </c>
       <c r="J33" s="3">
+        <v>-1963600</v>
+      </c>
+      <c r="K33" s="3">
         <v>130700</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>133200</v>
+        <v>-173300</v>
       </c>
       <c r="E35" s="3">
+        <v>159000</v>
+      </c>
+      <c r="F35" s="3">
         <v>102700</v>
       </c>
-      <c r="F35" s="3">
-        <v>-461000</v>
-      </c>
       <c r="G35" s="3">
+        <v>-461100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-12700</v>
       </c>
-      <c r="H35" s="3">
-        <v>-438400</v>
-      </c>
       <c r="I35" s="3">
-        <v>-1962800</v>
+        <v>-438600</v>
       </c>
       <c r="J35" s="3">
+        <v>-1963600</v>
+      </c>
+      <c r="K35" s="3">
         <v>130700</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,251 +1559,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1048400</v>
+        <v>511400</v>
       </c>
       <c r="E41" s="3">
-        <v>221400</v>
+        <v>1048800</v>
       </c>
       <c r="F41" s="3">
-        <v>255600</v>
+        <v>221500</v>
       </c>
       <c r="G41" s="3">
-        <v>373800</v>
+        <v>255700</v>
       </c>
       <c r="H41" s="3">
-        <v>359200</v>
+        <v>373900</v>
       </c>
       <c r="I41" s="3">
-        <v>306200</v>
+        <v>359400</v>
       </c>
       <c r="J41" s="3">
+        <v>306300</v>
+      </c>
+      <c r="K41" s="3">
         <v>565800</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>178500</v>
+        <v>200</v>
       </c>
       <c r="E42" s="3">
-        <v>14100</v>
+        <v>75500</v>
       </c>
       <c r="F42" s="3">
-        <v>120900</v>
+        <v>9100</v>
       </c>
       <c r="G42" s="3">
-        <v>250400</v>
+        <v>11700</v>
       </c>
       <c r="H42" s="3">
-        <v>808600</v>
+        <v>13400</v>
       </c>
       <c r="I42" s="3">
-        <v>89800</v>
+        <v>42800</v>
       </c>
       <c r="J42" s="3">
+        <v>28900</v>
+      </c>
+      <c r="K42" s="3">
         <v>78200</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>68400</v>
+        <v>64700</v>
       </c>
       <c r="E43" s="3">
+        <v>72300</v>
+      </c>
+      <c r="F43" s="3">
         <v>80900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>83100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>75900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>52800</v>
       </c>
-      <c r="I43" s="3">
-        <v>61400</v>
-      </c>
       <c r="J43" s="3">
+        <v>61500</v>
+      </c>
+      <c r="K43" s="3">
         <v>100300</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>209100</v>
+        <v>227000</v>
       </c>
       <c r="E44" s="3">
-        <v>207900</v>
+        <v>209200</v>
       </c>
       <c r="F44" s="3">
-        <v>175600</v>
+        <v>208000</v>
       </c>
       <c r="G44" s="3">
-        <v>215100</v>
+        <v>175700</v>
       </c>
       <c r="H44" s="3">
-        <v>153900</v>
+        <v>215200</v>
       </c>
       <c r="I44" s="3">
-        <v>223700</v>
+        <v>154000</v>
       </c>
       <c r="J44" s="3">
+        <v>223800</v>
+      </c>
+      <c r="K44" s="3">
         <v>284600</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>32000</v>
+        <v>124700</v>
       </c>
       <c r="E45" s="3">
-        <v>30900</v>
+        <v>131100</v>
       </c>
       <c r="F45" s="3">
-        <v>20400</v>
+        <v>36000</v>
       </c>
       <c r="G45" s="3">
-        <v>24300</v>
+        <v>129600</v>
       </c>
       <c r="H45" s="3">
-        <v>16700</v>
+        <v>261400</v>
       </c>
       <c r="I45" s="3">
-        <v>47700</v>
+        <v>782800</v>
       </c>
       <c r="J45" s="3">
+        <v>108700</v>
+      </c>
+      <c r="K45" s="3">
         <v>50400</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>960600</v>
+        <v>928000</v>
       </c>
       <c r="E46" s="3">
-        <v>555200</v>
+        <v>960900</v>
       </c>
       <c r="F46" s="3">
-        <v>655600</v>
+        <v>555400</v>
       </c>
       <c r="G46" s="3">
-        <v>939400</v>
+        <v>655900</v>
       </c>
       <c r="H46" s="3">
-        <v>1391200</v>
+        <v>939800</v>
       </c>
       <c r="I46" s="3">
-        <v>728900</v>
+        <v>1391800</v>
       </c>
       <c r="J46" s="3">
+        <v>729200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1079200</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>125700</v>
+      </c>
+      <c r="E47" s="3">
         <v>41000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>17500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>8500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>59200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>85000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>31400</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10242200</v>
+        <v>5101300</v>
       </c>
       <c r="E48" s="3">
-        <v>5207600</v>
+        <v>10301900</v>
       </c>
       <c r="F48" s="3">
-        <v>5080500</v>
+        <v>5209600</v>
       </c>
       <c r="G48" s="3">
-        <v>5384900</v>
+        <v>5082500</v>
       </c>
       <c r="H48" s="3">
-        <v>4644100</v>
+        <v>5387000</v>
       </c>
       <c r="I48" s="3">
-        <v>6051200</v>
+        <v>4645900</v>
       </c>
       <c r="J48" s="3">
+        <v>6053600</v>
+      </c>
+      <c r="K48" s="3">
         <v>7600200</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>117900</v>
+        <v>118000</v>
       </c>
       <c r="E49" s="3">
-        <v>117900</v>
+        <v>118000</v>
       </c>
       <c r="F49" s="3">
-        <v>117900</v>
+        <v>118000</v>
       </c>
       <c r="G49" s="3">
-        <v>117900</v>
+        <v>118000</v>
       </c>
       <c r="H49" s="3">
-        <v>0</v>
+        <v>118000</v>
       </c>
       <c r="I49" s="3">
-        <v>64000</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3">
+        <v>64100</v>
+      </c>
+      <c r="K49" s="3">
         <v>670400</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E52" s="3">
         <v>62500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>23600</v>
       </c>
-      <c r="F52" s="3">
-        <v>33700</v>
-      </c>
       <c r="G52" s="3">
-        <v>34900</v>
+        <v>33800</v>
       </c>
       <c r="H52" s="3">
+        <v>35000</v>
+      </c>
+      <c r="I52" s="3">
         <v>17100</v>
       </c>
-      <c r="I52" s="3">
-        <v>31300</v>
-      </c>
       <c r="J52" s="3">
+        <v>31400</v>
+      </c>
+      <c r="K52" s="3">
         <v>36900</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6280500</v>
+        <v>6283200</v>
       </c>
       <c r="E54" s="3">
-        <v>5921800</v>
+        <v>6283000</v>
       </c>
       <c r="F54" s="3">
-        <v>5896300</v>
+        <v>5924100</v>
       </c>
       <c r="G54" s="3">
-        <v>6484100</v>
+        <v>5898600</v>
       </c>
       <c r="H54" s="3">
-        <v>6111600</v>
+        <v>6486600</v>
       </c>
       <c r="I54" s="3">
-        <v>6960500</v>
+        <v>6114000</v>
       </c>
       <c r="J54" s="3">
+        <v>6963200</v>
+      </c>
+      <c r="K54" s="3">
         <v>9418000</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,46 +2007,50 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>311400</v>
+        <v>90500</v>
       </c>
       <c r="E57" s="3">
+        <v>311500</v>
+      </c>
+      <c r="F57" s="3">
         <v>85500</v>
       </c>
-      <c r="F57" s="3">
-        <v>49600</v>
-      </c>
       <c r="G57" s="3">
-        <v>76500</v>
+        <v>49700</v>
       </c>
       <c r="H57" s="3">
+        <v>76600</v>
+      </c>
+      <c r="I57" s="3">
         <v>55700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>124000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>106400</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E58" s="3">
         <v>99300</v>
       </c>
-      <c r="E58" s="3">
-        <v>97500</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>17</v>
+      <c r="F58" s="3">
+        <v>97600</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>17</v>
@@ -1928,120 +2061,135 @@
       <c r="I58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" s="3">
         <v>20800</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>151600</v>
+        <v>163600</v>
       </c>
       <c r="E59" s="3">
+        <v>151700</v>
+      </c>
+      <c r="F59" s="3">
         <v>99400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>130900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>68900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>59900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>177700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>128800</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>333800</v>
+        <v>263300</v>
       </c>
       <c r="E60" s="3">
-        <v>282400</v>
+        <v>333900</v>
       </c>
       <c r="F60" s="3">
-        <v>180500</v>
+        <v>282500</v>
       </c>
       <c r="G60" s="3">
+        <v>180600</v>
+      </c>
+      <c r="H60" s="3">
         <v>145400</v>
       </c>
-      <c r="H60" s="3">
-        <v>115500</v>
-      </c>
       <c r="I60" s="3">
-        <v>301700</v>
+        <v>115600</v>
       </c>
       <c r="J60" s="3">
+        <v>301800</v>
+      </c>
+      <c r="K60" s="3">
         <v>256100</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>572100</v>
+        <v>643100</v>
       </c>
       <c r="E61" s="3">
-        <v>545500</v>
+        <v>572300</v>
       </c>
       <c r="F61" s="3">
-        <v>767500</v>
+        <v>545700</v>
       </c>
       <c r="G61" s="3">
-        <v>756400</v>
+        <v>767800</v>
       </c>
       <c r="H61" s="3">
-        <v>753600</v>
+        <v>756700</v>
       </c>
       <c r="I61" s="3">
-        <v>750800</v>
+        <v>753900</v>
       </c>
       <c r="J61" s="3">
+        <v>751100</v>
+      </c>
+      <c r="K61" s="3">
         <v>748000</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>688900</v>
+        <v>738500</v>
       </c>
       <c r="E62" s="3">
-        <v>669000</v>
+        <v>678400</v>
       </c>
       <c r="F62" s="3">
-        <v>684800</v>
+        <v>669200</v>
       </c>
       <c r="G62" s="3">
-        <v>839300</v>
+        <v>685100</v>
       </c>
       <c r="H62" s="3">
-        <v>693200</v>
+        <v>839700</v>
       </c>
       <c r="I62" s="3">
-        <v>912900</v>
+        <v>693400</v>
       </c>
       <c r="J62" s="3">
+        <v>913300</v>
+      </c>
+      <c r="K62" s="3">
         <v>1308800</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1646800</v>
+        <v>1733500</v>
       </c>
       <c r="E66" s="3">
-        <v>1572400</v>
+        <v>1636700</v>
       </c>
       <c r="F66" s="3">
-        <v>1713600</v>
+        <v>1573000</v>
       </c>
       <c r="G66" s="3">
-        <v>1842900</v>
+        <v>1714300</v>
       </c>
       <c r="H66" s="3">
-        <v>1675400</v>
+        <v>1843600</v>
       </c>
       <c r="I66" s="3">
-        <v>2181600</v>
+        <v>1676000</v>
       </c>
       <c r="J66" s="3">
+        <v>2182400</v>
+      </c>
+      <c r="K66" s="3">
         <v>2673800</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2679100</v>
+        <v>-2853400</v>
       </c>
       <c r="E72" s="3">
-        <v>-2840400</v>
+        <v>-2680100</v>
       </c>
       <c r="F72" s="3">
-        <v>-2943100</v>
+        <v>-2841500</v>
       </c>
       <c r="G72" s="3">
-        <v>-2482100</v>
+        <v>-2944200</v>
       </c>
       <c r="H72" s="3">
-        <v>-2455900</v>
+        <v>-2483100</v>
       </c>
       <c r="I72" s="3">
-        <v>-2017500</v>
+        <v>-2456900</v>
       </c>
       <c r="J72" s="3">
+        <v>-2018300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-40400</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4633700</v>
+        <v>4549700</v>
       </c>
       <c r="E76" s="3">
-        <v>4349400</v>
+        <v>4646300</v>
       </c>
       <c r="F76" s="3">
-        <v>4182700</v>
+        <v>4351100</v>
       </c>
       <c r="G76" s="3">
-        <v>4641100</v>
+        <v>4184400</v>
       </c>
       <c r="H76" s="3">
-        <v>4436200</v>
+        <v>4643000</v>
       </c>
       <c r="I76" s="3">
-        <v>4778900</v>
+        <v>4438000</v>
       </c>
       <c r="J76" s="3">
+        <v>4780800</v>
+      </c>
+      <c r="K76" s="3">
         <v>6744200</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>133200</v>
+        <v>-173300</v>
       </c>
       <c r="E81" s="3">
+        <v>159000</v>
+      </c>
+      <c r="F81" s="3">
         <v>102700</v>
       </c>
-      <c r="F81" s="3">
-        <v>-461000</v>
-      </c>
       <c r="G81" s="3">
+        <v>-461100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-12700</v>
       </c>
-      <c r="H81" s="3">
-        <v>-438400</v>
-      </c>
       <c r="I81" s="3">
-        <v>-1962800</v>
+        <v>-438600</v>
       </c>
       <c r="J81" s="3">
+        <v>-1963600</v>
+      </c>
+      <c r="K81" s="3">
         <v>130700</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>316900</v>
+        <v>258500</v>
       </c>
       <c r="E83" s="3">
+        <v>280600</v>
+      </c>
+      <c r="F83" s="3">
         <v>197900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>134700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>91900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>95400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>113800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>225800</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>542100</v>
+        <v>461800</v>
       </c>
       <c r="E89" s="3">
-        <v>211100</v>
+        <v>598900</v>
       </c>
       <c r="F89" s="3">
-        <v>86000</v>
+        <v>211200</v>
       </c>
       <c r="G89" s="3">
-        <v>35600</v>
+        <v>86100</v>
       </c>
       <c r="H89" s="3">
+        <v>35700</v>
+      </c>
+      <c r="I89" s="3">
         <v>144800</v>
       </c>
-      <c r="I89" s="3">
-        <v>284500</v>
-      </c>
       <c r="J89" s="3">
+        <v>284600</v>
+      </c>
+      <c r="K89" s="3">
         <v>360900</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-243200</v>
+        <v>-359500</v>
       </c>
       <c r="E91" s="3">
-        <v>-273200</v>
+        <v>-240700</v>
       </c>
       <c r="F91" s="3">
-        <v>-295100</v>
+        <v>-273300</v>
       </c>
       <c r="G91" s="3">
-        <v>-440600</v>
+        <v>-295200</v>
       </c>
       <c r="H91" s="3">
-        <v>-379200</v>
+        <v>-440800</v>
       </c>
       <c r="I91" s="3">
-        <v>-442100</v>
+        <v>-379300</v>
       </c>
       <c r="J91" s="3">
+        <v>-442300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-523100</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-311100</v>
+        <v>-338800</v>
       </c>
       <c r="E94" s="3">
-        <v>-240600</v>
+        <v>-311200</v>
       </c>
       <c r="F94" s="3">
-        <v>-327900</v>
+        <v>-240700</v>
       </c>
       <c r="G94" s="3">
-        <v>-530300</v>
+        <v>-328000</v>
       </c>
       <c r="H94" s="3">
-        <v>613100</v>
+        <v>-530500</v>
       </c>
       <c r="I94" s="3">
-        <v>-500400</v>
+        <v>613300</v>
       </c>
       <c r="J94" s="3">
+        <v>-500600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-489300</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,8 +3058,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2841,20 +3074,23 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-13500</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-14300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-16600</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,36 +3175,42 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>118300</v>
+        <v>-85500</v>
       </c>
       <c r="E100" s="3">
+        <v>61800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-108900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-19500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-52000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>12900</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -2987,34 +3235,40 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>349300</v>
+        <v>37400</v>
       </c>
       <c r="E102" s="3">
-        <v>-138300</v>
+        <v>349400</v>
       </c>
       <c r="F102" s="3">
-        <v>-246100</v>
+        <v>-138400</v>
       </c>
       <c r="G102" s="3">
-        <v>-514200</v>
+        <v>-246200</v>
       </c>
       <c r="H102" s="3">
-        <v>757900</v>
+        <v>-514400</v>
       </c>
       <c r="I102" s="3">
-        <v>-267900</v>
+        <v>758200</v>
       </c>
       <c r="J102" s="3">
+        <v>-268000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-115500</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ELD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ELD_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1199000</v>
+        <v>1227300</v>
       </c>
       <c r="E8" s="3">
-        <v>1308300</v>
+        <v>1339200</v>
       </c>
       <c r="F8" s="3">
-        <v>787300</v>
+        <v>805900</v>
       </c>
       <c r="G8" s="3">
-        <v>584900</v>
+        <v>598700</v>
       </c>
       <c r="H8" s="3">
-        <v>498800</v>
+        <v>510500</v>
       </c>
       <c r="I8" s="3">
-        <v>551400</v>
+        <v>564400</v>
       </c>
       <c r="J8" s="3">
-        <v>610500</v>
+        <v>624900</v>
       </c>
       <c r="K8" s="3">
         <v>1360300</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>829200</v>
+        <v>848800</v>
       </c>
       <c r="E9" s="3">
-        <v>845200</v>
+        <v>865200</v>
       </c>
       <c r="F9" s="3">
-        <v>621800</v>
+        <v>636500</v>
       </c>
       <c r="G9" s="3">
-        <v>478100</v>
+        <v>489400</v>
       </c>
       <c r="H9" s="3">
-        <v>338100</v>
+        <v>346100</v>
       </c>
       <c r="I9" s="3">
-        <v>343500</v>
+        <v>351600</v>
       </c>
       <c r="J9" s="3">
-        <v>450400</v>
+        <v>461100</v>
       </c>
       <c r="K9" s="3">
         <v>890400</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>369800</v>
+        <v>378500</v>
       </c>
       <c r="E10" s="3">
-        <v>463100</v>
+        <v>474000</v>
       </c>
       <c r="F10" s="3">
-        <v>165500</v>
+        <v>169400</v>
       </c>
       <c r="G10" s="3">
-        <v>106800</v>
+        <v>109400</v>
       </c>
       <c r="H10" s="3">
-        <v>160700</v>
+        <v>164500</v>
       </c>
       <c r="I10" s="3">
-        <v>207900</v>
+        <v>212800</v>
       </c>
       <c r="J10" s="3">
-        <v>160100</v>
+        <v>163800</v>
       </c>
       <c r="K10" s="3">
         <v>469900</v>
@@ -818,25 +818,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>23300</v>
+        <v>23900</v>
       </c>
       <c r="E12" s="3">
-        <v>15900</v>
+        <v>16300</v>
       </c>
       <c r="F12" s="3">
-        <v>18700</v>
+        <v>19100</v>
       </c>
       <c r="G12" s="3">
-        <v>43100</v>
+        <v>44100</v>
       </c>
       <c r="H12" s="3">
-        <v>48800</v>
+        <v>49900</v>
       </c>
       <c r="I12" s="3">
-        <v>23900</v>
+        <v>24500</v>
       </c>
       <c r="J12" s="3">
-        <v>20800</v>
+        <v>21300</v>
       </c>
       <c r="K12" s="3">
         <v>20700</v>
@@ -878,25 +878,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>29300</v>
+        <v>30000</v>
       </c>
       <c r="E14" s="3">
-        <v>46100</v>
+        <v>47200</v>
       </c>
       <c r="F14" s="3">
-        <v>-110900</v>
+        <v>-113600</v>
       </c>
       <c r="G14" s="3">
-        <v>572600</v>
+        <v>586100</v>
       </c>
       <c r="H14" s="3">
-        <v>64900</v>
+        <v>66500</v>
       </c>
       <c r="I14" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="J14" s="3">
-        <v>2361300</v>
+        <v>2417100</v>
       </c>
       <c r="K14" s="3">
         <v>3800</v>
@@ -949,25 +949,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>927700</v>
+        <v>949600</v>
       </c>
       <c r="E17" s="3">
-        <v>976300</v>
+        <v>999400</v>
       </c>
       <c r="F17" s="3">
-        <v>604700</v>
+        <v>619000</v>
       </c>
       <c r="G17" s="3">
-        <v>1192500</v>
+        <v>1220600</v>
       </c>
       <c r="H17" s="3">
-        <v>547900</v>
+        <v>560800</v>
       </c>
       <c r="I17" s="3">
-        <v>466000</v>
+        <v>477000</v>
       </c>
       <c r="J17" s="3">
-        <v>2944900</v>
+        <v>3014400</v>
       </c>
       <c r="K17" s="3">
         <v>1036800</v>
@@ -979,25 +979,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>271300</v>
+        <v>277700</v>
       </c>
       <c r="E18" s="3">
-        <v>332000</v>
+        <v>339800</v>
       </c>
       <c r="F18" s="3">
-        <v>182600</v>
+        <v>186900</v>
       </c>
       <c r="G18" s="3">
-        <v>-607600</v>
+        <v>-621900</v>
       </c>
       <c r="H18" s="3">
-        <v>-49100</v>
+        <v>-50300</v>
       </c>
       <c r="I18" s="3">
-        <v>85400</v>
+        <v>87400</v>
       </c>
       <c r="J18" s="3">
-        <v>-2334400</v>
+        <v>-2389500</v>
       </c>
       <c r="K18" s="3">
         <v>323400</v>
@@ -1023,25 +1023,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-59100</v>
+        <v>-60500</v>
       </c>
       <c r="E20" s="3">
-        <v>-58500</v>
+        <v>-59800</v>
       </c>
       <c r="F20" s="3">
-        <v>17300</v>
+        <v>17700</v>
       </c>
       <c r="G20" s="3">
-        <v>13600</v>
+        <v>13900</v>
       </c>
       <c r="H20" s="3">
-        <v>50100</v>
+        <v>51300</v>
       </c>
       <c r="I20" s="3">
-        <v>-16400</v>
+        <v>-16800</v>
       </c>
       <c r="J20" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="K20" s="3">
         <v>-3900</v>
@@ -1053,25 +1053,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>472000</v>
+        <v>480800</v>
       </c>
       <c r="E21" s="3">
-        <v>555500</v>
+        <v>566100</v>
       </c>
       <c r="F21" s="3">
-        <v>398800</v>
+        <v>406400</v>
       </c>
       <c r="G21" s="3">
-        <v>-458600</v>
+        <v>-470600</v>
       </c>
       <c r="H21" s="3">
-        <v>93400</v>
+        <v>94800</v>
       </c>
       <c r="I21" s="3">
-        <v>164900</v>
+        <v>167900</v>
       </c>
       <c r="J21" s="3">
-        <v>-2223400</v>
+        <v>-2277000</v>
       </c>
       <c r="K21" s="3">
         <v>546100</v>
@@ -1083,13 +1083,13 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>19700</v>
+        <v>20200</v>
       </c>
       <c r="E22" s="3">
-        <v>10600</v>
+        <v>10800</v>
       </c>
       <c r="F22" s="3">
-        <v>55300</v>
+        <v>56600</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>17</v>
@@ -1098,10 +1098,10 @@
         <v>17</v>
       </c>
       <c r="I22" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="J22" s="3">
-        <v>12200</v>
+        <v>12500</v>
       </c>
       <c r="K22" s="3">
         <v>29300</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>192500</v>
+        <v>197100</v>
       </c>
       <c r="E23" s="3">
-        <v>262900</v>
+        <v>269100</v>
       </c>
       <c r="F23" s="3">
-        <v>144600</v>
+        <v>148000</v>
       </c>
       <c r="G23" s="3">
-        <v>-594000</v>
+        <v>-608000</v>
       </c>
       <c r="H23" s="3">
         <v>1000</v>
       </c>
       <c r="I23" s="3">
-        <v>62100</v>
+        <v>63500</v>
       </c>
       <c r="J23" s="3">
-        <v>-2350000</v>
+        <v>-2405500</v>
       </c>
       <c r="K23" s="3">
         <v>290200</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>178400</v>
+        <v>182600</v>
       </c>
       <c r="E24" s="3">
-        <v>105000</v>
+        <v>107400</v>
       </c>
       <c r="F24" s="3">
-        <v>50700</v>
+        <v>51900</v>
       </c>
       <c r="G24" s="3">
-        <v>-110200</v>
+        <v>-112800</v>
       </c>
       <c r="H24" s="3">
-        <v>24700</v>
+        <v>25300</v>
       </c>
       <c r="I24" s="3">
-        <v>71600</v>
+        <v>73300</v>
       </c>
       <c r="J24" s="3">
-        <v>-282100</v>
+        <v>-288800</v>
       </c>
       <c r="K24" s="3">
         <v>154500</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>14100</v>
+        <v>14500</v>
       </c>
       <c r="E26" s="3">
-        <v>158000</v>
+        <v>161700</v>
       </c>
       <c r="F26" s="3">
-        <v>93900</v>
+        <v>96100</v>
       </c>
       <c r="G26" s="3">
-        <v>-483800</v>
+        <v>-495200</v>
       </c>
       <c r="H26" s="3">
-        <v>-23700</v>
+        <v>-24300</v>
       </c>
       <c r="I26" s="3">
-        <v>-9600</v>
+        <v>-9800</v>
       </c>
       <c r="J26" s="3">
-        <v>-2067900</v>
+        <v>-2116700</v>
       </c>
       <c r="K26" s="3">
         <v>135700</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>13700</v>
+        <v>14100</v>
       </c>
       <c r="E27" s="3">
-        <v>167100</v>
+        <v>171100</v>
       </c>
       <c r="F27" s="3">
-        <v>102700</v>
+        <v>105100</v>
       </c>
       <c r="G27" s="3">
-        <v>-461100</v>
+        <v>-472000</v>
       </c>
       <c r="H27" s="3">
-        <v>-9100</v>
+        <v>-9300</v>
       </c>
       <c r="I27" s="3">
-        <v>-6100</v>
+        <v>-6200</v>
       </c>
       <c r="J27" s="3">
-        <v>-1935000</v>
+        <v>-1980700</v>
       </c>
       <c r="K27" s="3">
         <v>130700</v>
@@ -1293,10 +1293,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-187100</v>
+        <v>-191500</v>
       </c>
       <c r="E29" s="3">
-        <v>-8100</v>
+        <v>-8300</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>17</v>
@@ -1308,10 +1308,10 @@
         <v>-3600</v>
       </c>
       <c r="I29" s="3">
-        <v>-432500</v>
+        <v>-442700</v>
       </c>
       <c r="J29" s="3">
-        <v>-28500</v>
+        <v>-29200</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>17</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>59100</v>
+        <v>60500</v>
       </c>
       <c r="E32" s="3">
-        <v>58500</v>
+        <v>59800</v>
       </c>
       <c r="F32" s="3">
-        <v>-17300</v>
+        <v>-17700</v>
       </c>
       <c r="G32" s="3">
-        <v>-13600</v>
+        <v>-13900</v>
       </c>
       <c r="H32" s="3">
-        <v>-50100</v>
+        <v>-51300</v>
       </c>
       <c r="I32" s="3">
-        <v>16400</v>
+        <v>16800</v>
       </c>
       <c r="J32" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="K32" s="3">
         <v>3900</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-173300</v>
+        <v>-177400</v>
       </c>
       <c r="E33" s="3">
-        <v>159000</v>
+        <v>162800</v>
       </c>
       <c r="F33" s="3">
-        <v>102700</v>
+        <v>105100</v>
       </c>
       <c r="G33" s="3">
-        <v>-461100</v>
+        <v>-472000</v>
       </c>
       <c r="H33" s="3">
-        <v>-12700</v>
+        <v>-13000</v>
       </c>
       <c r="I33" s="3">
-        <v>-438600</v>
+        <v>-448900</v>
       </c>
       <c r="J33" s="3">
-        <v>-1963600</v>
+        <v>-2009900</v>
       </c>
       <c r="K33" s="3">
         <v>130700</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-173300</v>
+        <v>-177400</v>
       </c>
       <c r="E35" s="3">
-        <v>159000</v>
+        <v>162800</v>
       </c>
       <c r="F35" s="3">
-        <v>102700</v>
+        <v>105100</v>
       </c>
       <c r="G35" s="3">
-        <v>-461100</v>
+        <v>-472000</v>
       </c>
       <c r="H35" s="3">
-        <v>-12700</v>
+        <v>-13000</v>
       </c>
       <c r="I35" s="3">
-        <v>-438600</v>
+        <v>-448900</v>
       </c>
       <c r="J35" s="3">
-        <v>-1963600</v>
+        <v>-2009900</v>
       </c>
       <c r="K35" s="3">
         <v>130700</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>511400</v>
+        <v>523500</v>
       </c>
       <c r="E41" s="3">
-        <v>1048800</v>
+        <v>1073500</v>
       </c>
       <c r="F41" s="3">
-        <v>221500</v>
+        <v>226700</v>
       </c>
       <c r="G41" s="3">
-        <v>255700</v>
+        <v>261700</v>
       </c>
       <c r="H41" s="3">
-        <v>373900</v>
+        <v>382800</v>
       </c>
       <c r="I41" s="3">
-        <v>359400</v>
+        <v>367900</v>
       </c>
       <c r="J41" s="3">
-        <v>306300</v>
+        <v>313600</v>
       </c>
       <c r="K41" s="3">
         <v>565800</v>
@@ -1599,22 +1599,22 @@
         <v>200</v>
       </c>
       <c r="E42" s="3">
-        <v>75500</v>
+        <v>77300</v>
       </c>
       <c r="F42" s="3">
-        <v>9100</v>
+        <v>9300</v>
       </c>
       <c r="G42" s="3">
-        <v>11700</v>
+        <v>12000</v>
       </c>
       <c r="H42" s="3">
-        <v>13400</v>
+        <v>13700</v>
       </c>
       <c r="I42" s="3">
-        <v>42800</v>
+        <v>43900</v>
       </c>
       <c r="J42" s="3">
-        <v>28900</v>
+        <v>29600</v>
       </c>
       <c r="K42" s="3">
         <v>78200</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>64700</v>
+        <v>66200</v>
       </c>
       <c r="E43" s="3">
-        <v>72300</v>
+        <v>74000</v>
       </c>
       <c r="F43" s="3">
-        <v>80900</v>
+        <v>82800</v>
       </c>
       <c r="G43" s="3">
-        <v>83100</v>
+        <v>85100</v>
       </c>
       <c r="H43" s="3">
-        <v>75900</v>
+        <v>77700</v>
       </c>
       <c r="I43" s="3">
-        <v>52800</v>
+        <v>54000</v>
       </c>
       <c r="J43" s="3">
-        <v>61500</v>
+        <v>62900</v>
       </c>
       <c r="K43" s="3">
         <v>100300</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>227000</v>
+        <v>232400</v>
       </c>
       <c r="E44" s="3">
-        <v>209200</v>
+        <v>214100</v>
       </c>
       <c r="F44" s="3">
-        <v>208000</v>
+        <v>212900</v>
       </c>
       <c r="G44" s="3">
-        <v>175700</v>
+        <v>179900</v>
       </c>
       <c r="H44" s="3">
-        <v>215200</v>
+        <v>220200</v>
       </c>
       <c r="I44" s="3">
-        <v>154000</v>
+        <v>157600</v>
       </c>
       <c r="J44" s="3">
-        <v>223800</v>
+        <v>229100</v>
       </c>
       <c r="K44" s="3">
         <v>284600</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>124700</v>
+        <v>127600</v>
       </c>
       <c r="E45" s="3">
-        <v>131100</v>
+        <v>134200</v>
       </c>
       <c r="F45" s="3">
-        <v>36000</v>
+        <v>36800</v>
       </c>
       <c r="G45" s="3">
-        <v>129600</v>
+        <v>132700</v>
       </c>
       <c r="H45" s="3">
-        <v>261400</v>
+        <v>267600</v>
       </c>
       <c r="I45" s="3">
-        <v>782800</v>
+        <v>801300</v>
       </c>
       <c r="J45" s="3">
-        <v>108700</v>
+        <v>111200</v>
       </c>
       <c r="K45" s="3">
         <v>50400</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>928000</v>
+        <v>949900</v>
       </c>
       <c r="E46" s="3">
-        <v>960900</v>
+        <v>983600</v>
       </c>
       <c r="F46" s="3">
-        <v>555400</v>
+        <v>568500</v>
       </c>
       <c r="G46" s="3">
-        <v>655900</v>
+        <v>671400</v>
       </c>
       <c r="H46" s="3">
-        <v>939800</v>
+        <v>962000</v>
       </c>
       <c r="I46" s="3">
-        <v>1391800</v>
+        <v>1424600</v>
       </c>
       <c r="J46" s="3">
-        <v>729200</v>
+        <v>746400</v>
       </c>
       <c r="K46" s="3">
         <v>1079200</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>125700</v>
+        <v>128700</v>
       </c>
       <c r="E47" s="3">
-        <v>41000</v>
+        <v>41900</v>
       </c>
       <c r="F47" s="3">
-        <v>17500</v>
+        <v>17900</v>
       </c>
       <c r="G47" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="H47" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="I47" s="3">
-        <v>59200</v>
+        <v>60600</v>
       </c>
       <c r="J47" s="3">
-        <v>85000</v>
+        <v>87000</v>
       </c>
       <c r="K47" s="3">
         <v>31400</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5101300</v>
+        <v>5221800</v>
       </c>
       <c r="E48" s="3">
-        <v>10301900</v>
+        <v>10545300</v>
       </c>
       <c r="F48" s="3">
-        <v>5209600</v>
+        <v>5332700</v>
       </c>
       <c r="G48" s="3">
-        <v>5082500</v>
+        <v>5202600</v>
       </c>
       <c r="H48" s="3">
-        <v>5387000</v>
+        <v>5514200</v>
       </c>
       <c r="I48" s="3">
-        <v>4645900</v>
+        <v>4755600</v>
       </c>
       <c r="J48" s="3">
-        <v>6053600</v>
+        <v>6196500</v>
       </c>
       <c r="K48" s="3">
         <v>7600200</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>118000</v>
+        <v>120800</v>
       </c>
       <c r="E49" s="3">
-        <v>118000</v>
+        <v>120800</v>
       </c>
       <c r="F49" s="3">
-        <v>118000</v>
+        <v>120800</v>
       </c>
       <c r="G49" s="3">
-        <v>118000</v>
+        <v>120800</v>
       </c>
       <c r="H49" s="3">
-        <v>118000</v>
+        <v>120800</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>64100</v>
+        <v>65600</v>
       </c>
       <c r="K49" s="3">
         <v>670400</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>10200</v>
+        <v>10500</v>
       </c>
       <c r="E52" s="3">
-        <v>62500</v>
+        <v>64000</v>
       </c>
       <c r="F52" s="3">
-        <v>23600</v>
+        <v>24200</v>
       </c>
       <c r="G52" s="3">
-        <v>33800</v>
+        <v>34600</v>
       </c>
       <c r="H52" s="3">
-        <v>35000</v>
+        <v>35800</v>
       </c>
       <c r="I52" s="3">
-        <v>17100</v>
+        <v>17500</v>
       </c>
       <c r="J52" s="3">
-        <v>31400</v>
+        <v>32100</v>
       </c>
       <c r="K52" s="3">
         <v>36900</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6283200</v>
+        <v>6431600</v>
       </c>
       <c r="E54" s="3">
-        <v>6283000</v>
+        <v>6431400</v>
       </c>
       <c r="F54" s="3">
-        <v>5924100</v>
+        <v>6064100</v>
       </c>
       <c r="G54" s="3">
-        <v>5898600</v>
+        <v>6038000</v>
       </c>
       <c r="H54" s="3">
-        <v>6486600</v>
+        <v>6639800</v>
       </c>
       <c r="I54" s="3">
-        <v>6114000</v>
+        <v>6258400</v>
       </c>
       <c r="J54" s="3">
-        <v>6963200</v>
+        <v>7127700</v>
       </c>
       <c r="K54" s="3">
         <v>9418000</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>90500</v>
+        <v>92600</v>
       </c>
       <c r="E57" s="3">
-        <v>311500</v>
+        <v>318800</v>
       </c>
       <c r="F57" s="3">
-        <v>85500</v>
+        <v>87500</v>
       </c>
       <c r="G57" s="3">
-        <v>49700</v>
+        <v>50800</v>
       </c>
       <c r="H57" s="3">
-        <v>76600</v>
+        <v>78400</v>
       </c>
       <c r="I57" s="3">
-        <v>55700</v>
+        <v>57000</v>
       </c>
       <c r="J57" s="3">
-        <v>124000</v>
+        <v>127000</v>
       </c>
       <c r="K57" s="3">
         <v>106400</v>
@@ -2044,13 +2044,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="E58" s="3">
-        <v>99300</v>
+        <v>101700</v>
       </c>
       <c r="F58" s="3">
-        <v>97600</v>
+        <v>99900</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>17</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>163600</v>
+        <v>167500</v>
       </c>
       <c r="E59" s="3">
-        <v>151700</v>
+        <v>155200</v>
       </c>
       <c r="F59" s="3">
-        <v>99400</v>
+        <v>101800</v>
       </c>
       <c r="G59" s="3">
-        <v>130900</v>
+        <v>134000</v>
       </c>
       <c r="H59" s="3">
-        <v>68900</v>
+        <v>70500</v>
       </c>
       <c r="I59" s="3">
-        <v>59900</v>
+        <v>61300</v>
       </c>
       <c r="J59" s="3">
-        <v>177700</v>
+        <v>181900</v>
       </c>
       <c r="K59" s="3">
         <v>128800</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>263300</v>
+        <v>269600</v>
       </c>
       <c r="E60" s="3">
-        <v>333900</v>
+        <v>341800</v>
       </c>
       <c r="F60" s="3">
-        <v>282500</v>
+        <v>289200</v>
       </c>
       <c r="G60" s="3">
-        <v>180600</v>
+        <v>184800</v>
       </c>
       <c r="H60" s="3">
-        <v>145400</v>
+        <v>148900</v>
       </c>
       <c r="I60" s="3">
-        <v>115600</v>
+        <v>118300</v>
       </c>
       <c r="J60" s="3">
-        <v>301800</v>
+        <v>308900</v>
       </c>
       <c r="K60" s="3">
         <v>256100</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>643100</v>
+        <v>658300</v>
       </c>
       <c r="E61" s="3">
-        <v>572300</v>
+        <v>585800</v>
       </c>
       <c r="F61" s="3">
-        <v>545700</v>
+        <v>558600</v>
       </c>
       <c r="G61" s="3">
-        <v>767800</v>
+        <v>785900</v>
       </c>
       <c r="H61" s="3">
-        <v>756700</v>
+        <v>774500</v>
       </c>
       <c r="I61" s="3">
-        <v>753900</v>
+        <v>771700</v>
       </c>
       <c r="J61" s="3">
-        <v>751100</v>
+        <v>768800</v>
       </c>
       <c r="K61" s="3">
         <v>748000</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>738500</v>
+        <v>755900</v>
       </c>
       <c r="E62" s="3">
-        <v>678400</v>
+        <v>694400</v>
       </c>
       <c r="F62" s="3">
-        <v>669200</v>
+        <v>685000</v>
       </c>
       <c r="G62" s="3">
-        <v>685100</v>
+        <v>701300</v>
       </c>
       <c r="H62" s="3">
-        <v>839700</v>
+        <v>859500</v>
       </c>
       <c r="I62" s="3">
-        <v>693400</v>
+        <v>709800</v>
       </c>
       <c r="J62" s="3">
-        <v>913300</v>
+        <v>934800</v>
       </c>
       <c r="K62" s="3">
         <v>1308800</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1733500</v>
+        <v>1774500</v>
       </c>
       <c r="E66" s="3">
-        <v>1636700</v>
+        <v>1675300</v>
       </c>
       <c r="F66" s="3">
-        <v>1573000</v>
+        <v>1610200</v>
       </c>
       <c r="G66" s="3">
-        <v>1714300</v>
+        <v>1754700</v>
       </c>
       <c r="H66" s="3">
-        <v>1843600</v>
+        <v>1887200</v>
       </c>
       <c r="I66" s="3">
-        <v>1676000</v>
+        <v>1715600</v>
       </c>
       <c r="J66" s="3">
-        <v>2182400</v>
+        <v>2234000</v>
       </c>
       <c r="K66" s="3">
         <v>2673800</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2853400</v>
+        <v>-2920800</v>
       </c>
       <c r="E72" s="3">
-        <v>-2680100</v>
+        <v>-2743400</v>
       </c>
       <c r="F72" s="3">
-        <v>-2841500</v>
+        <v>-2908600</v>
       </c>
       <c r="G72" s="3">
-        <v>-2944200</v>
+        <v>-3013800</v>
       </c>
       <c r="H72" s="3">
-        <v>-2483100</v>
+        <v>-2541700</v>
       </c>
       <c r="I72" s="3">
-        <v>-2456900</v>
+        <v>-2514900</v>
       </c>
       <c r="J72" s="3">
-        <v>-2018300</v>
+        <v>-2066000</v>
       </c>
       <c r="K72" s="3">
         <v>-40400</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4549700</v>
+        <v>4657200</v>
       </c>
       <c r="E76" s="3">
-        <v>4646300</v>
+        <v>4756100</v>
       </c>
       <c r="F76" s="3">
-        <v>4351100</v>
+        <v>4453900</v>
       </c>
       <c r="G76" s="3">
-        <v>4184400</v>
+        <v>4283200</v>
       </c>
       <c r="H76" s="3">
-        <v>4643000</v>
+        <v>4752600</v>
       </c>
       <c r="I76" s="3">
-        <v>4438000</v>
+        <v>4542800</v>
       </c>
       <c r="J76" s="3">
-        <v>4780800</v>
+        <v>4893700</v>
       </c>
       <c r="K76" s="3">
         <v>6744200</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-173300</v>
+        <v>-177400</v>
       </c>
       <c r="E81" s="3">
-        <v>159000</v>
+        <v>162800</v>
       </c>
       <c r="F81" s="3">
-        <v>102700</v>
+        <v>105100</v>
       </c>
       <c r="G81" s="3">
-        <v>-461100</v>
+        <v>-472000</v>
       </c>
       <c r="H81" s="3">
-        <v>-12700</v>
+        <v>-13000</v>
       </c>
       <c r="I81" s="3">
-        <v>-438600</v>
+        <v>-448900</v>
       </c>
       <c r="J81" s="3">
-        <v>-1963600</v>
+        <v>-2009900</v>
       </c>
       <c r="K81" s="3">
         <v>130700</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>258500</v>
+        <v>264600</v>
       </c>
       <c r="E83" s="3">
-        <v>280600</v>
+        <v>287300</v>
       </c>
       <c r="F83" s="3">
-        <v>197900</v>
+        <v>202600</v>
       </c>
       <c r="G83" s="3">
-        <v>134700</v>
+        <v>137900</v>
       </c>
       <c r="H83" s="3">
-        <v>91900</v>
+        <v>94100</v>
       </c>
       <c r="I83" s="3">
-        <v>95400</v>
+        <v>97700</v>
       </c>
       <c r="J83" s="3">
-        <v>113800</v>
+        <v>116500</v>
       </c>
       <c r="K83" s="3">
         <v>225800</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>461800</v>
+        <v>472700</v>
       </c>
       <c r="E89" s="3">
-        <v>598900</v>
+        <v>613000</v>
       </c>
       <c r="F89" s="3">
-        <v>211200</v>
+        <v>216200</v>
       </c>
       <c r="G89" s="3">
-        <v>86100</v>
+        <v>88100</v>
       </c>
       <c r="H89" s="3">
-        <v>35700</v>
+        <v>36500</v>
       </c>
       <c r="I89" s="3">
-        <v>144800</v>
+        <v>148300</v>
       </c>
       <c r="J89" s="3">
-        <v>284600</v>
+        <v>291300</v>
       </c>
       <c r="K89" s="3">
         <v>360900</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-359500</v>
+        <v>-368000</v>
       </c>
       <c r="E91" s="3">
-        <v>-240700</v>
+        <v>-246300</v>
       </c>
       <c r="F91" s="3">
-        <v>-273300</v>
+        <v>-279800</v>
       </c>
       <c r="G91" s="3">
-        <v>-295200</v>
+        <v>-302200</v>
       </c>
       <c r="H91" s="3">
-        <v>-440800</v>
+        <v>-451200</v>
       </c>
       <c r="I91" s="3">
-        <v>-379300</v>
+        <v>-388300</v>
       </c>
       <c r="J91" s="3">
-        <v>-442300</v>
+        <v>-452700</v>
       </c>
       <c r="K91" s="3">
         <v>-523100</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-338800</v>
+        <v>-346800</v>
       </c>
       <c r="E94" s="3">
-        <v>-311200</v>
+        <v>-318600</v>
       </c>
       <c r="F94" s="3">
-        <v>-240700</v>
+        <v>-246400</v>
       </c>
       <c r="G94" s="3">
-        <v>-328000</v>
+        <v>-335700</v>
       </c>
       <c r="H94" s="3">
-        <v>-530500</v>
+        <v>-543100</v>
       </c>
       <c r="I94" s="3">
-        <v>613300</v>
+        <v>627800</v>
       </c>
       <c r="J94" s="3">
-        <v>-500600</v>
+        <v>-512500</v>
       </c>
       <c r="K94" s="3">
         <v>-489300</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-13500</v>
+        <v>-13800</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-14300</v>
+        <v>-14700</v>
       </c>
       <c r="K96" s="3">
         <v>-16600</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-85500</v>
+        <v>-87600</v>
       </c>
       <c r="E100" s="3">
-        <v>61800</v>
+        <v>63200</v>
       </c>
       <c r="F100" s="3">
-        <v>-108900</v>
+        <v>-111500</v>
       </c>
       <c r="G100" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="H100" s="3">
-        <v>-19500</v>
+        <v>-20000</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>-52000</v>
+        <v>-53200</v>
       </c>
       <c r="K100" s="3">
         <v>12900</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>37400</v>
+        <v>38300</v>
       </c>
       <c r="E102" s="3">
-        <v>349400</v>
+        <v>357700</v>
       </c>
       <c r="F102" s="3">
-        <v>-138400</v>
+        <v>-141600</v>
       </c>
       <c r="G102" s="3">
-        <v>-246200</v>
+        <v>-252000</v>
       </c>
       <c r="H102" s="3">
-        <v>-514400</v>
+        <v>-526500</v>
       </c>
       <c r="I102" s="3">
-        <v>758200</v>
+        <v>776100</v>
       </c>
       <c r="J102" s="3">
-        <v>-268000</v>
+        <v>-274300</v>
       </c>
       <c r="K102" s="3">
         <v>-115500</v>

--- a/AAII_Financials/Yearly/ELD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ELD_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1227300</v>
+        <v>1216000</v>
       </c>
       <c r="E8" s="3">
-        <v>1339200</v>
+        <v>1326900</v>
       </c>
       <c r="F8" s="3">
-        <v>805900</v>
+        <v>798500</v>
       </c>
       <c r="G8" s="3">
-        <v>598700</v>
+        <v>593200</v>
       </c>
       <c r="H8" s="3">
-        <v>510500</v>
+        <v>505900</v>
       </c>
       <c r="I8" s="3">
-        <v>564400</v>
+        <v>559300</v>
       </c>
       <c r="J8" s="3">
-        <v>624900</v>
+        <v>619200</v>
       </c>
       <c r="K8" s="3">
         <v>1360300</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>848800</v>
+        <v>841000</v>
       </c>
       <c r="E9" s="3">
-        <v>865200</v>
+        <v>857200</v>
       </c>
       <c r="F9" s="3">
-        <v>636500</v>
+        <v>630600</v>
       </c>
       <c r="G9" s="3">
-        <v>489400</v>
+        <v>484900</v>
       </c>
       <c r="H9" s="3">
-        <v>346100</v>
+        <v>342900</v>
       </c>
       <c r="I9" s="3">
-        <v>351600</v>
+        <v>348400</v>
       </c>
       <c r="J9" s="3">
-        <v>461100</v>
+        <v>456800</v>
       </c>
       <c r="K9" s="3">
         <v>890400</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>378500</v>
+        <v>375100</v>
       </c>
       <c r="E10" s="3">
-        <v>474000</v>
+        <v>469700</v>
       </c>
       <c r="F10" s="3">
-        <v>169400</v>
+        <v>167800</v>
       </c>
       <c r="G10" s="3">
-        <v>109400</v>
+        <v>108400</v>
       </c>
       <c r="H10" s="3">
-        <v>164500</v>
+        <v>163000</v>
       </c>
       <c r="I10" s="3">
-        <v>212800</v>
+        <v>210900</v>
       </c>
       <c r="J10" s="3">
-        <v>163800</v>
+        <v>162300</v>
       </c>
       <c r="K10" s="3">
         <v>469900</v>
@@ -818,25 +818,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>23900</v>
+        <v>23700</v>
       </c>
       <c r="E12" s="3">
-        <v>16300</v>
+        <v>16100</v>
       </c>
       <c r="F12" s="3">
-        <v>19100</v>
+        <v>18900</v>
       </c>
       <c r="G12" s="3">
-        <v>44100</v>
+        <v>43700</v>
       </c>
       <c r="H12" s="3">
-        <v>49900</v>
+        <v>49400</v>
       </c>
       <c r="I12" s="3">
-        <v>24500</v>
+        <v>24300</v>
       </c>
       <c r="J12" s="3">
-        <v>21300</v>
+        <v>21100</v>
       </c>
       <c r="K12" s="3">
         <v>20700</v>
@@ -878,25 +878,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>30000</v>
+        <v>29800</v>
       </c>
       <c r="E14" s="3">
-        <v>47200</v>
+        <v>46800</v>
       </c>
       <c r="F14" s="3">
-        <v>-113600</v>
+        <v>-112500</v>
       </c>
       <c r="G14" s="3">
-        <v>586100</v>
+        <v>580700</v>
       </c>
       <c r="H14" s="3">
-        <v>66500</v>
+        <v>65900</v>
       </c>
       <c r="I14" s="3">
         <v>5900</v>
       </c>
       <c r="J14" s="3">
-        <v>2417100</v>
+        <v>2394900</v>
       </c>
       <c r="K14" s="3">
         <v>3800</v>
@@ -949,25 +949,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>949600</v>
+        <v>940800</v>
       </c>
       <c r="E17" s="3">
-        <v>999400</v>
+        <v>990200</v>
       </c>
       <c r="F17" s="3">
-        <v>619000</v>
+        <v>613300</v>
       </c>
       <c r="G17" s="3">
-        <v>1220600</v>
+        <v>1209400</v>
       </c>
       <c r="H17" s="3">
-        <v>560800</v>
+        <v>555700</v>
       </c>
       <c r="I17" s="3">
-        <v>477000</v>
+        <v>472700</v>
       </c>
       <c r="J17" s="3">
-        <v>3014400</v>
+        <v>2986700</v>
       </c>
       <c r="K17" s="3">
         <v>1036800</v>
@@ -979,25 +979,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>277700</v>
+        <v>275200</v>
       </c>
       <c r="E18" s="3">
-        <v>339800</v>
+        <v>336700</v>
       </c>
       <c r="F18" s="3">
-        <v>186900</v>
+        <v>185200</v>
       </c>
       <c r="G18" s="3">
-        <v>-621900</v>
+        <v>-616200</v>
       </c>
       <c r="H18" s="3">
-        <v>-50300</v>
+        <v>-49800</v>
       </c>
       <c r="I18" s="3">
-        <v>87400</v>
+        <v>86600</v>
       </c>
       <c r="J18" s="3">
-        <v>-2389500</v>
+        <v>-2367600</v>
       </c>
       <c r="K18" s="3">
         <v>323400</v>
@@ -1023,25 +1023,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-60500</v>
+        <v>-60000</v>
       </c>
       <c r="E20" s="3">
-        <v>-59800</v>
+        <v>-59300</v>
       </c>
       <c r="F20" s="3">
-        <v>17700</v>
+        <v>17500</v>
       </c>
       <c r="G20" s="3">
-        <v>13900</v>
+        <v>13800</v>
       </c>
       <c r="H20" s="3">
-        <v>51300</v>
+        <v>50800</v>
       </c>
       <c r="I20" s="3">
-        <v>-16800</v>
+        <v>-16600</v>
       </c>
       <c r="J20" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="K20" s="3">
         <v>-3900</v>
@@ -1053,25 +1053,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>480800</v>
+        <v>478200</v>
       </c>
       <c r="E21" s="3">
-        <v>566100</v>
+        <v>562900</v>
       </c>
       <c r="F21" s="3">
-        <v>406400</v>
+        <v>404100</v>
       </c>
       <c r="G21" s="3">
-        <v>-470600</v>
+        <v>-465300</v>
       </c>
       <c r="H21" s="3">
-        <v>94800</v>
+        <v>94500</v>
       </c>
       <c r="I21" s="3">
-        <v>167900</v>
+        <v>167100</v>
       </c>
       <c r="J21" s="3">
-        <v>-2277000</v>
+        <v>-2255200</v>
       </c>
       <c r="K21" s="3">
         <v>546100</v>
@@ -1083,13 +1083,13 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>20200</v>
+        <v>20000</v>
       </c>
       <c r="E22" s="3">
-        <v>10800</v>
+        <v>10700</v>
       </c>
       <c r="F22" s="3">
-        <v>56600</v>
+        <v>56100</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>17</v>
@@ -1098,10 +1098,10 @@
         <v>17</v>
       </c>
       <c r="I22" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="J22" s="3">
-        <v>12500</v>
+        <v>12400</v>
       </c>
       <c r="K22" s="3">
         <v>29300</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>197100</v>
+        <v>195200</v>
       </c>
       <c r="E23" s="3">
-        <v>269100</v>
+        <v>266700</v>
       </c>
       <c r="F23" s="3">
-        <v>148000</v>
+        <v>146600</v>
       </c>
       <c r="G23" s="3">
-        <v>-608000</v>
+        <v>-602400</v>
       </c>
       <c r="H23" s="3">
         <v>1000</v>
       </c>
       <c r="I23" s="3">
-        <v>63500</v>
+        <v>62900</v>
       </c>
       <c r="J23" s="3">
-        <v>-2405500</v>
+        <v>-2383400</v>
       </c>
       <c r="K23" s="3">
         <v>290200</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>182600</v>
+        <v>180900</v>
       </c>
       <c r="E24" s="3">
-        <v>107400</v>
+        <v>106400</v>
       </c>
       <c r="F24" s="3">
-        <v>51900</v>
+        <v>51400</v>
       </c>
       <c r="G24" s="3">
-        <v>-112800</v>
+        <v>-111800</v>
       </c>
       <c r="H24" s="3">
-        <v>25300</v>
+        <v>25100</v>
       </c>
       <c r="I24" s="3">
-        <v>73300</v>
+        <v>72600</v>
       </c>
       <c r="J24" s="3">
-        <v>-288800</v>
+        <v>-286100</v>
       </c>
       <c r="K24" s="3">
         <v>154500</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>14500</v>
+        <v>14300</v>
       </c>
       <c r="E26" s="3">
-        <v>161700</v>
+        <v>160200</v>
       </c>
       <c r="F26" s="3">
-        <v>96100</v>
+        <v>95200</v>
       </c>
       <c r="G26" s="3">
-        <v>-495200</v>
+        <v>-490600</v>
       </c>
       <c r="H26" s="3">
-        <v>-24300</v>
+        <v>-24000</v>
       </c>
       <c r="I26" s="3">
-        <v>-9800</v>
+        <v>-9700</v>
       </c>
       <c r="J26" s="3">
-        <v>-2116700</v>
+        <v>-2097200</v>
       </c>
       <c r="K26" s="3">
         <v>135700</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>14100</v>
+        <v>13900</v>
       </c>
       <c r="E27" s="3">
-        <v>171100</v>
+        <v>169500</v>
       </c>
       <c r="F27" s="3">
-        <v>105100</v>
+        <v>104100</v>
       </c>
       <c r="G27" s="3">
-        <v>-472000</v>
+        <v>-467700</v>
       </c>
       <c r="H27" s="3">
-        <v>-9300</v>
+        <v>-9200</v>
       </c>
       <c r="I27" s="3">
         <v>-6200</v>
       </c>
       <c r="J27" s="3">
-        <v>-1980700</v>
+        <v>-1962500</v>
       </c>
       <c r="K27" s="3">
         <v>130700</v>
@@ -1293,10 +1293,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-191500</v>
+        <v>-189700</v>
       </c>
       <c r="E29" s="3">
-        <v>-8300</v>
+        <v>-8200</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>17</v>
@@ -1308,10 +1308,10 @@
         <v>-3600</v>
       </c>
       <c r="I29" s="3">
-        <v>-442700</v>
+        <v>-438600</v>
       </c>
       <c r="J29" s="3">
-        <v>-29200</v>
+        <v>-28900</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>17</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>60500</v>
+        <v>60000</v>
       </c>
       <c r="E32" s="3">
-        <v>59800</v>
+        <v>59300</v>
       </c>
       <c r="F32" s="3">
-        <v>-17700</v>
+        <v>-17500</v>
       </c>
       <c r="G32" s="3">
-        <v>-13900</v>
+        <v>-13800</v>
       </c>
       <c r="H32" s="3">
-        <v>-51300</v>
+        <v>-50800</v>
       </c>
       <c r="I32" s="3">
-        <v>16800</v>
+        <v>16600</v>
       </c>
       <c r="J32" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="K32" s="3">
         <v>3900</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-177400</v>
+        <v>-175800</v>
       </c>
       <c r="E33" s="3">
-        <v>162800</v>
+        <v>161300</v>
       </c>
       <c r="F33" s="3">
-        <v>105100</v>
+        <v>104100</v>
       </c>
       <c r="G33" s="3">
-        <v>-472000</v>
+        <v>-467700</v>
       </c>
       <c r="H33" s="3">
-        <v>-13000</v>
+        <v>-12800</v>
       </c>
       <c r="I33" s="3">
-        <v>-448900</v>
+        <v>-444800</v>
       </c>
       <c r="J33" s="3">
-        <v>-2009900</v>
+        <v>-1991500</v>
       </c>
       <c r="K33" s="3">
         <v>130700</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-177400</v>
+        <v>-175800</v>
       </c>
       <c r="E35" s="3">
-        <v>162800</v>
+        <v>161300</v>
       </c>
       <c r="F35" s="3">
-        <v>105100</v>
+        <v>104100</v>
       </c>
       <c r="G35" s="3">
-        <v>-472000</v>
+        <v>-467700</v>
       </c>
       <c r="H35" s="3">
-        <v>-13000</v>
+        <v>-12800</v>
       </c>
       <c r="I35" s="3">
-        <v>-448900</v>
+        <v>-444800</v>
       </c>
       <c r="J35" s="3">
-        <v>-2009900</v>
+        <v>-1991500</v>
       </c>
       <c r="K35" s="3">
         <v>130700</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>523500</v>
+        <v>622100</v>
       </c>
       <c r="E41" s="3">
-        <v>1073500</v>
+        <v>1168200</v>
       </c>
       <c r="F41" s="3">
-        <v>226700</v>
+        <v>229700</v>
       </c>
       <c r="G41" s="3">
-        <v>261700</v>
+        <v>370000</v>
       </c>
       <c r="H41" s="3">
-        <v>382800</v>
+        <v>619700</v>
       </c>
       <c r="I41" s="3">
-        <v>367900</v>
+        <v>1141400</v>
       </c>
       <c r="J41" s="3">
-        <v>313600</v>
+        <v>372500</v>
       </c>
       <c r="K41" s="3">
         <v>565800</v>
@@ -1599,22 +1599,22 @@
         <v>200</v>
       </c>
       <c r="E42" s="3">
-        <v>77300</v>
+        <v>76500</v>
       </c>
       <c r="F42" s="3">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="G42" s="3">
-        <v>12000</v>
+        <v>11900</v>
       </c>
       <c r="H42" s="3">
-        <v>13700</v>
+        <v>13600</v>
       </c>
       <c r="I42" s="3">
-        <v>43900</v>
+        <v>43400</v>
       </c>
       <c r="J42" s="3">
-        <v>29600</v>
+        <v>29400</v>
       </c>
       <c r="K42" s="3">
         <v>78200</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>66200</v>
+        <v>65600</v>
       </c>
       <c r="E43" s="3">
-        <v>74000</v>
+        <v>73400</v>
       </c>
       <c r="F43" s="3">
-        <v>82800</v>
+        <v>82100</v>
       </c>
       <c r="G43" s="3">
-        <v>85100</v>
+        <v>84300</v>
       </c>
       <c r="H43" s="3">
-        <v>77700</v>
+        <v>77000</v>
       </c>
       <c r="I43" s="3">
-        <v>54000</v>
+        <v>53500</v>
       </c>
       <c r="J43" s="3">
-        <v>62900</v>
+        <v>62300</v>
       </c>
       <c r="K43" s="3">
         <v>100300</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>232400</v>
+        <v>230300</v>
       </c>
       <c r="E44" s="3">
-        <v>214100</v>
+        <v>212100</v>
       </c>
       <c r="F44" s="3">
-        <v>212900</v>
+        <v>211000</v>
       </c>
       <c r="G44" s="3">
-        <v>179900</v>
+        <v>178200</v>
       </c>
       <c r="H44" s="3">
-        <v>220200</v>
+        <v>218200</v>
       </c>
       <c r="I44" s="3">
-        <v>157600</v>
+        <v>156200</v>
       </c>
       <c r="J44" s="3">
-        <v>229100</v>
+        <v>227000</v>
       </c>
       <c r="K44" s="3">
         <v>284600</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>127600</v>
+        <v>23000</v>
       </c>
       <c r="E45" s="3">
-        <v>134200</v>
+        <v>28400</v>
       </c>
       <c r="F45" s="3">
-        <v>36800</v>
+        <v>31400</v>
       </c>
       <c r="G45" s="3">
-        <v>132700</v>
+        <v>20700</v>
       </c>
       <c r="H45" s="3">
-        <v>267600</v>
+        <v>24600</v>
       </c>
       <c r="I45" s="3">
-        <v>801300</v>
+        <v>17000</v>
       </c>
       <c r="J45" s="3">
-        <v>111200</v>
+        <v>48400</v>
       </c>
       <c r="K45" s="3">
         <v>50400</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>949900</v>
+        <v>941200</v>
       </c>
       <c r="E46" s="3">
-        <v>983600</v>
+        <v>974600</v>
       </c>
       <c r="F46" s="3">
-        <v>568500</v>
+        <v>563300</v>
       </c>
       <c r="G46" s="3">
-        <v>671400</v>
+        <v>665200</v>
       </c>
       <c r="H46" s="3">
-        <v>962000</v>
+        <v>953200</v>
       </c>
       <c r="I46" s="3">
-        <v>1424600</v>
+        <v>1411500</v>
       </c>
       <c r="J46" s="3">
-        <v>746400</v>
+        <v>739600</v>
       </c>
       <c r="K46" s="3">
         <v>1079200</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>128700</v>
+        <v>127500</v>
       </c>
       <c r="E47" s="3">
-        <v>41900</v>
+        <v>41500</v>
       </c>
       <c r="F47" s="3">
-        <v>17900</v>
+        <v>17800</v>
       </c>
       <c r="G47" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="H47" s="3">
         <v>7000</v>
       </c>
       <c r="I47" s="3">
-        <v>60600</v>
+        <v>60100</v>
       </c>
       <c r="J47" s="3">
-        <v>87000</v>
+        <v>86200</v>
       </c>
       <c r="K47" s="3">
         <v>31400</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5221800</v>
+        <v>5173700</v>
       </c>
       <c r="E48" s="3">
-        <v>10545300</v>
+        <v>10448300</v>
       </c>
       <c r="F48" s="3">
-        <v>5332700</v>
+        <v>5283600</v>
       </c>
       <c r="G48" s="3">
-        <v>5202600</v>
+        <v>5154700</v>
       </c>
       <c r="H48" s="3">
-        <v>5514200</v>
+        <v>5463500</v>
       </c>
       <c r="I48" s="3">
-        <v>4755600</v>
+        <v>4711900</v>
       </c>
       <c r="J48" s="3">
-        <v>6196500</v>
+        <v>6139500</v>
       </c>
       <c r="K48" s="3">
         <v>7600200</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>120800</v>
+        <v>119700</v>
       </c>
       <c r="E49" s="3">
-        <v>120800</v>
+        <v>119700</v>
       </c>
       <c r="F49" s="3">
-        <v>120800</v>
+        <v>119700</v>
       </c>
       <c r="G49" s="3">
-        <v>120800</v>
+        <v>119700</v>
       </c>
       <c r="H49" s="3">
-        <v>120800</v>
+        <v>119700</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>65600</v>
+        <v>65000</v>
       </c>
       <c r="K49" s="3">
         <v>670400</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="E52" s="3">
-        <v>64000</v>
+        <v>63400</v>
       </c>
       <c r="F52" s="3">
-        <v>24200</v>
+        <v>23900</v>
       </c>
       <c r="G52" s="3">
-        <v>34600</v>
+        <v>34200</v>
       </c>
       <c r="H52" s="3">
-        <v>35800</v>
+        <v>35500</v>
       </c>
       <c r="I52" s="3">
-        <v>17500</v>
+        <v>17400</v>
       </c>
       <c r="J52" s="3">
-        <v>32100</v>
+        <v>31800</v>
       </c>
       <c r="K52" s="3">
         <v>36900</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6431600</v>
+        <v>6372500</v>
       </c>
       <c r="E54" s="3">
-        <v>6431400</v>
+        <v>6372200</v>
       </c>
       <c r="F54" s="3">
-        <v>6064100</v>
+        <v>6008300</v>
       </c>
       <c r="G54" s="3">
-        <v>6038000</v>
+        <v>5982400</v>
       </c>
       <c r="H54" s="3">
-        <v>6639800</v>
+        <v>6578700</v>
       </c>
       <c r="I54" s="3">
-        <v>6258400</v>
+        <v>6200800</v>
       </c>
       <c r="J54" s="3">
-        <v>7127700</v>
+        <v>7062100</v>
       </c>
       <c r="K54" s="3">
         <v>9418000</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>92600</v>
+        <v>91800</v>
       </c>
       <c r="E57" s="3">
-        <v>318800</v>
+        <v>315900</v>
       </c>
       <c r="F57" s="3">
-        <v>87500</v>
+        <v>86700</v>
       </c>
       <c r="G57" s="3">
-        <v>50800</v>
+        <v>50400</v>
       </c>
       <c r="H57" s="3">
-        <v>78400</v>
+        <v>77600</v>
       </c>
       <c r="I57" s="3">
-        <v>57000</v>
+        <v>56500</v>
       </c>
       <c r="J57" s="3">
-        <v>127000</v>
+        <v>125800</v>
       </c>
       <c r="K57" s="3">
         <v>106400</v>
@@ -2044,13 +2044,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="E58" s="3">
-        <v>101700</v>
+        <v>100800</v>
       </c>
       <c r="F58" s="3">
-        <v>99900</v>
+        <v>99000</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>17</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>167500</v>
+        <v>166000</v>
       </c>
       <c r="E59" s="3">
-        <v>155200</v>
+        <v>153800</v>
       </c>
       <c r="F59" s="3">
-        <v>101800</v>
+        <v>100900</v>
       </c>
       <c r="G59" s="3">
-        <v>134000</v>
+        <v>132800</v>
       </c>
       <c r="H59" s="3">
-        <v>70500</v>
+        <v>69900</v>
       </c>
       <c r="I59" s="3">
-        <v>61300</v>
+        <v>60700</v>
       </c>
       <c r="J59" s="3">
-        <v>181900</v>
+        <v>180300</v>
       </c>
       <c r="K59" s="3">
         <v>128800</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>269600</v>
+        <v>267100</v>
       </c>
       <c r="E60" s="3">
-        <v>341800</v>
+        <v>338700</v>
       </c>
       <c r="F60" s="3">
-        <v>289200</v>
+        <v>286600</v>
       </c>
       <c r="G60" s="3">
-        <v>184800</v>
+        <v>183100</v>
       </c>
       <c r="H60" s="3">
-        <v>148900</v>
+        <v>147500</v>
       </c>
       <c r="I60" s="3">
-        <v>118300</v>
+        <v>117200</v>
       </c>
       <c r="J60" s="3">
-        <v>308900</v>
+        <v>306100</v>
       </c>
       <c r="K60" s="3">
         <v>256100</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>658300</v>
+        <v>652200</v>
       </c>
       <c r="E61" s="3">
-        <v>585800</v>
+        <v>580400</v>
       </c>
       <c r="F61" s="3">
-        <v>558600</v>
+        <v>553400</v>
       </c>
       <c r="G61" s="3">
-        <v>785900</v>
+        <v>778700</v>
       </c>
       <c r="H61" s="3">
-        <v>774500</v>
+        <v>767400</v>
       </c>
       <c r="I61" s="3">
-        <v>771700</v>
+        <v>764600</v>
       </c>
       <c r="J61" s="3">
-        <v>768800</v>
+        <v>761700</v>
       </c>
       <c r="K61" s="3">
         <v>748000</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>755900</v>
+        <v>749000</v>
       </c>
       <c r="E62" s="3">
-        <v>694400</v>
+        <v>688000</v>
       </c>
       <c r="F62" s="3">
-        <v>685000</v>
+        <v>678700</v>
       </c>
       <c r="G62" s="3">
-        <v>701300</v>
+        <v>694800</v>
       </c>
       <c r="H62" s="3">
-        <v>859500</v>
+        <v>851600</v>
       </c>
       <c r="I62" s="3">
-        <v>709800</v>
+        <v>703300</v>
       </c>
       <c r="J62" s="3">
-        <v>934800</v>
+        <v>926200</v>
       </c>
       <c r="K62" s="3">
         <v>1308800</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1774500</v>
+        <v>1758100</v>
       </c>
       <c r="E66" s="3">
-        <v>1675300</v>
+        <v>1659900</v>
       </c>
       <c r="F66" s="3">
-        <v>1610200</v>
+        <v>1595400</v>
       </c>
       <c r="G66" s="3">
-        <v>1754700</v>
+        <v>1738600</v>
       </c>
       <c r="H66" s="3">
-        <v>1887200</v>
+        <v>1869800</v>
       </c>
       <c r="I66" s="3">
-        <v>1715600</v>
+        <v>1699800</v>
       </c>
       <c r="J66" s="3">
-        <v>2234000</v>
+        <v>2213400</v>
       </c>
       <c r="K66" s="3">
         <v>2673800</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2920800</v>
+        <v>-2894000</v>
       </c>
       <c r="E72" s="3">
-        <v>-2743400</v>
+        <v>-2718200</v>
       </c>
       <c r="F72" s="3">
-        <v>-2908600</v>
+        <v>-2881900</v>
       </c>
       <c r="G72" s="3">
-        <v>-3013800</v>
+        <v>-2986000</v>
       </c>
       <c r="H72" s="3">
-        <v>-2541700</v>
+        <v>-2518300</v>
       </c>
       <c r="I72" s="3">
-        <v>-2514900</v>
+        <v>-2491800</v>
       </c>
       <c r="J72" s="3">
-        <v>-2066000</v>
+        <v>-2047000</v>
       </c>
       <c r="K72" s="3">
         <v>-40400</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4657200</v>
+        <v>4614300</v>
       </c>
       <c r="E76" s="3">
-        <v>4756100</v>
+        <v>4712300</v>
       </c>
       <c r="F76" s="3">
-        <v>4453900</v>
+        <v>4412900</v>
       </c>
       <c r="G76" s="3">
-        <v>4283200</v>
+        <v>4243800</v>
       </c>
       <c r="H76" s="3">
-        <v>4752600</v>
+        <v>4708900</v>
       </c>
       <c r="I76" s="3">
-        <v>4542800</v>
+        <v>4501000</v>
       </c>
       <c r="J76" s="3">
-        <v>4893700</v>
+        <v>4848700</v>
       </c>
       <c r="K76" s="3">
         <v>6744200</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-177400</v>
+        <v>-175800</v>
       </c>
       <c r="E81" s="3">
-        <v>162800</v>
+        <v>161300</v>
       </c>
       <c r="F81" s="3">
-        <v>105100</v>
+        <v>104100</v>
       </c>
       <c r="G81" s="3">
-        <v>-472000</v>
+        <v>-467700</v>
       </c>
       <c r="H81" s="3">
-        <v>-13000</v>
+        <v>-12800</v>
       </c>
       <c r="I81" s="3">
-        <v>-448900</v>
+        <v>-444800</v>
       </c>
       <c r="J81" s="3">
-        <v>-2009900</v>
+        <v>-1991500</v>
       </c>
       <c r="K81" s="3">
         <v>130700</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>264600</v>
+        <v>262200</v>
       </c>
       <c r="E83" s="3">
-        <v>287300</v>
+        <v>284600</v>
       </c>
       <c r="F83" s="3">
-        <v>202600</v>
+        <v>200700</v>
       </c>
       <c r="G83" s="3">
-        <v>137900</v>
+        <v>136600</v>
       </c>
       <c r="H83" s="3">
-        <v>94100</v>
+        <v>93200</v>
       </c>
       <c r="I83" s="3">
-        <v>97700</v>
+        <v>96800</v>
       </c>
       <c r="J83" s="3">
-        <v>116500</v>
+        <v>115400</v>
       </c>
       <c r="K83" s="3">
         <v>225800</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>472700</v>
+        <v>468300</v>
       </c>
       <c r="E89" s="3">
-        <v>613000</v>
+        <v>607400</v>
       </c>
       <c r="F89" s="3">
-        <v>216200</v>
+        <v>214200</v>
       </c>
       <c r="G89" s="3">
-        <v>88100</v>
+        <v>87300</v>
       </c>
       <c r="H89" s="3">
-        <v>36500</v>
+        <v>36200</v>
       </c>
       <c r="I89" s="3">
-        <v>148300</v>
+        <v>146900</v>
       </c>
       <c r="J89" s="3">
-        <v>291300</v>
+        <v>288700</v>
       </c>
       <c r="K89" s="3">
         <v>360900</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-368000</v>
+        <v>-364600</v>
       </c>
       <c r="E91" s="3">
-        <v>-246300</v>
+        <v>-244100</v>
       </c>
       <c r="F91" s="3">
-        <v>-279800</v>
+        <v>-277200</v>
       </c>
       <c r="G91" s="3">
-        <v>-302200</v>
+        <v>-299400</v>
       </c>
       <c r="H91" s="3">
-        <v>-451200</v>
+        <v>-447000</v>
       </c>
       <c r="I91" s="3">
-        <v>-388300</v>
+        <v>-384700</v>
       </c>
       <c r="J91" s="3">
-        <v>-452700</v>
+        <v>-448500</v>
       </c>
       <c r="K91" s="3">
         <v>-523100</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-346800</v>
+        <v>-343600</v>
       </c>
       <c r="E94" s="3">
-        <v>-318600</v>
+        <v>-315600</v>
       </c>
       <c r="F94" s="3">
-        <v>-246400</v>
+        <v>-244100</v>
       </c>
       <c r="G94" s="3">
-        <v>-335700</v>
+        <v>-332700</v>
       </c>
       <c r="H94" s="3">
-        <v>-543100</v>
+        <v>-538100</v>
       </c>
       <c r="I94" s="3">
-        <v>627800</v>
+        <v>622100</v>
       </c>
       <c r="J94" s="3">
-        <v>-512500</v>
+        <v>-507700</v>
       </c>
       <c r="K94" s="3">
         <v>-489300</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-13800</v>
+        <v>-13700</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-14700</v>
+        <v>-14500</v>
       </c>
       <c r="K96" s="3">
         <v>-16600</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-87600</v>
+        <v>-86800</v>
       </c>
       <c r="E100" s="3">
-        <v>63200</v>
+        <v>62600</v>
       </c>
       <c r="F100" s="3">
-        <v>-111500</v>
+        <v>-110400</v>
       </c>
       <c r="G100" s="3">
         <v>-4300</v>
       </c>
       <c r="H100" s="3">
-        <v>-20000</v>
+        <v>-19800</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>-53200</v>
+        <v>-52800</v>
       </c>
       <c r="K100" s="3">
         <v>12900</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>38300</v>
+        <v>38000</v>
       </c>
       <c r="E102" s="3">
-        <v>357700</v>
+        <v>354400</v>
       </c>
       <c r="F102" s="3">
-        <v>-141600</v>
+        <v>-140300</v>
       </c>
       <c r="G102" s="3">
-        <v>-252000</v>
+        <v>-249700</v>
       </c>
       <c r="H102" s="3">
-        <v>-526500</v>
+        <v>-521700</v>
       </c>
       <c r="I102" s="3">
-        <v>776100</v>
+        <v>769000</v>
       </c>
       <c r="J102" s="3">
-        <v>-274300</v>
+        <v>-271800</v>
       </c>
       <c r="K102" s="3">
         <v>-115500</v>

--- a/AAII_Financials/Yearly/ELD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ELD_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1216000</v>
+        <v>1253100</v>
       </c>
       <c r="E8" s="3">
-        <v>1326900</v>
+        <v>1367300</v>
       </c>
       <c r="F8" s="3">
-        <v>798500</v>
+        <v>822800</v>
       </c>
       <c r="G8" s="3">
-        <v>593200</v>
+        <v>611300</v>
       </c>
       <c r="H8" s="3">
-        <v>505900</v>
+        <v>521300</v>
       </c>
       <c r="I8" s="3">
-        <v>559300</v>
+        <v>576300</v>
       </c>
       <c r="J8" s="3">
-        <v>619200</v>
+        <v>638000</v>
       </c>
       <c r="K8" s="3">
         <v>1360300</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>841000</v>
+        <v>866600</v>
       </c>
       <c r="E9" s="3">
-        <v>857200</v>
+        <v>883300</v>
       </c>
       <c r="F9" s="3">
-        <v>630600</v>
+        <v>649900</v>
       </c>
       <c r="G9" s="3">
-        <v>484900</v>
+        <v>499700</v>
       </c>
       <c r="H9" s="3">
-        <v>342900</v>
+        <v>353300</v>
       </c>
       <c r="I9" s="3">
-        <v>348400</v>
+        <v>359000</v>
       </c>
       <c r="J9" s="3">
-        <v>456800</v>
+        <v>470700</v>
       </c>
       <c r="K9" s="3">
         <v>890400</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>375100</v>
+        <v>386500</v>
       </c>
       <c r="E10" s="3">
-        <v>469700</v>
+        <v>484000</v>
       </c>
       <c r="F10" s="3">
-        <v>167800</v>
+        <v>173000</v>
       </c>
       <c r="G10" s="3">
-        <v>108400</v>
+        <v>111700</v>
       </c>
       <c r="H10" s="3">
-        <v>163000</v>
+        <v>167900</v>
       </c>
       <c r="I10" s="3">
-        <v>210900</v>
+        <v>217300</v>
       </c>
       <c r="J10" s="3">
-        <v>162300</v>
+        <v>167300</v>
       </c>
       <c r="K10" s="3">
         <v>469900</v>
@@ -818,25 +818,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>23700</v>
+        <v>24400</v>
       </c>
       <c r="E12" s="3">
-        <v>16100</v>
+        <v>16600</v>
       </c>
       <c r="F12" s="3">
-        <v>18900</v>
+        <v>19500</v>
       </c>
       <c r="G12" s="3">
-        <v>43700</v>
+        <v>45100</v>
       </c>
       <c r="H12" s="3">
-        <v>49400</v>
+        <v>51000</v>
       </c>
       <c r="I12" s="3">
-        <v>24300</v>
+        <v>25000</v>
       </c>
       <c r="J12" s="3">
-        <v>21100</v>
+        <v>21700</v>
       </c>
       <c r="K12" s="3">
         <v>20700</v>
@@ -878,25 +878,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>29800</v>
+        <v>30700</v>
       </c>
       <c r="E14" s="3">
-        <v>46800</v>
+        <v>48200</v>
       </c>
       <c r="F14" s="3">
-        <v>-112500</v>
+        <v>-115900</v>
       </c>
       <c r="G14" s="3">
-        <v>580700</v>
+        <v>598400</v>
       </c>
       <c r="H14" s="3">
-        <v>65900</v>
+        <v>67900</v>
       </c>
       <c r="I14" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="J14" s="3">
-        <v>2394900</v>
+        <v>2467900</v>
       </c>
       <c r="K14" s="3">
         <v>3800</v>
@@ -949,25 +949,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>940800</v>
+        <v>969500</v>
       </c>
       <c r="E17" s="3">
-        <v>990200</v>
+        <v>1020400</v>
       </c>
       <c r="F17" s="3">
-        <v>613300</v>
+        <v>632000</v>
       </c>
       <c r="G17" s="3">
-        <v>1209400</v>
+        <v>1246300</v>
       </c>
       <c r="H17" s="3">
-        <v>555700</v>
+        <v>572600</v>
       </c>
       <c r="I17" s="3">
-        <v>472700</v>
+        <v>487100</v>
       </c>
       <c r="J17" s="3">
-        <v>2986700</v>
+        <v>3077800</v>
       </c>
       <c r="K17" s="3">
         <v>1036800</v>
@@ -979,25 +979,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>275200</v>
+        <v>283600</v>
       </c>
       <c r="E18" s="3">
-        <v>336700</v>
+        <v>347000</v>
       </c>
       <c r="F18" s="3">
-        <v>185200</v>
+        <v>190800</v>
       </c>
       <c r="G18" s="3">
-        <v>-616200</v>
+        <v>-635000</v>
       </c>
       <c r="H18" s="3">
-        <v>-49800</v>
+        <v>-51300</v>
       </c>
       <c r="I18" s="3">
-        <v>86600</v>
+        <v>89200</v>
       </c>
       <c r="J18" s="3">
-        <v>-2367600</v>
+        <v>-2439700</v>
       </c>
       <c r="K18" s="3">
         <v>323400</v>
@@ -1023,25 +1023,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-60000</v>
+        <v>-61800</v>
       </c>
       <c r="E20" s="3">
-        <v>-59300</v>
+        <v>-61100</v>
       </c>
       <c r="F20" s="3">
-        <v>17500</v>
+        <v>18100</v>
       </c>
       <c r="G20" s="3">
-        <v>13800</v>
+        <v>14200</v>
       </c>
       <c r="H20" s="3">
-        <v>50800</v>
+        <v>52400</v>
       </c>
       <c r="I20" s="3">
-        <v>-16600</v>
+        <v>-17100</v>
       </c>
       <c r="J20" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="K20" s="3">
         <v>-3900</v>
@@ -1053,25 +1053,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>478200</v>
+        <v>496200</v>
       </c>
       <c r="E21" s="3">
-        <v>562900</v>
+        <v>583700</v>
       </c>
       <c r="F21" s="3">
-        <v>404100</v>
+        <v>419000</v>
       </c>
       <c r="G21" s="3">
-        <v>-465300</v>
+        <v>-477800</v>
       </c>
       <c r="H21" s="3">
-        <v>94500</v>
+        <v>98600</v>
       </c>
       <c r="I21" s="3">
-        <v>167100</v>
+        <v>173400</v>
       </c>
       <c r="J21" s="3">
-        <v>-2255200</v>
+        <v>-2322500</v>
       </c>
       <c r="K21" s="3">
         <v>546100</v>
@@ -1083,13 +1083,13 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>20000</v>
+        <v>20600</v>
       </c>
       <c r="E22" s="3">
-        <v>10700</v>
+        <v>11100</v>
       </c>
       <c r="F22" s="3">
-        <v>56100</v>
+        <v>57800</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>17</v>
@@ -1098,10 +1098,10 @@
         <v>17</v>
       </c>
       <c r="I22" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="J22" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="K22" s="3">
         <v>29300</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>195200</v>
+        <v>201200</v>
       </c>
       <c r="E23" s="3">
-        <v>266700</v>
+        <v>274800</v>
       </c>
       <c r="F23" s="3">
-        <v>146600</v>
+        <v>151100</v>
       </c>
       <c r="G23" s="3">
-        <v>-602400</v>
+        <v>-620800</v>
       </c>
       <c r="H23" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I23" s="3">
-        <v>62900</v>
+        <v>64900</v>
       </c>
       <c r="J23" s="3">
-        <v>-2383400</v>
+        <v>-2456000</v>
       </c>
       <c r="K23" s="3">
         <v>290200</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>180900</v>
+        <v>186400</v>
       </c>
       <c r="E24" s="3">
-        <v>106400</v>
+        <v>109700</v>
       </c>
       <c r="F24" s="3">
-        <v>51400</v>
+        <v>53000</v>
       </c>
       <c r="G24" s="3">
-        <v>-111800</v>
+        <v>-115200</v>
       </c>
       <c r="H24" s="3">
-        <v>25100</v>
+        <v>25800</v>
       </c>
       <c r="I24" s="3">
-        <v>72600</v>
+        <v>74900</v>
       </c>
       <c r="J24" s="3">
-        <v>-286100</v>
+        <v>-294800</v>
       </c>
       <c r="K24" s="3">
         <v>154500</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>14300</v>
+        <v>14800</v>
       </c>
       <c r="E26" s="3">
-        <v>160200</v>
+        <v>165100</v>
       </c>
       <c r="F26" s="3">
-        <v>95200</v>
+        <v>98100</v>
       </c>
       <c r="G26" s="3">
-        <v>-490600</v>
+        <v>-505600</v>
       </c>
       <c r="H26" s="3">
-        <v>-24000</v>
+        <v>-24800</v>
       </c>
       <c r="I26" s="3">
-        <v>-9700</v>
+        <v>-10000</v>
       </c>
       <c r="J26" s="3">
-        <v>-2097200</v>
+        <v>-2161200</v>
       </c>
       <c r="K26" s="3">
         <v>135700</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>13900</v>
+        <v>14400</v>
       </c>
       <c r="E27" s="3">
-        <v>169500</v>
+        <v>174700</v>
       </c>
       <c r="F27" s="3">
-        <v>104100</v>
+        <v>107300</v>
       </c>
       <c r="G27" s="3">
-        <v>-467700</v>
+        <v>-482000</v>
       </c>
       <c r="H27" s="3">
-        <v>-9200</v>
+        <v>-9500</v>
       </c>
       <c r="I27" s="3">
-        <v>-6200</v>
+        <v>-6400</v>
       </c>
       <c r="J27" s="3">
-        <v>-1962500</v>
+        <v>-2022300</v>
       </c>
       <c r="K27" s="3">
         <v>130700</v>
@@ -1293,10 +1293,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-189700</v>
+        <v>-195500</v>
       </c>
       <c r="E29" s="3">
-        <v>-8200</v>
+        <v>-8500</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>17</v>
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="I29" s="3">
-        <v>-438600</v>
+        <v>-452000</v>
       </c>
       <c r="J29" s="3">
-        <v>-28900</v>
+        <v>-29800</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>17</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>60000</v>
+        <v>61800</v>
       </c>
       <c r="E32" s="3">
-        <v>59300</v>
+        <v>61100</v>
       </c>
       <c r="F32" s="3">
-        <v>-17500</v>
+        <v>-18100</v>
       </c>
       <c r="G32" s="3">
-        <v>-13800</v>
+        <v>-14200</v>
       </c>
       <c r="H32" s="3">
-        <v>-50800</v>
+        <v>-52400</v>
       </c>
       <c r="I32" s="3">
-        <v>16600</v>
+        <v>17100</v>
       </c>
       <c r="J32" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="K32" s="3">
         <v>3900</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-175800</v>
+        <v>-181200</v>
       </c>
       <c r="E33" s="3">
-        <v>161300</v>
+        <v>166200</v>
       </c>
       <c r="F33" s="3">
-        <v>104100</v>
+        <v>107300</v>
       </c>
       <c r="G33" s="3">
-        <v>-467700</v>
+        <v>-482000</v>
       </c>
       <c r="H33" s="3">
-        <v>-12800</v>
+        <v>-13200</v>
       </c>
       <c r="I33" s="3">
-        <v>-444800</v>
+        <v>-458300</v>
       </c>
       <c r="J33" s="3">
-        <v>-1991500</v>
+        <v>-2052200</v>
       </c>
       <c r="K33" s="3">
         <v>130700</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-175800</v>
+        <v>-181200</v>
       </c>
       <c r="E35" s="3">
-        <v>161300</v>
+        <v>166200</v>
       </c>
       <c r="F35" s="3">
-        <v>104100</v>
+        <v>107300</v>
       </c>
       <c r="G35" s="3">
-        <v>-467700</v>
+        <v>-482000</v>
       </c>
       <c r="H35" s="3">
-        <v>-12800</v>
+        <v>-13200</v>
       </c>
       <c r="I35" s="3">
-        <v>-444800</v>
+        <v>-458300</v>
       </c>
       <c r="J35" s="3">
-        <v>-1991500</v>
+        <v>-2052200</v>
       </c>
       <c r="K35" s="3">
         <v>130700</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>622100</v>
+        <v>641000</v>
       </c>
       <c r="E41" s="3">
-        <v>1168200</v>
+        <v>1203800</v>
       </c>
       <c r="F41" s="3">
-        <v>229700</v>
+        <v>236700</v>
       </c>
       <c r="G41" s="3">
-        <v>370000</v>
+        <v>381300</v>
       </c>
       <c r="H41" s="3">
-        <v>619700</v>
+        <v>638600</v>
       </c>
       <c r="I41" s="3">
-        <v>1141400</v>
+        <v>1176200</v>
       </c>
       <c r="J41" s="3">
-        <v>372500</v>
+        <v>383800</v>
       </c>
       <c r="K41" s="3">
         <v>565800</v>
@@ -1599,22 +1599,22 @@
         <v>200</v>
       </c>
       <c r="E42" s="3">
-        <v>76500</v>
+        <v>78900</v>
       </c>
       <c r="F42" s="3">
-        <v>9200</v>
+        <v>9500</v>
       </c>
       <c r="G42" s="3">
-        <v>11900</v>
+        <v>12300</v>
       </c>
       <c r="H42" s="3">
-        <v>13600</v>
+        <v>14000</v>
       </c>
       <c r="I42" s="3">
-        <v>43400</v>
+        <v>44800</v>
       </c>
       <c r="J42" s="3">
-        <v>29400</v>
+        <v>30200</v>
       </c>
       <c r="K42" s="3">
         <v>78200</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>65600</v>
+        <v>67600</v>
       </c>
       <c r="E43" s="3">
-        <v>73400</v>
+        <v>75600</v>
       </c>
       <c r="F43" s="3">
-        <v>82100</v>
+        <v>84600</v>
       </c>
       <c r="G43" s="3">
-        <v>84300</v>
+        <v>86900</v>
       </c>
       <c r="H43" s="3">
-        <v>77000</v>
+        <v>79400</v>
       </c>
       <c r="I43" s="3">
-        <v>53500</v>
+        <v>55200</v>
       </c>
       <c r="J43" s="3">
-        <v>62300</v>
+        <v>64200</v>
       </c>
       <c r="K43" s="3">
         <v>100300</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>230300</v>
+        <v>237300</v>
       </c>
       <c r="E44" s="3">
-        <v>212100</v>
+        <v>218600</v>
       </c>
       <c r="F44" s="3">
-        <v>211000</v>
+        <v>217400</v>
       </c>
       <c r="G44" s="3">
-        <v>178200</v>
+        <v>183600</v>
       </c>
       <c r="H44" s="3">
-        <v>218200</v>
+        <v>224900</v>
       </c>
       <c r="I44" s="3">
-        <v>156200</v>
+        <v>160900</v>
       </c>
       <c r="J44" s="3">
-        <v>227000</v>
+        <v>233900</v>
       </c>
       <c r="K44" s="3">
         <v>284600</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>23000</v>
+        <v>23800</v>
       </c>
       <c r="E45" s="3">
-        <v>28400</v>
+        <v>29300</v>
       </c>
       <c r="F45" s="3">
-        <v>31400</v>
+        <v>32300</v>
       </c>
       <c r="G45" s="3">
-        <v>20700</v>
+        <v>21400</v>
       </c>
       <c r="H45" s="3">
-        <v>24600</v>
+        <v>25400</v>
       </c>
       <c r="I45" s="3">
-        <v>17000</v>
+        <v>17500</v>
       </c>
       <c r="J45" s="3">
-        <v>48400</v>
+        <v>49900</v>
       </c>
       <c r="K45" s="3">
         <v>50400</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>941200</v>
+        <v>969900</v>
       </c>
       <c r="E46" s="3">
-        <v>974600</v>
+        <v>1004300</v>
       </c>
       <c r="F46" s="3">
-        <v>563300</v>
+        <v>580500</v>
       </c>
       <c r="G46" s="3">
-        <v>665200</v>
+        <v>685500</v>
       </c>
       <c r="H46" s="3">
-        <v>953200</v>
+        <v>982200</v>
       </c>
       <c r="I46" s="3">
-        <v>1411500</v>
+        <v>1454600</v>
       </c>
       <c r="J46" s="3">
-        <v>739600</v>
+        <v>762100</v>
       </c>
       <c r="K46" s="3">
         <v>1079200</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>127500</v>
+        <v>131400</v>
       </c>
       <c r="E47" s="3">
-        <v>41500</v>
+        <v>42800</v>
       </c>
       <c r="F47" s="3">
-        <v>17800</v>
+        <v>18300</v>
       </c>
       <c r="G47" s="3">
-        <v>8600</v>
+        <v>8900</v>
       </c>
       <c r="H47" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="I47" s="3">
-        <v>60100</v>
+        <v>61900</v>
       </c>
       <c r="J47" s="3">
-        <v>86200</v>
+        <v>88800</v>
       </c>
       <c r="K47" s="3">
         <v>31400</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5173700</v>
+        <v>5331500</v>
       </c>
       <c r="E48" s="3">
-        <v>10448300</v>
+        <v>10766800</v>
       </c>
       <c r="F48" s="3">
-        <v>5283600</v>
+        <v>5444700</v>
       </c>
       <c r="G48" s="3">
-        <v>5154700</v>
+        <v>5311900</v>
       </c>
       <c r="H48" s="3">
-        <v>5463500</v>
+        <v>5630000</v>
       </c>
       <c r="I48" s="3">
-        <v>4711900</v>
+        <v>4855500</v>
       </c>
       <c r="J48" s="3">
-        <v>6139500</v>
+        <v>6326700</v>
       </c>
       <c r="K48" s="3">
         <v>7600200</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>119700</v>
+        <v>123300</v>
       </c>
       <c r="E49" s="3">
-        <v>119700</v>
+        <v>123300</v>
       </c>
       <c r="F49" s="3">
-        <v>119700</v>
+        <v>123300</v>
       </c>
       <c r="G49" s="3">
-        <v>119700</v>
+        <v>123300</v>
       </c>
       <c r="H49" s="3">
-        <v>119700</v>
+        <v>123300</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>65000</v>
+        <v>67000</v>
       </c>
       <c r="K49" s="3">
         <v>670400</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>10400</v>
+        <v>10700</v>
       </c>
       <c r="E52" s="3">
-        <v>63400</v>
+        <v>65400</v>
       </c>
       <c r="F52" s="3">
-        <v>23900</v>
+        <v>24700</v>
       </c>
       <c r="G52" s="3">
-        <v>34200</v>
+        <v>35300</v>
       </c>
       <c r="H52" s="3">
-        <v>35500</v>
+        <v>36500</v>
       </c>
       <c r="I52" s="3">
-        <v>17400</v>
+        <v>17900</v>
       </c>
       <c r="J52" s="3">
-        <v>31800</v>
+        <v>32800</v>
       </c>
       <c r="K52" s="3">
         <v>36900</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6372500</v>
+        <v>6566800</v>
       </c>
       <c r="E54" s="3">
-        <v>6372200</v>
+        <v>6566500</v>
       </c>
       <c r="F54" s="3">
-        <v>6008300</v>
+        <v>6191400</v>
       </c>
       <c r="G54" s="3">
-        <v>5982400</v>
+        <v>6164800</v>
       </c>
       <c r="H54" s="3">
-        <v>6578700</v>
+        <v>6779300</v>
       </c>
       <c r="I54" s="3">
-        <v>6200800</v>
+        <v>6389900</v>
       </c>
       <c r="J54" s="3">
-        <v>7062100</v>
+        <v>7277400</v>
       </c>
       <c r="K54" s="3">
         <v>9418000</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>91800</v>
+        <v>94600</v>
       </c>
       <c r="E57" s="3">
-        <v>315900</v>
+        <v>325500</v>
       </c>
       <c r="F57" s="3">
-        <v>86700</v>
+        <v>89400</v>
       </c>
       <c r="G57" s="3">
-        <v>50400</v>
+        <v>51900</v>
       </c>
       <c r="H57" s="3">
-        <v>77600</v>
+        <v>80000</v>
       </c>
       <c r="I57" s="3">
-        <v>56500</v>
+        <v>58200</v>
       </c>
       <c r="J57" s="3">
-        <v>125800</v>
+        <v>129600</v>
       </c>
       <c r="K57" s="3">
         <v>106400</v>
@@ -2044,13 +2044,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9300</v>
+        <v>9600</v>
       </c>
       <c r="E58" s="3">
-        <v>100800</v>
+        <v>103800</v>
       </c>
       <c r="F58" s="3">
-        <v>99000</v>
+        <v>102000</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>17</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>166000</v>
+        <v>171000</v>
       </c>
       <c r="E59" s="3">
-        <v>153800</v>
+        <v>158500</v>
       </c>
       <c r="F59" s="3">
-        <v>100900</v>
+        <v>103900</v>
       </c>
       <c r="G59" s="3">
-        <v>132800</v>
+        <v>136800</v>
       </c>
       <c r="H59" s="3">
-        <v>69900</v>
+        <v>72000</v>
       </c>
       <c r="I59" s="3">
-        <v>60700</v>
+        <v>62600</v>
       </c>
       <c r="J59" s="3">
-        <v>180300</v>
+        <v>185800</v>
       </c>
       <c r="K59" s="3">
         <v>128800</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>267100</v>
+        <v>275200</v>
       </c>
       <c r="E60" s="3">
-        <v>338700</v>
+        <v>349000</v>
       </c>
       <c r="F60" s="3">
-        <v>286600</v>
+        <v>295300</v>
       </c>
       <c r="G60" s="3">
-        <v>183100</v>
+        <v>188700</v>
       </c>
       <c r="H60" s="3">
-        <v>147500</v>
+        <v>152000</v>
       </c>
       <c r="I60" s="3">
-        <v>117200</v>
+        <v>120800</v>
       </c>
       <c r="J60" s="3">
-        <v>306100</v>
+        <v>315400</v>
       </c>
       <c r="K60" s="3">
         <v>256100</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>652200</v>
+        <v>672100</v>
       </c>
       <c r="E61" s="3">
-        <v>580400</v>
+        <v>598100</v>
       </c>
       <c r="F61" s="3">
-        <v>553400</v>
+        <v>570300</v>
       </c>
       <c r="G61" s="3">
-        <v>778700</v>
+        <v>802400</v>
       </c>
       <c r="H61" s="3">
-        <v>767400</v>
+        <v>790800</v>
       </c>
       <c r="I61" s="3">
-        <v>764600</v>
+        <v>787900</v>
       </c>
       <c r="J61" s="3">
-        <v>761700</v>
+        <v>785000</v>
       </c>
       <c r="K61" s="3">
         <v>748000</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>749000</v>
+        <v>771800</v>
       </c>
       <c r="E62" s="3">
-        <v>688000</v>
+        <v>709000</v>
       </c>
       <c r="F62" s="3">
-        <v>678700</v>
+        <v>699400</v>
       </c>
       <c r="G62" s="3">
-        <v>694800</v>
+        <v>716000</v>
       </c>
       <c r="H62" s="3">
-        <v>851600</v>
+        <v>877600</v>
       </c>
       <c r="I62" s="3">
-        <v>703300</v>
+        <v>724700</v>
       </c>
       <c r="J62" s="3">
-        <v>926200</v>
+        <v>954500</v>
       </c>
       <c r="K62" s="3">
         <v>1308800</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1758100</v>
+        <v>1811700</v>
       </c>
       <c r="E66" s="3">
-        <v>1659900</v>
+        <v>1710500</v>
       </c>
       <c r="F66" s="3">
-        <v>1595400</v>
+        <v>1644000</v>
       </c>
       <c r="G66" s="3">
-        <v>1738600</v>
+        <v>1791600</v>
       </c>
       <c r="H66" s="3">
-        <v>1869800</v>
+        <v>1926800</v>
       </c>
       <c r="I66" s="3">
-        <v>1699800</v>
+        <v>1751600</v>
       </c>
       <c r="J66" s="3">
-        <v>2213400</v>
+        <v>2280900</v>
       </c>
       <c r="K66" s="3">
         <v>2673800</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2894000</v>
+        <v>-2982200</v>
       </c>
       <c r="E72" s="3">
-        <v>-2718200</v>
+        <v>-2801000</v>
       </c>
       <c r="F72" s="3">
-        <v>-2881900</v>
+        <v>-2969700</v>
       </c>
       <c r="G72" s="3">
-        <v>-2986000</v>
+        <v>-3077100</v>
       </c>
       <c r="H72" s="3">
-        <v>-2518300</v>
+        <v>-2595100</v>
       </c>
       <c r="I72" s="3">
-        <v>-2491800</v>
+        <v>-2567700</v>
       </c>
       <c r="J72" s="3">
-        <v>-2047000</v>
+        <v>-2109400</v>
       </c>
       <c r="K72" s="3">
         <v>-40400</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4614300</v>
+        <v>4755000</v>
       </c>
       <c r="E76" s="3">
-        <v>4712300</v>
+        <v>4856000</v>
       </c>
       <c r="F76" s="3">
-        <v>4412900</v>
+        <v>4547400</v>
       </c>
       <c r="G76" s="3">
-        <v>4243800</v>
+        <v>4373200</v>
       </c>
       <c r="H76" s="3">
-        <v>4708900</v>
+        <v>4852500</v>
       </c>
       <c r="I76" s="3">
-        <v>4501000</v>
+        <v>4638200</v>
       </c>
       <c r="J76" s="3">
-        <v>4848700</v>
+        <v>4996500</v>
       </c>
       <c r="K76" s="3">
         <v>6744200</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-175800</v>
+        <v>-181200</v>
       </c>
       <c r="E81" s="3">
-        <v>161300</v>
+        <v>166200</v>
       </c>
       <c r="F81" s="3">
-        <v>104100</v>
+        <v>107300</v>
       </c>
       <c r="G81" s="3">
-        <v>-467700</v>
+        <v>-482000</v>
       </c>
       <c r="H81" s="3">
-        <v>-12800</v>
+        <v>-13200</v>
       </c>
       <c r="I81" s="3">
-        <v>-444800</v>
+        <v>-458300</v>
       </c>
       <c r="J81" s="3">
-        <v>-1991500</v>
+        <v>-2052200</v>
       </c>
       <c r="K81" s="3">
         <v>130700</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>262200</v>
+        <v>270200</v>
       </c>
       <c r="E83" s="3">
-        <v>284600</v>
+        <v>293300</v>
       </c>
       <c r="F83" s="3">
-        <v>200700</v>
+        <v>206900</v>
       </c>
       <c r="G83" s="3">
-        <v>136600</v>
+        <v>140800</v>
       </c>
       <c r="H83" s="3">
-        <v>93200</v>
+        <v>96100</v>
       </c>
       <c r="I83" s="3">
-        <v>96800</v>
+        <v>99700</v>
       </c>
       <c r="J83" s="3">
-        <v>115400</v>
+        <v>119000</v>
       </c>
       <c r="K83" s="3">
         <v>225800</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>468300</v>
+        <v>482600</v>
       </c>
       <c r="E89" s="3">
-        <v>607400</v>
+        <v>625900</v>
       </c>
       <c r="F89" s="3">
-        <v>214200</v>
+        <v>220800</v>
       </c>
       <c r="G89" s="3">
-        <v>87300</v>
+        <v>89900</v>
       </c>
       <c r="H89" s="3">
-        <v>36200</v>
+        <v>37300</v>
       </c>
       <c r="I89" s="3">
-        <v>146900</v>
+        <v>151400</v>
       </c>
       <c r="J89" s="3">
-        <v>288700</v>
+        <v>297500</v>
       </c>
       <c r="K89" s="3">
         <v>360900</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-364600</v>
+        <v>-375700</v>
       </c>
       <c r="E91" s="3">
-        <v>-244100</v>
+        <v>-251500</v>
       </c>
       <c r="F91" s="3">
-        <v>-277200</v>
+        <v>-285700</v>
       </c>
       <c r="G91" s="3">
-        <v>-299400</v>
+        <v>-308500</v>
       </c>
       <c r="H91" s="3">
-        <v>-447000</v>
+        <v>-460600</v>
       </c>
       <c r="I91" s="3">
-        <v>-384700</v>
+        <v>-396400</v>
       </c>
       <c r="J91" s="3">
-        <v>-448500</v>
+        <v>-462200</v>
       </c>
       <c r="K91" s="3">
         <v>-523100</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-343600</v>
+        <v>-354100</v>
       </c>
       <c r="E94" s="3">
-        <v>-315600</v>
+        <v>-325300</v>
       </c>
       <c r="F94" s="3">
-        <v>-244100</v>
+        <v>-251500</v>
       </c>
       <c r="G94" s="3">
-        <v>-332700</v>
+        <v>-342800</v>
       </c>
       <c r="H94" s="3">
-        <v>-538100</v>
+        <v>-554500</v>
       </c>
       <c r="I94" s="3">
-        <v>622100</v>
+        <v>641000</v>
       </c>
       <c r="J94" s="3">
-        <v>-507700</v>
+        <v>-523200</v>
       </c>
       <c r="K94" s="3">
         <v>-489300</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-13700</v>
+        <v>-14100</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-14500</v>
+        <v>-15000</v>
       </c>
       <c r="K96" s="3">
         <v>-16600</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-86800</v>
+        <v>-89400</v>
       </c>
       <c r="E100" s="3">
-        <v>62600</v>
+        <v>64600</v>
       </c>
       <c r="F100" s="3">
-        <v>-110400</v>
+        <v>-113800</v>
       </c>
       <c r="G100" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="H100" s="3">
-        <v>-19800</v>
+        <v>-20400</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>-52800</v>
+        <v>-54400</v>
       </c>
       <c r="K100" s="3">
         <v>12900</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>38000</v>
+        <v>39100</v>
       </c>
       <c r="E102" s="3">
-        <v>354400</v>
+        <v>365200</v>
       </c>
       <c r="F102" s="3">
-        <v>-140300</v>
+        <v>-144600</v>
       </c>
       <c r="G102" s="3">
-        <v>-249700</v>
+        <v>-257300</v>
       </c>
       <c r="H102" s="3">
-        <v>-521700</v>
+        <v>-537600</v>
       </c>
       <c r="I102" s="3">
-        <v>769000</v>
+        <v>792400</v>
       </c>
       <c r="J102" s="3">
-        <v>-271800</v>
+        <v>-280100</v>
       </c>
       <c r="K102" s="3">
         <v>-115500</v>

--- a/AAII_Financials/Yearly/ELD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ELD_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1253100</v>
+        <v>1205700</v>
       </c>
       <c r="E8" s="3">
-        <v>1367300</v>
+        <v>1301000</v>
       </c>
       <c r="F8" s="3">
-        <v>822800</v>
+        <v>1419600</v>
       </c>
       <c r="G8" s="3">
-        <v>611300</v>
+        <v>854300</v>
       </c>
       <c r="H8" s="3">
-        <v>521300</v>
+        <v>634700</v>
       </c>
       <c r="I8" s="3">
-        <v>576300</v>
+        <v>541200</v>
       </c>
       <c r="J8" s="3">
+        <v>598300</v>
+      </c>
+      <c r="K8" s="3">
         <v>638000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1360300</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>866600</v>
+        <v>967600</v>
       </c>
       <c r="E9" s="3">
-        <v>883300</v>
+        <v>899700</v>
       </c>
       <c r="F9" s="3">
-        <v>649900</v>
+        <v>917100</v>
       </c>
       <c r="G9" s="3">
-        <v>499700</v>
+        <v>674700</v>
       </c>
       <c r="H9" s="3">
-        <v>353300</v>
+        <v>518800</v>
       </c>
       <c r="I9" s="3">
-        <v>359000</v>
+        <v>366800</v>
       </c>
       <c r="J9" s="3">
+        <v>372700</v>
+      </c>
+      <c r="K9" s="3">
         <v>470700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>890400</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>386500</v>
+        <v>238100</v>
       </c>
       <c r="E10" s="3">
-        <v>484000</v>
+        <v>401300</v>
       </c>
       <c r="F10" s="3">
-        <v>173000</v>
+        <v>502500</v>
       </c>
       <c r="G10" s="3">
-        <v>111700</v>
+        <v>179600</v>
       </c>
       <c r="H10" s="3">
-        <v>167900</v>
+        <v>115900</v>
       </c>
       <c r="I10" s="3">
-        <v>217300</v>
+        <v>174300</v>
       </c>
       <c r="J10" s="3">
+        <v>225600</v>
+      </c>
+      <c r="K10" s="3">
         <v>167300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>469900</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,38 +824,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>24400</v>
+        <v>27100</v>
       </c>
       <c r="E12" s="3">
-        <v>16600</v>
+        <v>25300</v>
       </c>
       <c r="F12" s="3">
-        <v>19500</v>
+        <v>17300</v>
       </c>
       <c r="G12" s="3">
-        <v>45100</v>
+        <v>20200</v>
       </c>
       <c r="H12" s="3">
-        <v>51000</v>
+        <v>46800</v>
       </c>
       <c r="I12" s="3">
-        <v>25000</v>
+        <v>52900</v>
       </c>
       <c r="J12" s="3">
+        <v>26000</v>
+      </c>
+      <c r="K12" s="3">
         <v>21700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>20700</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,39 +887,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>30700</v>
+        <v>44900</v>
       </c>
       <c r="E14" s="3">
-        <v>48200</v>
+        <v>31800</v>
       </c>
       <c r="F14" s="3">
-        <v>-115900</v>
+        <v>50100</v>
       </c>
       <c r="G14" s="3">
-        <v>598400</v>
+        <v>-120400</v>
       </c>
       <c r="H14" s="3">
-        <v>67900</v>
+        <v>621300</v>
       </c>
       <c r="I14" s="3">
-        <v>6000</v>
+        <v>70500</v>
       </c>
       <c r="J14" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K14" s="3">
         <v>2467900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3800</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -931,9 +953,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>969500</v>
+        <v>1148100</v>
       </c>
       <c r="E17" s="3">
-        <v>1020400</v>
+        <v>1006600</v>
       </c>
       <c r="F17" s="3">
-        <v>632000</v>
+        <v>1059400</v>
       </c>
       <c r="G17" s="3">
-        <v>1246300</v>
+        <v>656200</v>
       </c>
       <c r="H17" s="3">
-        <v>572600</v>
+        <v>1293900</v>
       </c>
       <c r="I17" s="3">
-        <v>487100</v>
+        <v>594500</v>
       </c>
       <c r="J17" s="3">
+        <v>505700</v>
+      </c>
+      <c r="K17" s="3">
         <v>3077800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1036800</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>283600</v>
+        <v>57600</v>
       </c>
       <c r="E18" s="3">
-        <v>347000</v>
+        <v>294400</v>
       </c>
       <c r="F18" s="3">
-        <v>190800</v>
+        <v>360200</v>
       </c>
       <c r="G18" s="3">
-        <v>-635000</v>
+        <v>198100</v>
       </c>
       <c r="H18" s="3">
-        <v>-51300</v>
+        <v>-659200</v>
       </c>
       <c r="I18" s="3">
-        <v>89200</v>
+        <v>-53300</v>
       </c>
       <c r="J18" s="3">
+        <v>92700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2439700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>323400</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-61800</v>
+        <v>4400</v>
       </c>
       <c r="E20" s="3">
-        <v>-61100</v>
+        <v>-64200</v>
       </c>
       <c r="F20" s="3">
-        <v>18100</v>
+        <v>-63400</v>
       </c>
       <c r="G20" s="3">
-        <v>14200</v>
+        <v>18800</v>
       </c>
       <c r="H20" s="3">
-        <v>52400</v>
+        <v>14700</v>
       </c>
       <c r="I20" s="3">
-        <v>-17100</v>
+        <v>54400</v>
       </c>
       <c r="J20" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3900</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>496200</v>
+        <v>396700</v>
       </c>
       <c r="E21" s="3">
-        <v>583700</v>
+        <v>510300</v>
       </c>
       <c r="F21" s="3">
-        <v>419000</v>
+        <v>600800</v>
       </c>
       <c r="G21" s="3">
-        <v>-477800</v>
+        <v>431300</v>
       </c>
       <c r="H21" s="3">
-        <v>98600</v>
+        <v>-498600</v>
       </c>
       <c r="I21" s="3">
-        <v>173400</v>
+        <v>100700</v>
       </c>
       <c r="J21" s="3">
+        <v>178200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-2322500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>546100</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>20600</v>
+        <v>45700</v>
       </c>
       <c r="E22" s="3">
-        <v>11100</v>
+        <v>21400</v>
       </c>
       <c r="F22" s="3">
-        <v>57800</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>17</v>
+        <v>11500</v>
+      </c>
+      <c r="G22" s="3">
+        <v>60000</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="3">
-        <v>7200</v>
+      <c r="I22" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="J22" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K22" s="3">
         <v>12700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>29300</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>201200</v>
+        <v>16400</v>
       </c>
       <c r="E23" s="3">
-        <v>274800</v>
+        <v>208900</v>
       </c>
       <c r="F23" s="3">
-        <v>151100</v>
+        <v>285300</v>
       </c>
       <c r="G23" s="3">
-        <v>-620800</v>
+        <v>156900</v>
       </c>
       <c r="H23" s="3">
+        <v>-644500</v>
+      </c>
+      <c r="I23" s="3">
         <v>1100</v>
       </c>
-      <c r="I23" s="3">
-        <v>64900</v>
-      </c>
       <c r="J23" s="3">
+        <v>67300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2456000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>290200</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>186400</v>
+        <v>84700</v>
       </c>
       <c r="E24" s="3">
-        <v>109700</v>
+        <v>193500</v>
       </c>
       <c r="F24" s="3">
-        <v>53000</v>
+        <v>113900</v>
       </c>
       <c r="G24" s="3">
-        <v>-115200</v>
+        <v>55000</v>
       </c>
       <c r="H24" s="3">
-        <v>25800</v>
+        <v>-119600</v>
       </c>
       <c r="I24" s="3">
-        <v>74900</v>
+        <v>26800</v>
       </c>
       <c r="J24" s="3">
+        <v>77700</v>
+      </c>
+      <c r="K24" s="3">
         <v>-294800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>154500</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>14800</v>
+        <v>-68300</v>
       </c>
       <c r="E26" s="3">
-        <v>165100</v>
+        <v>15300</v>
       </c>
       <c r="F26" s="3">
-        <v>98100</v>
+        <v>171400</v>
       </c>
       <c r="G26" s="3">
-        <v>-505600</v>
+        <v>101900</v>
       </c>
       <c r="H26" s="3">
-        <v>-24800</v>
+        <v>-524900</v>
       </c>
       <c r="I26" s="3">
-        <v>-10000</v>
+        <v>-25700</v>
       </c>
       <c r="J26" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2161200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>135700</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>14400</v>
+        <v>-68000</v>
       </c>
       <c r="E27" s="3">
-        <v>174700</v>
+        <v>14900</v>
       </c>
       <c r="F27" s="3">
-        <v>107300</v>
+        <v>181300</v>
       </c>
       <c r="G27" s="3">
-        <v>-482000</v>
+        <v>111400</v>
       </c>
       <c r="H27" s="3">
-        <v>-9500</v>
+        <v>-500400</v>
       </c>
       <c r="I27" s="3">
-        <v>-6400</v>
+        <v>-9900</v>
       </c>
       <c r="J27" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2022300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>130700</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,39 +1343,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-195500</v>
+        <v>-421200</v>
       </c>
       <c r="E29" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="F29" s="3" t="s">
+        <v>-203000</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
-        <v>-3700</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>-452000</v>
+        <v>-3900</v>
       </c>
       <c r="J29" s="3">
+        <v>-469200</v>
+      </c>
+      <c r="K29" s="3">
         <v>-29800</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>61800</v>
+        <v>-4400</v>
       </c>
       <c r="E32" s="3">
-        <v>61100</v>
+        <v>64200</v>
       </c>
       <c r="F32" s="3">
-        <v>-18100</v>
+        <v>63400</v>
       </c>
       <c r="G32" s="3">
-        <v>-14200</v>
+        <v>-18800</v>
       </c>
       <c r="H32" s="3">
-        <v>-52400</v>
+        <v>-14700</v>
       </c>
       <c r="I32" s="3">
-        <v>17100</v>
+        <v>-54400</v>
       </c>
       <c r="J32" s="3">
+        <v>17800</v>
+      </c>
+      <c r="K32" s="3">
         <v>3500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3900</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-181200</v>
+        <v>-489200</v>
       </c>
       <c r="E33" s="3">
-        <v>166200</v>
+        <v>-188100</v>
       </c>
       <c r="F33" s="3">
-        <v>107300</v>
+        <v>172600</v>
       </c>
       <c r="G33" s="3">
-        <v>-482000</v>
+        <v>111400</v>
       </c>
       <c r="H33" s="3">
-        <v>-13200</v>
+        <v>-500400</v>
       </c>
       <c r="I33" s="3">
-        <v>-458300</v>
+        <v>-13700</v>
       </c>
       <c r="J33" s="3">
+        <v>-475900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2052200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>130700</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-181200</v>
+        <v>-489200</v>
       </c>
       <c r="E35" s="3">
-        <v>166200</v>
+        <v>-188100</v>
       </c>
       <c r="F35" s="3">
-        <v>107300</v>
+        <v>172600</v>
       </c>
       <c r="G35" s="3">
-        <v>-482000</v>
+        <v>111400</v>
       </c>
       <c r="H35" s="3">
-        <v>-13200</v>
+        <v>-500400</v>
       </c>
       <c r="I35" s="3">
-        <v>-458300</v>
+        <v>-13700</v>
       </c>
       <c r="J35" s="3">
+        <v>-475900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2052200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>130700</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>641000</v>
+        <v>386800</v>
       </c>
       <c r="E41" s="3">
-        <v>1203800</v>
+        <v>665500</v>
       </c>
       <c r="F41" s="3">
-        <v>236700</v>
+        <v>1249900</v>
       </c>
       <c r="G41" s="3">
-        <v>381300</v>
+        <v>245800</v>
       </c>
       <c r="H41" s="3">
-        <v>638600</v>
+        <v>395900</v>
       </c>
       <c r="I41" s="3">
-        <v>1176200</v>
+        <v>663000</v>
       </c>
       <c r="J41" s="3">
+        <v>1221200</v>
+      </c>
+      <c r="K41" s="3">
         <v>383800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>565800</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E42" s="3">
         <v>200</v>
       </c>
-      <c r="E42" s="3">
-        <v>78900</v>
-      </c>
       <c r="F42" s="3">
-        <v>9500</v>
+        <v>81900</v>
       </c>
       <c r="G42" s="3">
-        <v>12300</v>
+        <v>9800</v>
       </c>
       <c r="H42" s="3">
-        <v>14000</v>
+        <v>12700</v>
       </c>
       <c r="I42" s="3">
-        <v>44800</v>
+        <v>14500</v>
       </c>
       <c r="J42" s="3">
+        <v>46500</v>
+      </c>
+      <c r="K42" s="3">
         <v>30200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>78200</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>67600</v>
+        <v>92700</v>
       </c>
       <c r="E43" s="3">
-        <v>75600</v>
+        <v>70200</v>
       </c>
       <c r="F43" s="3">
-        <v>84600</v>
+        <v>78500</v>
       </c>
       <c r="G43" s="3">
-        <v>86900</v>
+        <v>87800</v>
       </c>
       <c r="H43" s="3">
-        <v>79400</v>
+        <v>90200</v>
       </c>
       <c r="I43" s="3">
-        <v>55200</v>
+        <v>82400</v>
       </c>
       <c r="J43" s="3">
+        <v>57300</v>
+      </c>
+      <c r="K43" s="3">
         <v>64200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>100300</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>237300</v>
+        <v>275000</v>
       </c>
       <c r="E44" s="3">
-        <v>218600</v>
+        <v>246300</v>
       </c>
       <c r="F44" s="3">
-        <v>217400</v>
+        <v>226900</v>
       </c>
       <c r="G44" s="3">
-        <v>183600</v>
+        <v>225700</v>
       </c>
       <c r="H44" s="3">
-        <v>224900</v>
+        <v>190700</v>
       </c>
       <c r="I44" s="3">
-        <v>160900</v>
+        <v>233500</v>
       </c>
       <c r="J44" s="3">
+        <v>167100</v>
+      </c>
+      <c r="K44" s="3">
         <v>233900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>284600</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>23800</v>
+        <v>71500</v>
       </c>
       <c r="E45" s="3">
-        <v>29300</v>
+        <v>24700</v>
       </c>
       <c r="F45" s="3">
-        <v>32300</v>
+        <v>30400</v>
       </c>
       <c r="G45" s="3">
-        <v>21400</v>
+        <v>33600</v>
       </c>
       <c r="H45" s="3">
-        <v>25400</v>
+        <v>22200</v>
       </c>
       <c r="I45" s="3">
-        <v>17500</v>
+        <v>26400</v>
       </c>
       <c r="J45" s="3">
+        <v>18200</v>
+      </c>
+      <c r="K45" s="3">
         <v>49900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>50400</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>969900</v>
+        <v>874500</v>
       </c>
       <c r="E46" s="3">
-        <v>1004300</v>
+        <v>1006900</v>
       </c>
       <c r="F46" s="3">
-        <v>580500</v>
+        <v>1042700</v>
       </c>
       <c r="G46" s="3">
-        <v>685500</v>
+        <v>602700</v>
       </c>
       <c r="H46" s="3">
-        <v>982200</v>
+        <v>711700</v>
       </c>
       <c r="I46" s="3">
-        <v>1454600</v>
+        <v>1019800</v>
       </c>
       <c r="J46" s="3">
+        <v>1510200</v>
+      </c>
+      <c r="K46" s="3">
         <v>762100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1079200</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>131400</v>
+        <v>161800</v>
       </c>
       <c r="E47" s="3">
-        <v>42800</v>
+        <v>136400</v>
       </c>
       <c r="F47" s="3">
-        <v>18300</v>
+        <v>44500</v>
       </c>
       <c r="G47" s="3">
-        <v>8900</v>
+        <v>19000</v>
       </c>
       <c r="H47" s="3">
-        <v>7200</v>
+        <v>9200</v>
       </c>
       <c r="I47" s="3">
-        <v>61900</v>
+        <v>7400</v>
       </c>
       <c r="J47" s="3">
+        <v>64300</v>
+      </c>
+      <c r="K47" s="3">
         <v>88800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>31400</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5331500</v>
+        <v>4972600</v>
       </c>
       <c r="E48" s="3">
-        <v>10766800</v>
+        <v>5535200</v>
       </c>
       <c r="F48" s="3">
-        <v>5444700</v>
+        <v>11178300</v>
       </c>
       <c r="G48" s="3">
-        <v>5311900</v>
+        <v>5652800</v>
       </c>
       <c r="H48" s="3">
-        <v>5630000</v>
+        <v>5514900</v>
       </c>
       <c r="I48" s="3">
-        <v>4855500</v>
+        <v>5845200</v>
       </c>
       <c r="J48" s="3">
+        <v>5041100</v>
+      </c>
+      <c r="K48" s="3">
         <v>6326700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7600200</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>123300</v>
+        <v>128000</v>
       </c>
       <c r="E49" s="3">
-        <v>123300</v>
+        <v>128000</v>
       </c>
       <c r="F49" s="3">
-        <v>123300</v>
+        <v>128000</v>
       </c>
       <c r="G49" s="3">
-        <v>123300</v>
+        <v>128000</v>
       </c>
       <c r="H49" s="3">
-        <v>123300</v>
+        <v>128000</v>
       </c>
       <c r="I49" s="3">
-        <v>0</v>
+        <v>128000</v>
       </c>
       <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
         <v>67000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>670400</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>10700</v>
+        <v>27100</v>
       </c>
       <c r="E52" s="3">
-        <v>65400</v>
+        <v>11100</v>
       </c>
       <c r="F52" s="3">
-        <v>24700</v>
+        <v>67900</v>
       </c>
       <c r="G52" s="3">
-        <v>35300</v>
+        <v>25600</v>
       </c>
       <c r="H52" s="3">
-        <v>36500</v>
+        <v>36600</v>
       </c>
       <c r="I52" s="3">
-        <v>17900</v>
+        <v>37900</v>
       </c>
       <c r="J52" s="3">
+        <v>18600</v>
+      </c>
+      <c r="K52" s="3">
         <v>32800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>36900</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6566800</v>
+        <v>6164000</v>
       </c>
       <c r="E54" s="3">
-        <v>6566500</v>
+        <v>6817700</v>
       </c>
       <c r="F54" s="3">
-        <v>6191400</v>
+        <v>6817500</v>
       </c>
       <c r="G54" s="3">
-        <v>6164800</v>
+        <v>6428100</v>
       </c>
       <c r="H54" s="3">
-        <v>6779300</v>
+        <v>6400400</v>
       </c>
       <c r="I54" s="3">
-        <v>6389900</v>
+        <v>7038400</v>
       </c>
       <c r="J54" s="3">
+        <v>6634100</v>
+      </c>
+      <c r="K54" s="3">
         <v>7277400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9418000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,52 +2137,56 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>94600</v>
+        <v>103600</v>
       </c>
       <c r="E57" s="3">
-        <v>325500</v>
+        <v>98200</v>
       </c>
       <c r="F57" s="3">
-        <v>89400</v>
+        <v>338000</v>
       </c>
       <c r="G57" s="3">
-        <v>51900</v>
+        <v>92800</v>
       </c>
       <c r="H57" s="3">
-        <v>80000</v>
+        <v>53900</v>
       </c>
       <c r="I57" s="3">
-        <v>58200</v>
+        <v>83100</v>
       </c>
       <c r="J57" s="3">
+        <v>60400</v>
+      </c>
+      <c r="K57" s="3">
         <v>129600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>106400</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9600</v>
+        <v>6600</v>
       </c>
       <c r="E58" s="3">
-        <v>103800</v>
+        <v>10000</v>
       </c>
       <c r="F58" s="3">
-        <v>102000</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>17</v>
+        <v>107800</v>
+      </c>
+      <c r="G58" s="3">
+        <v>105900</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>17</v>
@@ -2064,132 +2197,147 @@
       <c r="J58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L58" s="3">
         <v>20800</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>171000</v>
+        <v>181500</v>
       </c>
       <c r="E59" s="3">
-        <v>158500</v>
+        <v>177600</v>
       </c>
       <c r="F59" s="3">
-        <v>103900</v>
+        <v>164600</v>
       </c>
       <c r="G59" s="3">
-        <v>136800</v>
+        <v>107900</v>
       </c>
       <c r="H59" s="3">
-        <v>72000</v>
+        <v>142000</v>
       </c>
       <c r="I59" s="3">
-        <v>62600</v>
+        <v>74700</v>
       </c>
       <c r="J59" s="3">
+        <v>65000</v>
+      </c>
+      <c r="K59" s="3">
         <v>185800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>128800</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>275200</v>
+        <v>291700</v>
       </c>
       <c r="E60" s="3">
-        <v>349000</v>
+        <v>285700</v>
       </c>
       <c r="F60" s="3">
-        <v>295300</v>
+        <v>362300</v>
       </c>
       <c r="G60" s="3">
-        <v>188700</v>
+        <v>306600</v>
       </c>
       <c r="H60" s="3">
-        <v>152000</v>
+        <v>195900</v>
       </c>
       <c r="I60" s="3">
-        <v>120800</v>
+        <v>157800</v>
       </c>
       <c r="J60" s="3">
+        <v>125400</v>
+      </c>
+      <c r="K60" s="3">
         <v>315400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>256100</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>672100</v>
+        <v>700400</v>
       </c>
       <c r="E61" s="3">
-        <v>598100</v>
+        <v>697800</v>
       </c>
       <c r="F61" s="3">
-        <v>570300</v>
+        <v>621000</v>
       </c>
       <c r="G61" s="3">
-        <v>802400</v>
+        <v>592100</v>
       </c>
       <c r="H61" s="3">
-        <v>790800</v>
+        <v>833100</v>
       </c>
       <c r="I61" s="3">
-        <v>787900</v>
+        <v>821000</v>
       </c>
       <c r="J61" s="3">
+        <v>818000</v>
+      </c>
+      <c r="K61" s="3">
         <v>785000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>748000</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>771800</v>
+        <v>746000</v>
       </c>
       <c r="E62" s="3">
-        <v>709000</v>
+        <v>801300</v>
       </c>
       <c r="F62" s="3">
-        <v>699400</v>
+        <v>736100</v>
       </c>
       <c r="G62" s="3">
-        <v>716000</v>
+        <v>726200</v>
       </c>
       <c r="H62" s="3">
-        <v>877600</v>
+        <v>743400</v>
       </c>
       <c r="I62" s="3">
-        <v>724700</v>
+        <v>911100</v>
       </c>
       <c r="J62" s="3">
+        <v>752400</v>
+      </c>
+      <c r="K62" s="3">
         <v>954500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1308800</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1811700</v>
+        <v>1733700</v>
       </c>
       <c r="E66" s="3">
-        <v>1710500</v>
+        <v>1881000</v>
       </c>
       <c r="F66" s="3">
-        <v>1644000</v>
+        <v>1775900</v>
       </c>
       <c r="G66" s="3">
-        <v>1791600</v>
+        <v>1706800</v>
       </c>
       <c r="H66" s="3">
-        <v>1926800</v>
+        <v>1860100</v>
       </c>
       <c r="I66" s="3">
-        <v>1751600</v>
+        <v>2000500</v>
       </c>
       <c r="J66" s="3">
+        <v>1818600</v>
+      </c>
+      <c r="K66" s="3">
         <v>2280900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2673800</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2982200</v>
+        <v>-3585400</v>
       </c>
       <c r="E72" s="3">
-        <v>-2801000</v>
+        <v>-3096200</v>
       </c>
       <c r="F72" s="3">
-        <v>-2969700</v>
+        <v>-2908100</v>
       </c>
       <c r="G72" s="3">
-        <v>-3077100</v>
+        <v>-3083200</v>
       </c>
       <c r="H72" s="3">
-        <v>-2595100</v>
+        <v>-3194700</v>
       </c>
       <c r="I72" s="3">
-        <v>-2567700</v>
+        <v>-2694300</v>
       </c>
       <c r="J72" s="3">
+        <v>-2665900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2109400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-40400</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4755000</v>
+        <v>4430300</v>
       </c>
       <c r="E76" s="3">
-        <v>4856000</v>
+        <v>4936700</v>
       </c>
       <c r="F76" s="3">
-        <v>4547400</v>
+        <v>5041600</v>
       </c>
       <c r="G76" s="3">
-        <v>4373200</v>
+        <v>4721200</v>
       </c>
       <c r="H76" s="3">
-        <v>4852500</v>
+        <v>4540300</v>
       </c>
       <c r="I76" s="3">
-        <v>4638200</v>
+        <v>5037900</v>
       </c>
       <c r="J76" s="3">
+        <v>4815500</v>
+      </c>
+      <c r="K76" s="3">
         <v>4996500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6744200</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-181200</v>
+        <v>-489200</v>
       </c>
       <c r="E81" s="3">
-        <v>166200</v>
+        <v>-188100</v>
       </c>
       <c r="F81" s="3">
-        <v>107300</v>
+        <v>172600</v>
       </c>
       <c r="G81" s="3">
-        <v>-482000</v>
+        <v>111400</v>
       </c>
       <c r="H81" s="3">
-        <v>-13200</v>
+        <v>-500400</v>
       </c>
       <c r="I81" s="3">
-        <v>-458300</v>
+        <v>-13700</v>
       </c>
       <c r="J81" s="3">
+        <v>-475900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2052200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>130700</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>270200</v>
+        <v>335200</v>
       </c>
       <c r="E83" s="3">
-        <v>293300</v>
+        <v>280500</v>
       </c>
       <c r="F83" s="3">
-        <v>206900</v>
+        <v>304500</v>
       </c>
       <c r="G83" s="3">
-        <v>140800</v>
+        <v>214800</v>
       </c>
       <c r="H83" s="3">
-        <v>96100</v>
+        <v>146200</v>
       </c>
       <c r="I83" s="3">
         <v>99700</v>
       </c>
       <c r="J83" s="3">
+        <v>103500</v>
+      </c>
+      <c r="K83" s="3">
         <v>119000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>225800</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>482600</v>
+        <v>291300</v>
       </c>
       <c r="E89" s="3">
-        <v>625900</v>
+        <v>501000</v>
       </c>
       <c r="F89" s="3">
-        <v>220800</v>
+        <v>649800</v>
       </c>
       <c r="G89" s="3">
-        <v>89900</v>
+        <v>229200</v>
       </c>
       <c r="H89" s="3">
-        <v>37300</v>
+        <v>93400</v>
       </c>
       <c r="I89" s="3">
-        <v>151400</v>
+        <v>38700</v>
       </c>
       <c r="J89" s="3">
+        <v>157200</v>
+      </c>
+      <c r="K89" s="3">
         <v>297500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>360900</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-375700</v>
+        <v>-400800</v>
       </c>
       <c r="E91" s="3">
-        <v>-251500</v>
+        <v>-390000</v>
       </c>
       <c r="F91" s="3">
-        <v>-285700</v>
+        <v>-261100</v>
       </c>
       <c r="G91" s="3">
-        <v>-308500</v>
+        <v>-296600</v>
       </c>
       <c r="H91" s="3">
-        <v>-460600</v>
+        <v>-320300</v>
       </c>
       <c r="I91" s="3">
-        <v>-396400</v>
+        <v>-478300</v>
       </c>
       <c r="J91" s="3">
+        <v>-411600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-462200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-523100</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-354100</v>
+        <v>-512800</v>
       </c>
       <c r="E94" s="3">
-        <v>-325300</v>
+        <v>-367600</v>
       </c>
       <c r="F94" s="3">
-        <v>-251500</v>
+        <v>-337700</v>
       </c>
       <c r="G94" s="3">
-        <v>-342800</v>
+        <v>-261200</v>
       </c>
       <c r="H94" s="3">
-        <v>-554500</v>
+        <v>-355900</v>
       </c>
       <c r="I94" s="3">
-        <v>641000</v>
+        <v>-575700</v>
       </c>
       <c r="J94" s="3">
+        <v>665500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-523200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-489300</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,8 +3291,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3077,20 +3310,23 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-14100</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-14700</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-15000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-16600</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,39 +3420,45 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-89400</v>
+        <v>-57200</v>
       </c>
       <c r="E100" s="3">
-        <v>64600</v>
+        <v>-92800</v>
       </c>
       <c r="F100" s="3">
-        <v>-113800</v>
+        <v>67000</v>
       </c>
       <c r="G100" s="3">
-        <v>-4400</v>
+        <v>-118200</v>
       </c>
       <c r="H100" s="3">
-        <v>-20400</v>
+        <v>-4600</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>-21200</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-54400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>12900</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3238,37 +3486,43 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>39100</v>
+        <v>-278700</v>
       </c>
       <c r="E102" s="3">
-        <v>365200</v>
+        <v>40600</v>
       </c>
       <c r="F102" s="3">
-        <v>-144600</v>
+        <v>379200</v>
       </c>
       <c r="G102" s="3">
-        <v>-257300</v>
+        <v>-150100</v>
       </c>
       <c r="H102" s="3">
-        <v>-537600</v>
+        <v>-267100</v>
       </c>
       <c r="I102" s="3">
-        <v>792400</v>
+        <v>-558200</v>
       </c>
       <c r="J102" s="3">
+        <v>822700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-280100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-115500</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ELD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ELD_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1205700</v>
+        <v>1177200</v>
       </c>
       <c r="E8" s="3">
-        <v>1301000</v>
+        <v>1270200</v>
       </c>
       <c r="F8" s="3">
-        <v>1419600</v>
+        <v>1386000</v>
       </c>
       <c r="G8" s="3">
-        <v>854300</v>
+        <v>834100</v>
       </c>
       <c r="H8" s="3">
-        <v>634700</v>
+        <v>619700</v>
       </c>
       <c r="I8" s="3">
-        <v>541200</v>
+        <v>528400</v>
       </c>
       <c r="J8" s="3">
-        <v>598300</v>
+        <v>584200</v>
       </c>
       <c r="K8" s="3">
         <v>638000</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>967600</v>
+        <v>944700</v>
       </c>
       <c r="E9" s="3">
-        <v>899700</v>
+        <v>878500</v>
       </c>
       <c r="F9" s="3">
-        <v>917100</v>
+        <v>895400</v>
       </c>
       <c r="G9" s="3">
-        <v>674700</v>
+        <v>658700</v>
       </c>
       <c r="H9" s="3">
-        <v>518800</v>
+        <v>506500</v>
       </c>
       <c r="I9" s="3">
-        <v>366800</v>
+        <v>358200</v>
       </c>
       <c r="J9" s="3">
-        <v>372700</v>
+        <v>363900</v>
       </c>
       <c r="K9" s="3">
         <v>470700</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>238100</v>
+        <v>232500</v>
       </c>
       <c r="E10" s="3">
-        <v>401300</v>
+        <v>391800</v>
       </c>
       <c r="F10" s="3">
-        <v>502500</v>
+        <v>490600</v>
       </c>
       <c r="G10" s="3">
-        <v>179600</v>
+        <v>175300</v>
       </c>
       <c r="H10" s="3">
-        <v>115900</v>
+        <v>113200</v>
       </c>
       <c r="I10" s="3">
-        <v>174300</v>
+        <v>170200</v>
       </c>
       <c r="J10" s="3">
-        <v>225600</v>
+        <v>220300</v>
       </c>
       <c r="K10" s="3">
         <v>167300</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>27100</v>
+        <v>26500</v>
       </c>
       <c r="E12" s="3">
+        <v>24700</v>
+      </c>
+      <c r="F12" s="3">
+        <v>16900</v>
+      </c>
+      <c r="G12" s="3">
+        <v>19800</v>
+      </c>
+      <c r="H12" s="3">
+        <v>45700</v>
+      </c>
+      <c r="I12" s="3">
+        <v>51700</v>
+      </c>
+      <c r="J12" s="3">
         <v>25300</v>
-      </c>
-      <c r="F12" s="3">
-        <v>17300</v>
-      </c>
-      <c r="G12" s="3">
-        <v>20200</v>
-      </c>
-      <c r="H12" s="3">
-        <v>46800</v>
-      </c>
-      <c r="I12" s="3">
-        <v>52900</v>
-      </c>
-      <c r="J12" s="3">
-        <v>26000</v>
       </c>
       <c r="K12" s="3">
         <v>21700</v>
@@ -897,25 +897,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>44900</v>
+        <v>43900</v>
       </c>
       <c r="E14" s="3">
-        <v>31800</v>
+        <v>31100</v>
       </c>
       <c r="F14" s="3">
-        <v>50100</v>
+        <v>48900</v>
       </c>
       <c r="G14" s="3">
-        <v>-120400</v>
+        <v>-117500</v>
       </c>
       <c r="H14" s="3">
-        <v>621300</v>
+        <v>606600</v>
       </c>
       <c r="I14" s="3">
-        <v>70500</v>
+        <v>68800</v>
       </c>
       <c r="J14" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="K14" s="3">
         <v>2467900</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1148100</v>
+        <v>1120900</v>
       </c>
       <c r="E17" s="3">
-        <v>1006600</v>
+        <v>982800</v>
       </c>
       <c r="F17" s="3">
-        <v>1059400</v>
+        <v>1034300</v>
       </c>
       <c r="G17" s="3">
-        <v>656200</v>
+        <v>640600</v>
       </c>
       <c r="H17" s="3">
-        <v>1293900</v>
+        <v>1263300</v>
       </c>
       <c r="I17" s="3">
-        <v>594500</v>
+        <v>580400</v>
       </c>
       <c r="J17" s="3">
-        <v>505700</v>
+        <v>493700</v>
       </c>
       <c r="K17" s="3">
         <v>3077800</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>57600</v>
+        <v>56300</v>
       </c>
       <c r="E18" s="3">
-        <v>294400</v>
+        <v>287500</v>
       </c>
       <c r="F18" s="3">
-        <v>360200</v>
+        <v>351700</v>
       </c>
       <c r="G18" s="3">
-        <v>198100</v>
+        <v>193400</v>
       </c>
       <c r="H18" s="3">
-        <v>-659200</v>
+        <v>-643600</v>
       </c>
       <c r="I18" s="3">
-        <v>-53300</v>
+        <v>-52000</v>
       </c>
       <c r="J18" s="3">
-        <v>92700</v>
+        <v>90500</v>
       </c>
       <c r="K18" s="3">
         <v>-2439700</v>
@@ -1056,25 +1056,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="E20" s="3">
-        <v>-64200</v>
+        <v>-62600</v>
       </c>
       <c r="F20" s="3">
-        <v>-63400</v>
+        <v>-61900</v>
       </c>
       <c r="G20" s="3">
-        <v>18800</v>
+        <v>18300</v>
       </c>
       <c r="H20" s="3">
-        <v>14700</v>
+        <v>14400</v>
       </c>
       <c r="I20" s="3">
-        <v>54400</v>
+        <v>53100</v>
       </c>
       <c r="J20" s="3">
-        <v>-17800</v>
+        <v>-17400</v>
       </c>
       <c r="K20" s="3">
         <v>-3500</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>396700</v>
+        <v>386600</v>
       </c>
       <c r="E21" s="3">
-        <v>510300</v>
+        <v>497700</v>
       </c>
       <c r="F21" s="3">
-        <v>600800</v>
+        <v>586000</v>
       </c>
       <c r="G21" s="3">
-        <v>431300</v>
+        <v>420700</v>
       </c>
       <c r="H21" s="3">
-        <v>-498600</v>
+        <v>-487100</v>
       </c>
       <c r="I21" s="3">
-        <v>100700</v>
+        <v>98100</v>
       </c>
       <c r="J21" s="3">
-        <v>178200</v>
+        <v>173800</v>
       </c>
       <c r="K21" s="3">
         <v>-2322500</v>
@@ -1122,16 +1122,16 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>45700</v>
+        <v>44600</v>
       </c>
       <c r="E22" s="3">
-        <v>21400</v>
+        <v>20900</v>
       </c>
       <c r="F22" s="3">
-        <v>11500</v>
+        <v>11200</v>
       </c>
       <c r="G22" s="3">
-        <v>60000</v>
+        <v>58600</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>17</v>
@@ -1140,7 +1140,7 @@
         <v>17</v>
       </c>
       <c r="J22" s="3">
-        <v>7500</v>
+        <v>7300</v>
       </c>
       <c r="K22" s="3">
         <v>12700</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>16400</v>
+        <v>16000</v>
       </c>
       <c r="E23" s="3">
-        <v>208900</v>
+        <v>203900</v>
       </c>
       <c r="F23" s="3">
-        <v>285300</v>
+        <v>278500</v>
       </c>
       <c r="G23" s="3">
-        <v>156900</v>
+        <v>153200</v>
       </c>
       <c r="H23" s="3">
-        <v>-644500</v>
+        <v>-629300</v>
       </c>
       <c r="I23" s="3">
         <v>1100</v>
       </c>
       <c r="J23" s="3">
-        <v>67300</v>
+        <v>65700</v>
       </c>
       <c r="K23" s="3">
         <v>-2456000</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>84700</v>
+        <v>82700</v>
       </c>
       <c r="E24" s="3">
-        <v>193500</v>
+        <v>189000</v>
       </c>
       <c r="F24" s="3">
-        <v>113900</v>
+        <v>111200</v>
       </c>
       <c r="G24" s="3">
-        <v>55000</v>
+        <v>53700</v>
       </c>
       <c r="H24" s="3">
-        <v>-119600</v>
+        <v>-116800</v>
       </c>
       <c r="I24" s="3">
-        <v>26800</v>
+        <v>26200</v>
       </c>
       <c r="J24" s="3">
-        <v>77700</v>
+        <v>75900</v>
       </c>
       <c r="K24" s="3">
         <v>-294800</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-68300</v>
+        <v>-66600</v>
       </c>
       <c r="E26" s="3">
-        <v>15300</v>
+        <v>15000</v>
       </c>
       <c r="F26" s="3">
-        <v>171400</v>
+        <v>167400</v>
       </c>
       <c r="G26" s="3">
-        <v>101900</v>
+        <v>99500</v>
       </c>
       <c r="H26" s="3">
-        <v>-524900</v>
+        <v>-512500</v>
       </c>
       <c r="I26" s="3">
-        <v>-25700</v>
+        <v>-25100</v>
       </c>
       <c r="J26" s="3">
-        <v>-10400</v>
+        <v>-10100</v>
       </c>
       <c r="K26" s="3">
         <v>-2161200</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-68000</v>
+        <v>-66400</v>
       </c>
       <c r="E27" s="3">
-        <v>14900</v>
+        <v>14600</v>
       </c>
       <c r="F27" s="3">
-        <v>181300</v>
+        <v>177000</v>
       </c>
       <c r="G27" s="3">
-        <v>111400</v>
+        <v>108800</v>
       </c>
       <c r="H27" s="3">
-        <v>-500400</v>
+        <v>-488500</v>
       </c>
       <c r="I27" s="3">
-        <v>-9900</v>
+        <v>-9600</v>
       </c>
       <c r="J27" s="3">
-        <v>-6600</v>
+        <v>-6500</v>
       </c>
       <c r="K27" s="3">
         <v>-2022300</v>
@@ -1353,13 +1353,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-421200</v>
+        <v>-411300</v>
       </c>
       <c r="E29" s="3">
-        <v>-203000</v>
+        <v>-198200</v>
       </c>
       <c r="F29" s="3">
-        <v>-8800</v>
+        <v>-8600</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>17</v>
@@ -1368,10 +1368,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>-3900</v>
+        <v>-3800</v>
       </c>
       <c r="J29" s="3">
-        <v>-469200</v>
+        <v>-458100</v>
       </c>
       <c r="K29" s="3">
         <v>-29800</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4400</v>
+        <v>-4300</v>
       </c>
       <c r="E32" s="3">
-        <v>64200</v>
+        <v>62600</v>
       </c>
       <c r="F32" s="3">
-        <v>63400</v>
+        <v>61900</v>
       </c>
       <c r="G32" s="3">
-        <v>-18800</v>
+        <v>-18300</v>
       </c>
       <c r="H32" s="3">
-        <v>-14700</v>
+        <v>-14400</v>
       </c>
       <c r="I32" s="3">
-        <v>-54400</v>
+        <v>-53100</v>
       </c>
       <c r="J32" s="3">
-        <v>17800</v>
+        <v>17400</v>
       </c>
       <c r="K32" s="3">
         <v>3500</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-489200</v>
+        <v>-477700</v>
       </c>
       <c r="E33" s="3">
-        <v>-188100</v>
+        <v>-183600</v>
       </c>
       <c r="F33" s="3">
-        <v>172600</v>
+        <v>168500</v>
       </c>
       <c r="G33" s="3">
-        <v>111400</v>
+        <v>108800</v>
       </c>
       <c r="H33" s="3">
-        <v>-500400</v>
+        <v>-488500</v>
       </c>
       <c r="I33" s="3">
-        <v>-13700</v>
+        <v>-13400</v>
       </c>
       <c r="J33" s="3">
-        <v>-475900</v>
+        <v>-464600</v>
       </c>
       <c r="K33" s="3">
         <v>-2052200</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-489200</v>
+        <v>-477700</v>
       </c>
       <c r="E35" s="3">
-        <v>-188100</v>
+        <v>-183600</v>
       </c>
       <c r="F35" s="3">
-        <v>172600</v>
+        <v>168500</v>
       </c>
       <c r="G35" s="3">
-        <v>111400</v>
+        <v>108800</v>
       </c>
       <c r="H35" s="3">
-        <v>-500400</v>
+        <v>-488500</v>
       </c>
       <c r="I35" s="3">
-        <v>-13700</v>
+        <v>-13400</v>
       </c>
       <c r="J35" s="3">
-        <v>-475900</v>
+        <v>-464600</v>
       </c>
       <c r="K35" s="3">
         <v>-2052200</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>386800</v>
+        <v>377600</v>
       </c>
       <c r="E41" s="3">
-        <v>665500</v>
+        <v>649800</v>
       </c>
       <c r="F41" s="3">
-        <v>1249900</v>
+        <v>1220300</v>
       </c>
       <c r="G41" s="3">
-        <v>245800</v>
+        <v>240000</v>
       </c>
       <c r="H41" s="3">
-        <v>395900</v>
+        <v>386500</v>
       </c>
       <c r="I41" s="3">
-        <v>663000</v>
+        <v>647300</v>
       </c>
       <c r="J41" s="3">
-        <v>1221200</v>
+        <v>1192300</v>
       </c>
       <c r="K41" s="3">
         <v>383800</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>48600</v>
+        <v>47400</v>
       </c>
       <c r="E42" s="3">
         <v>200</v>
       </c>
       <c r="F42" s="3">
-        <v>81900</v>
+        <v>80000</v>
       </c>
       <c r="G42" s="3">
-        <v>9800</v>
+        <v>9600</v>
       </c>
       <c r="H42" s="3">
-        <v>12700</v>
+        <v>12400</v>
       </c>
       <c r="I42" s="3">
-        <v>14500</v>
+        <v>14200</v>
       </c>
       <c r="J42" s="3">
-        <v>46500</v>
+        <v>45400</v>
       </c>
       <c r="K42" s="3">
         <v>30200</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>92700</v>
+        <v>90500</v>
       </c>
       <c r="E43" s="3">
-        <v>70200</v>
+        <v>68500</v>
       </c>
       <c r="F43" s="3">
-        <v>78500</v>
+        <v>76600</v>
       </c>
       <c r="G43" s="3">
-        <v>87800</v>
+        <v>85700</v>
       </c>
       <c r="H43" s="3">
-        <v>90200</v>
+        <v>88100</v>
       </c>
       <c r="I43" s="3">
-        <v>82400</v>
+        <v>80500</v>
       </c>
       <c r="J43" s="3">
-        <v>57300</v>
+        <v>55900</v>
       </c>
       <c r="K43" s="3">
         <v>64200</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>275000</v>
+        <v>268500</v>
       </c>
       <c r="E44" s="3">
-        <v>246300</v>
+        <v>240500</v>
       </c>
       <c r="F44" s="3">
-        <v>226900</v>
+        <v>221600</v>
       </c>
       <c r="G44" s="3">
-        <v>225700</v>
+        <v>220400</v>
       </c>
       <c r="H44" s="3">
-        <v>190700</v>
+        <v>186100</v>
       </c>
       <c r="I44" s="3">
-        <v>233500</v>
+        <v>227900</v>
       </c>
       <c r="J44" s="3">
-        <v>167100</v>
+        <v>163100</v>
       </c>
       <c r="K44" s="3">
         <v>233900</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>71500</v>
+        <v>69800</v>
       </c>
       <c r="E45" s="3">
-        <v>24700</v>
+        <v>24100</v>
       </c>
       <c r="F45" s="3">
-        <v>30400</v>
+        <v>29700</v>
       </c>
       <c r="G45" s="3">
-        <v>33600</v>
+        <v>32800</v>
       </c>
       <c r="H45" s="3">
-        <v>22200</v>
+        <v>21700</v>
       </c>
       <c r="I45" s="3">
-        <v>26400</v>
+        <v>25700</v>
       </c>
       <c r="J45" s="3">
-        <v>18200</v>
+        <v>17700</v>
       </c>
       <c r="K45" s="3">
         <v>49900</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>874500</v>
+        <v>853800</v>
       </c>
       <c r="E46" s="3">
-        <v>1006900</v>
+        <v>983100</v>
       </c>
       <c r="F46" s="3">
-        <v>1042700</v>
+        <v>1018000</v>
       </c>
       <c r="G46" s="3">
-        <v>602700</v>
+        <v>588400</v>
       </c>
       <c r="H46" s="3">
-        <v>711700</v>
+        <v>694800</v>
       </c>
       <c r="I46" s="3">
-        <v>1019800</v>
+        <v>995600</v>
       </c>
       <c r="J46" s="3">
-        <v>1510200</v>
+        <v>1474400</v>
       </c>
       <c r="K46" s="3">
         <v>762100</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>161800</v>
+        <v>158000</v>
       </c>
       <c r="E47" s="3">
-        <v>136400</v>
+        <v>133200</v>
       </c>
       <c r="F47" s="3">
-        <v>44500</v>
+        <v>43400</v>
       </c>
       <c r="G47" s="3">
-        <v>19000</v>
+        <v>18600</v>
       </c>
       <c r="H47" s="3">
-        <v>9200</v>
+        <v>9000</v>
       </c>
       <c r="I47" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="J47" s="3">
-        <v>64300</v>
+        <v>62800</v>
       </c>
       <c r="K47" s="3">
         <v>88800</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4972600</v>
+        <v>4855000</v>
       </c>
       <c r="E48" s="3">
-        <v>5535200</v>
+        <v>5404300</v>
       </c>
       <c r="F48" s="3">
-        <v>11178300</v>
+        <v>10913900</v>
       </c>
       <c r="G48" s="3">
-        <v>5652800</v>
+        <v>5519100</v>
       </c>
       <c r="H48" s="3">
-        <v>5514900</v>
+        <v>5384400</v>
       </c>
       <c r="I48" s="3">
-        <v>5845200</v>
+        <v>5707000</v>
       </c>
       <c r="J48" s="3">
-        <v>5041100</v>
+        <v>4921900</v>
       </c>
       <c r="K48" s="3">
         <v>6326700</v>
@@ -1916,22 +1916,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>128000</v>
+        <v>125000</v>
       </c>
       <c r="E49" s="3">
-        <v>128000</v>
+        <v>125000</v>
       </c>
       <c r="F49" s="3">
-        <v>128000</v>
+        <v>125000</v>
       </c>
       <c r="G49" s="3">
-        <v>128000</v>
+        <v>125000</v>
       </c>
       <c r="H49" s="3">
-        <v>128000</v>
+        <v>125000</v>
       </c>
       <c r="I49" s="3">
-        <v>128000</v>
+        <v>125000</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>27100</v>
+        <v>26500</v>
       </c>
       <c r="E52" s="3">
-        <v>11100</v>
+        <v>10800</v>
       </c>
       <c r="F52" s="3">
-        <v>67900</v>
+        <v>66200</v>
       </c>
       <c r="G52" s="3">
-        <v>25600</v>
+        <v>25000</v>
       </c>
       <c r="H52" s="3">
-        <v>36600</v>
+        <v>35800</v>
       </c>
       <c r="I52" s="3">
-        <v>37900</v>
+        <v>37000</v>
       </c>
       <c r="J52" s="3">
-        <v>18600</v>
+        <v>18100</v>
       </c>
       <c r="K52" s="3">
         <v>32800</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6164000</v>
+        <v>6018200</v>
       </c>
       <c r="E54" s="3">
-        <v>6817700</v>
+        <v>6656500</v>
       </c>
       <c r="F54" s="3">
-        <v>6817500</v>
+        <v>6656200</v>
       </c>
       <c r="G54" s="3">
-        <v>6428100</v>
+        <v>6276000</v>
       </c>
       <c r="H54" s="3">
-        <v>6400400</v>
+        <v>6249100</v>
       </c>
       <c r="I54" s="3">
-        <v>7038400</v>
+        <v>6871900</v>
       </c>
       <c r="J54" s="3">
-        <v>6634100</v>
+        <v>6477200</v>
       </c>
       <c r="K54" s="3">
         <v>7277400</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>103600</v>
+        <v>101100</v>
       </c>
       <c r="E57" s="3">
-        <v>98200</v>
+        <v>95900</v>
       </c>
       <c r="F57" s="3">
-        <v>338000</v>
+        <v>330000</v>
       </c>
       <c r="G57" s="3">
-        <v>92800</v>
+        <v>90600</v>
       </c>
       <c r="H57" s="3">
-        <v>53900</v>
+        <v>52600</v>
       </c>
       <c r="I57" s="3">
-        <v>83100</v>
+        <v>81100</v>
       </c>
       <c r="J57" s="3">
-        <v>60400</v>
+        <v>59000</v>
       </c>
       <c r="K57" s="3">
         <v>129600</v>
@@ -2177,16 +2177,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="E58" s="3">
-        <v>10000</v>
+        <v>9800</v>
       </c>
       <c r="F58" s="3">
-        <v>107800</v>
+        <v>105300</v>
       </c>
       <c r="G58" s="3">
-        <v>105900</v>
+        <v>103400</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>17</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>181500</v>
+        <v>177200</v>
       </c>
       <c r="E59" s="3">
-        <v>177600</v>
+        <v>173400</v>
       </c>
       <c r="F59" s="3">
-        <v>164600</v>
+        <v>160700</v>
       </c>
       <c r="G59" s="3">
-        <v>107900</v>
+        <v>105300</v>
       </c>
       <c r="H59" s="3">
-        <v>142000</v>
+        <v>138700</v>
       </c>
       <c r="I59" s="3">
-        <v>74700</v>
+        <v>73000</v>
       </c>
       <c r="J59" s="3">
-        <v>65000</v>
+        <v>63400</v>
       </c>
       <c r="K59" s="3">
         <v>185800</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>291700</v>
+        <v>284800</v>
       </c>
       <c r="E60" s="3">
-        <v>285700</v>
+        <v>279000</v>
       </c>
       <c r="F60" s="3">
-        <v>362300</v>
+        <v>353700</v>
       </c>
       <c r="G60" s="3">
-        <v>306600</v>
+        <v>299300</v>
       </c>
       <c r="H60" s="3">
-        <v>195900</v>
+        <v>191300</v>
       </c>
       <c r="I60" s="3">
-        <v>157800</v>
+        <v>154100</v>
       </c>
       <c r="J60" s="3">
-        <v>125400</v>
+        <v>122500</v>
       </c>
       <c r="K60" s="3">
         <v>315400</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>700400</v>
+        <v>683900</v>
       </c>
       <c r="E61" s="3">
-        <v>697800</v>
+        <v>681300</v>
       </c>
       <c r="F61" s="3">
-        <v>621000</v>
+        <v>606300</v>
       </c>
       <c r="G61" s="3">
-        <v>592100</v>
+        <v>578100</v>
       </c>
       <c r="H61" s="3">
-        <v>833100</v>
+        <v>813400</v>
       </c>
       <c r="I61" s="3">
-        <v>821000</v>
+        <v>801600</v>
       </c>
       <c r="J61" s="3">
-        <v>818000</v>
+        <v>798600</v>
       </c>
       <c r="K61" s="3">
         <v>785000</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>746000</v>
+        <v>728400</v>
       </c>
       <c r="E62" s="3">
-        <v>801300</v>
+        <v>782300</v>
       </c>
       <c r="F62" s="3">
-        <v>736100</v>
+        <v>718700</v>
       </c>
       <c r="G62" s="3">
-        <v>726200</v>
+        <v>709000</v>
       </c>
       <c r="H62" s="3">
-        <v>743400</v>
+        <v>725800</v>
       </c>
       <c r="I62" s="3">
-        <v>911100</v>
+        <v>889500</v>
       </c>
       <c r="J62" s="3">
-        <v>752400</v>
+        <v>734600</v>
       </c>
       <c r="K62" s="3">
         <v>954500</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1733700</v>
+        <v>1692700</v>
       </c>
       <c r="E66" s="3">
-        <v>1881000</v>
+        <v>1836500</v>
       </c>
       <c r="F66" s="3">
-        <v>1775900</v>
+        <v>1733900</v>
       </c>
       <c r="G66" s="3">
-        <v>1706800</v>
+        <v>1666500</v>
       </c>
       <c r="H66" s="3">
-        <v>1860100</v>
+        <v>1816100</v>
       </c>
       <c r="I66" s="3">
-        <v>2000500</v>
+        <v>1953200</v>
       </c>
       <c r="J66" s="3">
-        <v>1818600</v>
+        <v>1775600</v>
       </c>
       <c r="K66" s="3">
         <v>2280900</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3585400</v>
+        <v>-3500600</v>
       </c>
       <c r="E72" s="3">
-        <v>-3096200</v>
+        <v>-3023000</v>
       </c>
       <c r="F72" s="3">
-        <v>-2908100</v>
+        <v>-2839300</v>
       </c>
       <c r="G72" s="3">
-        <v>-3083200</v>
+        <v>-3010300</v>
       </c>
       <c r="H72" s="3">
-        <v>-3194700</v>
+        <v>-3119100</v>
       </c>
       <c r="I72" s="3">
-        <v>-2694300</v>
+        <v>-2630600</v>
       </c>
       <c r="J72" s="3">
-        <v>-2665900</v>
+        <v>-2602800</v>
       </c>
       <c r="K72" s="3">
         <v>-2109400</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4430300</v>
+        <v>4325500</v>
       </c>
       <c r="E76" s="3">
-        <v>4936700</v>
+        <v>4820000</v>
       </c>
       <c r="F76" s="3">
-        <v>5041600</v>
+        <v>4922300</v>
       </c>
       <c r="G76" s="3">
-        <v>4721200</v>
+        <v>4609600</v>
       </c>
       <c r="H76" s="3">
-        <v>4540300</v>
+        <v>4433000</v>
       </c>
       <c r="I76" s="3">
-        <v>5037900</v>
+        <v>4918800</v>
       </c>
       <c r="J76" s="3">
-        <v>4815500</v>
+        <v>4701600</v>
       </c>
       <c r="K76" s="3">
         <v>4996500</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-489200</v>
+        <v>-477700</v>
       </c>
       <c r="E81" s="3">
-        <v>-188100</v>
+        <v>-183600</v>
       </c>
       <c r="F81" s="3">
-        <v>172600</v>
+        <v>168500</v>
       </c>
       <c r="G81" s="3">
-        <v>111400</v>
+        <v>108800</v>
       </c>
       <c r="H81" s="3">
-        <v>-500400</v>
+        <v>-488500</v>
       </c>
       <c r="I81" s="3">
-        <v>-13700</v>
+        <v>-13400</v>
       </c>
       <c r="J81" s="3">
-        <v>-475900</v>
+        <v>-464600</v>
       </c>
       <c r="K81" s="3">
         <v>-2052200</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>335200</v>
+        <v>327200</v>
       </c>
       <c r="E83" s="3">
-        <v>280500</v>
+        <v>273900</v>
       </c>
       <c r="F83" s="3">
-        <v>304500</v>
+        <v>297300</v>
       </c>
       <c r="G83" s="3">
-        <v>214800</v>
+        <v>209700</v>
       </c>
       <c r="H83" s="3">
-        <v>146200</v>
+        <v>142700</v>
       </c>
       <c r="I83" s="3">
-        <v>99700</v>
+        <v>97400</v>
       </c>
       <c r="J83" s="3">
-        <v>103500</v>
+        <v>101100</v>
       </c>
       <c r="K83" s="3">
         <v>119000</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>291300</v>
+        <v>284400</v>
       </c>
       <c r="E89" s="3">
-        <v>501000</v>
+        <v>489200</v>
       </c>
       <c r="F89" s="3">
-        <v>649800</v>
+        <v>634500</v>
       </c>
       <c r="G89" s="3">
-        <v>229200</v>
+        <v>223800</v>
       </c>
       <c r="H89" s="3">
-        <v>93400</v>
+        <v>91200</v>
       </c>
       <c r="I89" s="3">
-        <v>38700</v>
+        <v>37800</v>
       </c>
       <c r="J89" s="3">
-        <v>157200</v>
+        <v>153400</v>
       </c>
       <c r="K89" s="3">
         <v>297500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-400800</v>
+        <v>-391300</v>
       </c>
       <c r="E91" s="3">
-        <v>-390000</v>
+        <v>-380800</v>
       </c>
       <c r="F91" s="3">
-        <v>-261100</v>
+        <v>-255000</v>
       </c>
       <c r="G91" s="3">
-        <v>-296600</v>
+        <v>-289600</v>
       </c>
       <c r="H91" s="3">
-        <v>-320300</v>
+        <v>-312800</v>
       </c>
       <c r="I91" s="3">
-        <v>-478300</v>
+        <v>-466900</v>
       </c>
       <c r="J91" s="3">
-        <v>-411600</v>
+        <v>-401900</v>
       </c>
       <c r="K91" s="3">
         <v>-462200</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-512800</v>
+        <v>-500700</v>
       </c>
       <c r="E94" s="3">
-        <v>-367600</v>
+        <v>-358900</v>
       </c>
       <c r="F94" s="3">
-        <v>-337700</v>
+        <v>-329700</v>
       </c>
       <c r="G94" s="3">
-        <v>-261200</v>
+        <v>-255000</v>
       </c>
       <c r="H94" s="3">
-        <v>-355900</v>
+        <v>-347500</v>
       </c>
       <c r="I94" s="3">
-        <v>-575700</v>
+        <v>-562000</v>
       </c>
       <c r="J94" s="3">
-        <v>665500</v>
+        <v>649800</v>
       </c>
       <c r="K94" s="3">
         <v>-523200</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-14700</v>
+        <v>-14300</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3430,22 +3430,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-57200</v>
+        <v>-55800</v>
       </c>
       <c r="E100" s="3">
-        <v>-92800</v>
+        <v>-90600</v>
       </c>
       <c r="F100" s="3">
-        <v>67000</v>
+        <v>65400</v>
       </c>
       <c r="G100" s="3">
-        <v>-118200</v>
+        <v>-115400</v>
       </c>
       <c r="H100" s="3">
-        <v>-4600</v>
+        <v>-4500</v>
       </c>
       <c r="I100" s="3">
-        <v>-21200</v>
+        <v>-20700</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-278700</v>
+        <v>-272100</v>
       </c>
       <c r="E102" s="3">
-        <v>40600</v>
+        <v>39600</v>
       </c>
       <c r="F102" s="3">
-        <v>379200</v>
+        <v>370200</v>
       </c>
       <c r="G102" s="3">
-        <v>-150100</v>
+        <v>-146600</v>
       </c>
       <c r="H102" s="3">
-        <v>-267100</v>
+        <v>-260800</v>
       </c>
       <c r="I102" s="3">
-        <v>-558200</v>
+        <v>-545000</v>
       </c>
       <c r="J102" s="3">
-        <v>822700</v>
+        <v>803200</v>
       </c>
       <c r="K102" s="3">
         <v>-280100</v>

--- a/AAII_Financials/Yearly/ELD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ELD_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1177200</v>
+        <v>1177800</v>
       </c>
       <c r="E8" s="3">
-        <v>1270200</v>
+        <v>1270900</v>
       </c>
       <c r="F8" s="3">
-        <v>1386000</v>
+        <v>1386700</v>
       </c>
       <c r="G8" s="3">
-        <v>834100</v>
+        <v>834500</v>
       </c>
       <c r="H8" s="3">
-        <v>619700</v>
+        <v>620000</v>
       </c>
       <c r="I8" s="3">
-        <v>528400</v>
+        <v>528700</v>
       </c>
       <c r="J8" s="3">
-        <v>584200</v>
+        <v>584500</v>
       </c>
       <c r="K8" s="3">
         <v>638000</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>944700</v>
+        <v>945200</v>
       </c>
       <c r="E9" s="3">
-        <v>878500</v>
+        <v>878900</v>
       </c>
       <c r="F9" s="3">
-        <v>895400</v>
+        <v>895900</v>
       </c>
       <c r="G9" s="3">
-        <v>658700</v>
+        <v>659100</v>
       </c>
       <c r="H9" s="3">
-        <v>506500</v>
+        <v>506800</v>
       </c>
       <c r="I9" s="3">
-        <v>358200</v>
+        <v>358400</v>
       </c>
       <c r="J9" s="3">
-        <v>363900</v>
+        <v>364100</v>
       </c>
       <c r="K9" s="3">
         <v>470700</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>232500</v>
+        <v>232600</v>
       </c>
       <c r="E10" s="3">
-        <v>391800</v>
+        <v>392000</v>
       </c>
       <c r="F10" s="3">
-        <v>490600</v>
+        <v>490900</v>
       </c>
       <c r="G10" s="3">
-        <v>175300</v>
+        <v>175400</v>
       </c>
       <c r="H10" s="3">
         <v>113200</v>
       </c>
       <c r="I10" s="3">
-        <v>170200</v>
+        <v>170300</v>
       </c>
       <c r="J10" s="3">
-        <v>220300</v>
+        <v>220400</v>
       </c>
       <c r="K10" s="3">
         <v>167300</v>
@@ -849,7 +849,7 @@
         <v>51700</v>
       </c>
       <c r="J12" s="3">
-        <v>25300</v>
+        <v>25400</v>
       </c>
       <c r="K12" s="3">
         <v>21700</v>
@@ -906,10 +906,10 @@
         <v>48900</v>
       </c>
       <c r="G14" s="3">
-        <v>-117500</v>
+        <v>-117600</v>
       </c>
       <c r="H14" s="3">
-        <v>606600</v>
+        <v>606900</v>
       </c>
       <c r="I14" s="3">
         <v>68800</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1120900</v>
+        <v>1121500</v>
       </c>
       <c r="E17" s="3">
-        <v>982800</v>
+        <v>983300</v>
       </c>
       <c r="F17" s="3">
-        <v>1034300</v>
+        <v>1034900</v>
       </c>
       <c r="G17" s="3">
-        <v>640600</v>
+        <v>641000</v>
       </c>
       <c r="H17" s="3">
-        <v>1263300</v>
+        <v>1264000</v>
       </c>
       <c r="I17" s="3">
-        <v>580400</v>
+        <v>580700</v>
       </c>
       <c r="J17" s="3">
-        <v>493700</v>
+        <v>494000</v>
       </c>
       <c r="K17" s="3">
         <v>3077800</v>
@@ -1011,19 +1011,19 @@
         <v>56300</v>
       </c>
       <c r="E18" s="3">
-        <v>287500</v>
+        <v>287600</v>
       </c>
       <c r="F18" s="3">
-        <v>351700</v>
+        <v>351900</v>
       </c>
       <c r="G18" s="3">
-        <v>193400</v>
+        <v>193500</v>
       </c>
       <c r="H18" s="3">
-        <v>-643600</v>
+        <v>-644000</v>
       </c>
       <c r="I18" s="3">
-        <v>-52000</v>
+        <v>-52100</v>
       </c>
       <c r="J18" s="3">
         <v>90500</v>
@@ -1059,10 +1059,10 @@
         <v>4300</v>
       </c>
       <c r="E20" s="3">
-        <v>-62600</v>
+        <v>-62700</v>
       </c>
       <c r="F20" s="3">
-        <v>-61900</v>
+        <v>-62000</v>
       </c>
       <c r="G20" s="3">
         <v>18300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>386600</v>
+        <v>388000</v>
       </c>
       <c r="E21" s="3">
-        <v>497700</v>
+        <v>498900</v>
       </c>
       <c r="F21" s="3">
-        <v>586000</v>
+        <v>587400</v>
       </c>
       <c r="G21" s="3">
-        <v>420700</v>
+        <v>421700</v>
       </c>
       <c r="H21" s="3">
-        <v>-487100</v>
+        <v>-486800</v>
       </c>
       <c r="I21" s="3">
-        <v>98100</v>
+        <v>98500</v>
       </c>
       <c r="J21" s="3">
-        <v>173800</v>
+        <v>174300</v>
       </c>
       <c r="K21" s="3">
         <v>-2322500</v>
@@ -1158,22 +1158,22 @@
         <v>16000</v>
       </c>
       <c r="E23" s="3">
-        <v>203900</v>
+        <v>204000</v>
       </c>
       <c r="F23" s="3">
-        <v>278500</v>
+        <v>278700</v>
       </c>
       <c r="G23" s="3">
         <v>153200</v>
       </c>
       <c r="H23" s="3">
-        <v>-629300</v>
+        <v>-629600</v>
       </c>
       <c r="I23" s="3">
         <v>1100</v>
       </c>
       <c r="J23" s="3">
-        <v>65700</v>
+        <v>65800</v>
       </c>
       <c r="K23" s="3">
         <v>-2456000</v>
@@ -1191,7 +1191,7 @@
         <v>82700</v>
       </c>
       <c r="E24" s="3">
-        <v>189000</v>
+        <v>189100</v>
       </c>
       <c r="F24" s="3">
         <v>111200</v>
@@ -1254,7 +1254,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-66600</v>
+        <v>-66700</v>
       </c>
       <c r="E26" s="3">
         <v>15000</v>
@@ -1266,7 +1266,7 @@
         <v>99500</v>
       </c>
       <c r="H26" s="3">
-        <v>-512500</v>
+        <v>-512800</v>
       </c>
       <c r="I26" s="3">
         <v>-25100</v>
@@ -1293,13 +1293,13 @@
         <v>14600</v>
       </c>
       <c r="F27" s="3">
-        <v>177000</v>
+        <v>177100</v>
       </c>
       <c r="G27" s="3">
         <v>108800</v>
       </c>
       <c r="H27" s="3">
-        <v>-488500</v>
+        <v>-488800</v>
       </c>
       <c r="I27" s="3">
         <v>-9600</v>
@@ -1353,10 +1353,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-411300</v>
+        <v>-411500</v>
       </c>
       <c r="E29" s="3">
-        <v>-198200</v>
+        <v>-198300</v>
       </c>
       <c r="F29" s="3">
         <v>-8600</v>
@@ -1371,7 +1371,7 @@
         <v>-3800</v>
       </c>
       <c r="J29" s="3">
-        <v>-458100</v>
+        <v>-458400</v>
       </c>
       <c r="K29" s="3">
         <v>-29800</v>
@@ -1455,10 +1455,10 @@
         <v>-4300</v>
       </c>
       <c r="E32" s="3">
-        <v>62600</v>
+        <v>62700</v>
       </c>
       <c r="F32" s="3">
-        <v>61900</v>
+        <v>62000</v>
       </c>
       <c r="G32" s="3">
         <v>-18300</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-477700</v>
+        <v>-477900</v>
       </c>
       <c r="E33" s="3">
-        <v>-183600</v>
+        <v>-183700</v>
       </c>
       <c r="F33" s="3">
-        <v>168500</v>
+        <v>168600</v>
       </c>
       <c r="G33" s="3">
         <v>108800</v>
       </c>
       <c r="H33" s="3">
-        <v>-488500</v>
+        <v>-488800</v>
       </c>
       <c r="I33" s="3">
         <v>-13400</v>
       </c>
       <c r="J33" s="3">
-        <v>-464600</v>
+        <v>-464800</v>
       </c>
       <c r="K33" s="3">
         <v>-2052200</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-477700</v>
+        <v>-477900</v>
       </c>
       <c r="E35" s="3">
-        <v>-183600</v>
+        <v>-183700</v>
       </c>
       <c r="F35" s="3">
-        <v>168500</v>
+        <v>168600</v>
       </c>
       <c r="G35" s="3">
         <v>108800</v>
       </c>
       <c r="H35" s="3">
-        <v>-488500</v>
+        <v>-488800</v>
       </c>
       <c r="I35" s="3">
         <v>-13400</v>
       </c>
       <c r="J35" s="3">
-        <v>-464600</v>
+        <v>-464800</v>
       </c>
       <c r="K35" s="3">
         <v>-2052200</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>377600</v>
+        <v>377800</v>
       </c>
       <c r="E41" s="3">
-        <v>649800</v>
+        <v>650100</v>
       </c>
       <c r="F41" s="3">
-        <v>1220300</v>
+        <v>1220900</v>
       </c>
       <c r="G41" s="3">
-        <v>240000</v>
+        <v>240100</v>
       </c>
       <c r="H41" s="3">
-        <v>386500</v>
+        <v>386700</v>
       </c>
       <c r="I41" s="3">
-        <v>647300</v>
+        <v>647700</v>
       </c>
       <c r="J41" s="3">
-        <v>1192300</v>
+        <v>1192900</v>
       </c>
       <c r="K41" s="3">
         <v>383800</v>
@@ -1685,7 +1685,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>47400</v>
+        <v>47500</v>
       </c>
       <c r="E42" s="3">
         <v>200</v>
@@ -1697,7 +1697,7 @@
         <v>9600</v>
       </c>
       <c r="H42" s="3">
-        <v>12400</v>
+        <v>12500</v>
       </c>
       <c r="I42" s="3">
         <v>14200</v>
@@ -1724,10 +1724,10 @@
         <v>68500</v>
       </c>
       <c r="F43" s="3">
-        <v>76600</v>
+        <v>76700</v>
       </c>
       <c r="G43" s="3">
-        <v>85700</v>
+        <v>85800</v>
       </c>
       <c r="H43" s="3">
         <v>88100</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>268500</v>
+        <v>268600</v>
       </c>
       <c r="E44" s="3">
-        <v>240500</v>
+        <v>240600</v>
       </c>
       <c r="F44" s="3">
-        <v>221600</v>
+        <v>221700</v>
       </c>
       <c r="G44" s="3">
-        <v>220400</v>
+        <v>220500</v>
       </c>
       <c r="H44" s="3">
-        <v>186100</v>
+        <v>186200</v>
       </c>
       <c r="I44" s="3">
-        <v>227900</v>
+        <v>228100</v>
       </c>
       <c r="J44" s="3">
-        <v>163100</v>
+        <v>163200</v>
       </c>
       <c r="K44" s="3">
         <v>233900</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>853800</v>
+        <v>854300</v>
       </c>
       <c r="E46" s="3">
-        <v>983100</v>
+        <v>983600</v>
       </c>
       <c r="F46" s="3">
-        <v>1018000</v>
+        <v>1018600</v>
       </c>
       <c r="G46" s="3">
-        <v>588400</v>
+        <v>588700</v>
       </c>
       <c r="H46" s="3">
-        <v>694800</v>
+        <v>695200</v>
       </c>
       <c r="I46" s="3">
-        <v>995600</v>
+        <v>996200</v>
       </c>
       <c r="J46" s="3">
-        <v>1474400</v>
+        <v>1475200</v>
       </c>
       <c r="K46" s="3">
         <v>762100</v>
@@ -1853,7 +1853,7 @@
         <v>158000</v>
       </c>
       <c r="E47" s="3">
-        <v>133200</v>
+        <v>133300</v>
       </c>
       <c r="F47" s="3">
         <v>43400</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4855000</v>
+        <v>4857500</v>
       </c>
       <c r="E48" s="3">
-        <v>5404300</v>
+        <v>5407100</v>
       </c>
       <c r="F48" s="3">
-        <v>10913900</v>
+        <v>5459800</v>
       </c>
       <c r="G48" s="3">
-        <v>5519100</v>
+        <v>5521900</v>
       </c>
       <c r="H48" s="3">
-        <v>5384400</v>
+        <v>5387200</v>
       </c>
       <c r="I48" s="3">
-        <v>5707000</v>
+        <v>5709900</v>
       </c>
       <c r="J48" s="3">
-        <v>4921900</v>
+        <v>4924400</v>
       </c>
       <c r="K48" s="3">
         <v>6326700</v>
@@ -1916,22 +1916,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>125000</v>
+        <v>125100</v>
       </c>
       <c r="E49" s="3">
-        <v>125000</v>
+        <v>125100</v>
       </c>
       <c r="F49" s="3">
-        <v>125000</v>
+        <v>125100</v>
       </c>
       <c r="G49" s="3">
-        <v>125000</v>
+        <v>125100</v>
       </c>
       <c r="H49" s="3">
-        <v>125000</v>
+        <v>125100</v>
       </c>
       <c r="I49" s="3">
-        <v>125000</v>
+        <v>125100</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
@@ -2021,7 +2021,7 @@
         <v>10800</v>
       </c>
       <c r="F52" s="3">
-        <v>66200</v>
+        <v>66300</v>
       </c>
       <c r="G52" s="3">
         <v>25000</v>
@@ -2030,7 +2030,7 @@
         <v>35800</v>
       </c>
       <c r="I52" s="3">
-        <v>37000</v>
+        <v>37100</v>
       </c>
       <c r="J52" s="3">
         <v>18100</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6018200</v>
+        <v>6021300</v>
       </c>
       <c r="E54" s="3">
-        <v>6656500</v>
+        <v>6659900</v>
       </c>
       <c r="F54" s="3">
-        <v>6656200</v>
+        <v>6659700</v>
       </c>
       <c r="G54" s="3">
-        <v>6276000</v>
+        <v>6279300</v>
       </c>
       <c r="H54" s="3">
-        <v>6249100</v>
+        <v>6252300</v>
       </c>
       <c r="I54" s="3">
-        <v>6871900</v>
+        <v>6875500</v>
       </c>
       <c r="J54" s="3">
-        <v>6477200</v>
+        <v>6480500</v>
       </c>
       <c r="K54" s="3">
         <v>7277400</v>
@@ -2144,13 +2144,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>101100</v>
+        <v>101200</v>
       </c>
       <c r="E57" s="3">
         <v>95900</v>
       </c>
       <c r="F57" s="3">
-        <v>330000</v>
+        <v>330200</v>
       </c>
       <c r="G57" s="3">
         <v>90600</v>
@@ -2159,7 +2159,7 @@
         <v>52600</v>
       </c>
       <c r="I57" s="3">
-        <v>81100</v>
+        <v>81200</v>
       </c>
       <c r="J57" s="3">
         <v>59000</v>
@@ -2177,7 +2177,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="E58" s="3">
         <v>9800</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>177200</v>
+        <v>177300</v>
       </c>
       <c r="E59" s="3">
         <v>173400</v>
       </c>
       <c r="F59" s="3">
-        <v>160700</v>
+        <v>160800</v>
       </c>
       <c r="G59" s="3">
-        <v>105300</v>
+        <v>105400</v>
       </c>
       <c r="H59" s="3">
-        <v>138700</v>
+        <v>138800</v>
       </c>
       <c r="I59" s="3">
         <v>73000</v>
       </c>
       <c r="J59" s="3">
-        <v>63400</v>
+        <v>63500</v>
       </c>
       <c r="K59" s="3">
         <v>185800</v>
@@ -2243,22 +2243,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>284800</v>
+        <v>284900</v>
       </c>
       <c r="E60" s="3">
-        <v>279000</v>
+        <v>279100</v>
       </c>
       <c r="F60" s="3">
-        <v>353700</v>
+        <v>353900</v>
       </c>
       <c r="G60" s="3">
-        <v>299300</v>
+        <v>299500</v>
       </c>
       <c r="H60" s="3">
-        <v>191300</v>
+        <v>191400</v>
       </c>
       <c r="I60" s="3">
-        <v>154100</v>
+        <v>154200</v>
       </c>
       <c r="J60" s="3">
         <v>122500</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>683900</v>
+        <v>684200</v>
       </c>
       <c r="E61" s="3">
-        <v>681300</v>
+        <v>681600</v>
       </c>
       <c r="F61" s="3">
-        <v>606300</v>
+        <v>606600</v>
       </c>
       <c r="G61" s="3">
-        <v>578100</v>
+        <v>578400</v>
       </c>
       <c r="H61" s="3">
-        <v>813400</v>
+        <v>813800</v>
       </c>
       <c r="I61" s="3">
-        <v>801600</v>
+        <v>802000</v>
       </c>
       <c r="J61" s="3">
-        <v>798600</v>
+        <v>799100</v>
       </c>
       <c r="K61" s="3">
         <v>785000</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>728400</v>
+        <v>728700</v>
       </c>
       <c r="E62" s="3">
-        <v>782300</v>
+        <v>782700</v>
       </c>
       <c r="F62" s="3">
-        <v>718700</v>
+        <v>719000</v>
       </c>
       <c r="G62" s="3">
-        <v>709000</v>
+        <v>709400</v>
       </c>
       <c r="H62" s="3">
-        <v>725800</v>
+        <v>726200</v>
       </c>
       <c r="I62" s="3">
-        <v>889500</v>
+        <v>890000</v>
       </c>
       <c r="J62" s="3">
-        <v>734600</v>
+        <v>735000</v>
       </c>
       <c r="K62" s="3">
         <v>954500</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1692700</v>
+        <v>1693600</v>
       </c>
       <c r="E66" s="3">
-        <v>1836500</v>
+        <v>1837500</v>
       </c>
       <c r="F66" s="3">
-        <v>1733900</v>
+        <v>1734800</v>
       </c>
       <c r="G66" s="3">
-        <v>1666500</v>
+        <v>1667300</v>
       </c>
       <c r="H66" s="3">
-        <v>1816100</v>
+        <v>1817000</v>
       </c>
       <c r="I66" s="3">
-        <v>1953200</v>
+        <v>1954200</v>
       </c>
       <c r="J66" s="3">
-        <v>1775600</v>
+        <v>1776500</v>
       </c>
       <c r="K66" s="3">
         <v>2280900</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3500600</v>
+        <v>-3502400</v>
       </c>
       <c r="E72" s="3">
-        <v>-3023000</v>
+        <v>-3024500</v>
       </c>
       <c r="F72" s="3">
-        <v>-2839300</v>
+        <v>-2840800</v>
       </c>
       <c r="G72" s="3">
-        <v>-3010300</v>
+        <v>-3011900</v>
       </c>
       <c r="H72" s="3">
-        <v>-3119100</v>
+        <v>-3120700</v>
       </c>
       <c r="I72" s="3">
-        <v>-2630600</v>
+        <v>-2631900</v>
       </c>
       <c r="J72" s="3">
-        <v>-2602800</v>
+        <v>-2604200</v>
       </c>
       <c r="K72" s="3">
         <v>-2109400</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4325500</v>
+        <v>4327700</v>
       </c>
       <c r="E76" s="3">
-        <v>4820000</v>
+        <v>4822500</v>
       </c>
       <c r="F76" s="3">
-        <v>4922300</v>
+        <v>4924900</v>
       </c>
       <c r="G76" s="3">
-        <v>4609600</v>
+        <v>4612000</v>
       </c>
       <c r="H76" s="3">
-        <v>4433000</v>
+        <v>4435300</v>
       </c>
       <c r="I76" s="3">
-        <v>4918800</v>
+        <v>4921300</v>
       </c>
       <c r="J76" s="3">
-        <v>4701600</v>
+        <v>4704100</v>
       </c>
       <c r="K76" s="3">
         <v>4996500</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-477700</v>
+        <v>-477900</v>
       </c>
       <c r="E81" s="3">
-        <v>-183600</v>
+        <v>-183700</v>
       </c>
       <c r="F81" s="3">
-        <v>168500</v>
+        <v>168600</v>
       </c>
       <c r="G81" s="3">
         <v>108800</v>
       </c>
       <c r="H81" s="3">
-        <v>-488500</v>
+        <v>-488800</v>
       </c>
       <c r="I81" s="3">
         <v>-13400</v>
       </c>
       <c r="J81" s="3">
-        <v>-464600</v>
+        <v>-464800</v>
       </c>
       <c r="K81" s="3">
         <v>-2052200</v>
@@ -2905,19 +2905,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>327200</v>
+        <v>327400</v>
       </c>
       <c r="E83" s="3">
-        <v>273900</v>
+        <v>274000</v>
       </c>
       <c r="F83" s="3">
-        <v>297300</v>
+        <v>297500</v>
       </c>
       <c r="G83" s="3">
-        <v>209700</v>
+        <v>209800</v>
       </c>
       <c r="H83" s="3">
-        <v>142700</v>
+        <v>142800</v>
       </c>
       <c r="I83" s="3">
         <v>97400</v>
@@ -3103,16 +3103,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>284400</v>
+        <v>284500</v>
       </c>
       <c r="E89" s="3">
-        <v>489200</v>
+        <v>489500</v>
       </c>
       <c r="F89" s="3">
-        <v>634500</v>
+        <v>634800</v>
       </c>
       <c r="G89" s="3">
-        <v>223800</v>
+        <v>223900</v>
       </c>
       <c r="H89" s="3">
         <v>91200</v>
@@ -3121,7 +3121,7 @@
         <v>37800</v>
       </c>
       <c r="J89" s="3">
-        <v>153400</v>
+        <v>153500</v>
       </c>
       <c r="K89" s="3">
         <v>297500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-391300</v>
+        <v>-391500</v>
       </c>
       <c r="E91" s="3">
-        <v>-380800</v>
+        <v>-381000</v>
       </c>
       <c r="F91" s="3">
-        <v>-255000</v>
+        <v>-255100</v>
       </c>
       <c r="G91" s="3">
-        <v>-289600</v>
+        <v>-289700</v>
       </c>
       <c r="H91" s="3">
-        <v>-312800</v>
+        <v>-312900</v>
       </c>
       <c r="I91" s="3">
-        <v>-466900</v>
+        <v>-467200</v>
       </c>
       <c r="J91" s="3">
-        <v>-401900</v>
+        <v>-402100</v>
       </c>
       <c r="K91" s="3">
         <v>-462200</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-500700</v>
+        <v>-501000</v>
       </c>
       <c r="E94" s="3">
-        <v>-358900</v>
+        <v>-359100</v>
       </c>
       <c r="F94" s="3">
-        <v>-329700</v>
+        <v>-329900</v>
       </c>
       <c r="G94" s="3">
-        <v>-255000</v>
+        <v>-255100</v>
       </c>
       <c r="H94" s="3">
-        <v>-347500</v>
+        <v>-347700</v>
       </c>
       <c r="I94" s="3">
-        <v>-562000</v>
+        <v>-562300</v>
       </c>
       <c r="J94" s="3">
-        <v>649800</v>
+        <v>650100</v>
       </c>
       <c r="K94" s="3">
         <v>-523200</v>
@@ -3433,10 +3433,10 @@
         <v>-55800</v>
       </c>
       <c r="E100" s="3">
-        <v>-90600</v>
+        <v>-90700</v>
       </c>
       <c r="F100" s="3">
-        <v>65400</v>
+        <v>65500</v>
       </c>
       <c r="G100" s="3">
         <v>-115400</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-272100</v>
+        <v>-272300</v>
       </c>
       <c r="E102" s="3">
-        <v>39600</v>
+        <v>39700</v>
       </c>
       <c r="F102" s="3">
-        <v>370200</v>
+        <v>370400</v>
       </c>
       <c r="G102" s="3">
         <v>-146600</v>
       </c>
       <c r="H102" s="3">
-        <v>-260800</v>
+        <v>-260900</v>
       </c>
       <c r="I102" s="3">
-        <v>-545000</v>
+        <v>-545200</v>
       </c>
       <c r="J102" s="3">
-        <v>803200</v>
+        <v>803600</v>
       </c>
       <c r="K102" s="3">
         <v>-280100</v>

--- a/AAII_Financials/Yearly/ELD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ELD_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1177800</v>
+        <v>1199400</v>
       </c>
       <c r="E8" s="3">
-        <v>1270900</v>
+        <v>1294200</v>
       </c>
       <c r="F8" s="3">
-        <v>1386700</v>
+        <v>1412200</v>
       </c>
       <c r="G8" s="3">
-        <v>834500</v>
+        <v>849800</v>
       </c>
       <c r="H8" s="3">
-        <v>620000</v>
+        <v>631400</v>
       </c>
       <c r="I8" s="3">
-        <v>528700</v>
+        <v>538400</v>
       </c>
       <c r="J8" s="3">
-        <v>584500</v>
+        <v>595200</v>
       </c>
       <c r="K8" s="3">
         <v>638000</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>945200</v>
+        <v>962500</v>
       </c>
       <c r="E9" s="3">
-        <v>878900</v>
+        <v>895000</v>
       </c>
       <c r="F9" s="3">
-        <v>895900</v>
+        <v>912300</v>
       </c>
       <c r="G9" s="3">
-        <v>659100</v>
+        <v>671200</v>
       </c>
       <c r="H9" s="3">
-        <v>506800</v>
+        <v>516100</v>
       </c>
       <c r="I9" s="3">
-        <v>358400</v>
+        <v>364900</v>
       </c>
       <c r="J9" s="3">
-        <v>364100</v>
+        <v>370800</v>
       </c>
       <c r="K9" s="3">
         <v>470700</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>232600</v>
+        <v>236900</v>
       </c>
       <c r="E10" s="3">
-        <v>392000</v>
+        <v>399200</v>
       </c>
       <c r="F10" s="3">
-        <v>490900</v>
+        <v>499900</v>
       </c>
       <c r="G10" s="3">
-        <v>175400</v>
+        <v>178600</v>
       </c>
       <c r="H10" s="3">
-        <v>113200</v>
+        <v>115300</v>
       </c>
       <c r="I10" s="3">
-        <v>170300</v>
+        <v>173400</v>
       </c>
       <c r="J10" s="3">
-        <v>220400</v>
+        <v>224400</v>
       </c>
       <c r="K10" s="3">
         <v>167300</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>26500</v>
+        <v>27000</v>
       </c>
       <c r="E12" s="3">
-        <v>24700</v>
+        <v>25200</v>
       </c>
       <c r="F12" s="3">
-        <v>16900</v>
+        <v>17200</v>
       </c>
       <c r="G12" s="3">
-        <v>19800</v>
+        <v>20100</v>
       </c>
       <c r="H12" s="3">
-        <v>45700</v>
+        <v>46500</v>
       </c>
       <c r="I12" s="3">
-        <v>51700</v>
+        <v>52600</v>
       </c>
       <c r="J12" s="3">
-        <v>25400</v>
+        <v>25800</v>
       </c>
       <c r="K12" s="3">
         <v>21700</v>
@@ -897,25 +897,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>43900</v>
+        <v>44700</v>
       </c>
       <c r="E14" s="3">
-        <v>31100</v>
+        <v>31700</v>
       </c>
       <c r="F14" s="3">
-        <v>48900</v>
+        <v>49800</v>
       </c>
       <c r="G14" s="3">
-        <v>-117600</v>
+        <v>-119700</v>
       </c>
       <c r="H14" s="3">
-        <v>606900</v>
+        <v>618100</v>
       </c>
       <c r="I14" s="3">
-        <v>68800</v>
+        <v>70100</v>
       </c>
       <c r="J14" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="K14" s="3">
         <v>2467900</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1121500</v>
+        <v>1142100</v>
       </c>
       <c r="E17" s="3">
-        <v>983300</v>
+        <v>1001300</v>
       </c>
       <c r="F17" s="3">
-        <v>1034900</v>
+        <v>1053900</v>
       </c>
       <c r="G17" s="3">
-        <v>641000</v>
+        <v>652700</v>
       </c>
       <c r="H17" s="3">
-        <v>1264000</v>
+        <v>1287200</v>
       </c>
       <c r="I17" s="3">
-        <v>580700</v>
+        <v>591400</v>
       </c>
       <c r="J17" s="3">
-        <v>494000</v>
+        <v>503000</v>
       </c>
       <c r="K17" s="3">
         <v>3077800</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>56300</v>
+        <v>57300</v>
       </c>
       <c r="E18" s="3">
-        <v>287600</v>
+        <v>292900</v>
       </c>
       <c r="F18" s="3">
-        <v>351900</v>
+        <v>358300</v>
       </c>
       <c r="G18" s="3">
-        <v>193500</v>
+        <v>197100</v>
       </c>
       <c r="H18" s="3">
-        <v>-644000</v>
+        <v>-655800</v>
       </c>
       <c r="I18" s="3">
-        <v>-52100</v>
+        <v>-53000</v>
       </c>
       <c r="J18" s="3">
-        <v>90500</v>
+        <v>92200</v>
       </c>
       <c r="K18" s="3">
         <v>-2439700</v>
@@ -1056,25 +1056,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="E20" s="3">
-        <v>-62700</v>
+        <v>-63800</v>
       </c>
       <c r="F20" s="3">
-        <v>-62000</v>
+        <v>-63100</v>
       </c>
       <c r="G20" s="3">
-        <v>18300</v>
+        <v>18700</v>
       </c>
       <c r="H20" s="3">
-        <v>14400</v>
+        <v>14600</v>
       </c>
       <c r="I20" s="3">
-        <v>53100</v>
+        <v>54100</v>
       </c>
       <c r="J20" s="3">
-        <v>-17400</v>
+        <v>-17700</v>
       </c>
       <c r="K20" s="3">
         <v>-3500</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>388000</v>
+        <v>393300</v>
       </c>
       <c r="E21" s="3">
-        <v>498900</v>
+        <v>506500</v>
       </c>
       <c r="F21" s="3">
-        <v>587400</v>
+        <v>596500</v>
       </c>
       <c r="G21" s="3">
-        <v>421700</v>
+        <v>428200</v>
       </c>
       <c r="H21" s="3">
-        <v>-486800</v>
+        <v>-496500</v>
       </c>
       <c r="I21" s="3">
-        <v>98500</v>
+        <v>99700</v>
       </c>
       <c r="J21" s="3">
-        <v>174300</v>
+        <v>176900</v>
       </c>
       <c r="K21" s="3">
         <v>-2322500</v>
@@ -1122,16 +1122,16 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>44600</v>
+        <v>45400</v>
       </c>
       <c r="E22" s="3">
-        <v>20900</v>
+        <v>21300</v>
       </c>
       <c r="F22" s="3">
-        <v>11200</v>
+        <v>11400</v>
       </c>
       <c r="G22" s="3">
-        <v>58600</v>
+        <v>59700</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>17</v>
@@ -1140,7 +1140,7 @@
         <v>17</v>
       </c>
       <c r="J22" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="K22" s="3">
         <v>12700</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>16000</v>
+        <v>16300</v>
       </c>
       <c r="E23" s="3">
-        <v>204000</v>
+        <v>207800</v>
       </c>
       <c r="F23" s="3">
-        <v>278700</v>
+        <v>283800</v>
       </c>
       <c r="G23" s="3">
-        <v>153200</v>
+        <v>156100</v>
       </c>
       <c r="H23" s="3">
-        <v>-629600</v>
+        <v>-641200</v>
       </c>
       <c r="I23" s="3">
         <v>1100</v>
       </c>
       <c r="J23" s="3">
-        <v>65800</v>
+        <v>67000</v>
       </c>
       <c r="K23" s="3">
         <v>-2456000</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>82700</v>
+        <v>84200</v>
       </c>
       <c r="E24" s="3">
-        <v>189100</v>
+        <v>192500</v>
       </c>
       <c r="F24" s="3">
-        <v>111200</v>
+        <v>113300</v>
       </c>
       <c r="G24" s="3">
-        <v>53700</v>
+        <v>54700</v>
       </c>
       <c r="H24" s="3">
-        <v>-116800</v>
+        <v>-119000</v>
       </c>
       <c r="I24" s="3">
-        <v>26200</v>
+        <v>26700</v>
       </c>
       <c r="J24" s="3">
-        <v>75900</v>
+        <v>77300</v>
       </c>
       <c r="K24" s="3">
         <v>-294800</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-66700</v>
+        <v>-67900</v>
       </c>
       <c r="E26" s="3">
-        <v>15000</v>
+        <v>15300</v>
       </c>
       <c r="F26" s="3">
-        <v>167400</v>
+        <v>170500</v>
       </c>
       <c r="G26" s="3">
-        <v>99500</v>
+        <v>101400</v>
       </c>
       <c r="H26" s="3">
-        <v>-512800</v>
+        <v>-522200</v>
       </c>
       <c r="I26" s="3">
-        <v>-25100</v>
+        <v>-25600</v>
       </c>
       <c r="J26" s="3">
-        <v>-10100</v>
+        <v>-10300</v>
       </c>
       <c r="K26" s="3">
         <v>-2161200</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-66400</v>
+        <v>-67600</v>
       </c>
       <c r="E27" s="3">
-        <v>14600</v>
+        <v>14800</v>
       </c>
       <c r="F27" s="3">
-        <v>177100</v>
+        <v>180400</v>
       </c>
       <c r="G27" s="3">
-        <v>108800</v>
+        <v>110800</v>
       </c>
       <c r="H27" s="3">
-        <v>-488800</v>
+        <v>-497800</v>
       </c>
       <c r="I27" s="3">
-        <v>-9600</v>
+        <v>-9800</v>
       </c>
       <c r="J27" s="3">
-        <v>-6500</v>
+        <v>-6600</v>
       </c>
       <c r="K27" s="3">
         <v>-2022300</v>
@@ -1353,13 +1353,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-411500</v>
+        <v>-419000</v>
       </c>
       <c r="E29" s="3">
-        <v>-198300</v>
+        <v>-201900</v>
       </c>
       <c r="F29" s="3">
-        <v>-8600</v>
+        <v>-8700</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>17</v>
@@ -1371,7 +1371,7 @@
         <v>-3800</v>
       </c>
       <c r="J29" s="3">
-        <v>-458400</v>
+        <v>-466800</v>
       </c>
       <c r="K29" s="3">
         <v>-29800</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="E32" s="3">
-        <v>62700</v>
+        <v>63800</v>
       </c>
       <c r="F32" s="3">
-        <v>62000</v>
+        <v>63100</v>
       </c>
       <c r="G32" s="3">
-        <v>-18300</v>
+        <v>-18700</v>
       </c>
       <c r="H32" s="3">
-        <v>-14400</v>
+        <v>-14600</v>
       </c>
       <c r="I32" s="3">
-        <v>-53100</v>
+        <v>-54100</v>
       </c>
       <c r="J32" s="3">
-        <v>17400</v>
+        <v>17700</v>
       </c>
       <c r="K32" s="3">
         <v>3500</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-477900</v>
+        <v>-486700</v>
       </c>
       <c r="E33" s="3">
-        <v>-183700</v>
+        <v>-187100</v>
       </c>
       <c r="F33" s="3">
-        <v>168600</v>
+        <v>171700</v>
       </c>
       <c r="G33" s="3">
-        <v>108800</v>
+        <v>110800</v>
       </c>
       <c r="H33" s="3">
-        <v>-488800</v>
+        <v>-497800</v>
       </c>
       <c r="I33" s="3">
-        <v>-13400</v>
+        <v>-13700</v>
       </c>
       <c r="J33" s="3">
-        <v>-464800</v>
+        <v>-473400</v>
       </c>
       <c r="K33" s="3">
         <v>-2052200</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-477900</v>
+        <v>-486700</v>
       </c>
       <c r="E35" s="3">
-        <v>-183700</v>
+        <v>-187100</v>
       </c>
       <c r="F35" s="3">
-        <v>168600</v>
+        <v>171700</v>
       </c>
       <c r="G35" s="3">
-        <v>108800</v>
+        <v>110800</v>
       </c>
       <c r="H35" s="3">
-        <v>-488800</v>
+        <v>-497800</v>
       </c>
       <c r="I35" s="3">
-        <v>-13400</v>
+        <v>-13700</v>
       </c>
       <c r="J35" s="3">
-        <v>-464800</v>
+        <v>-473400</v>
       </c>
       <c r="K35" s="3">
         <v>-2052200</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>377800</v>
+        <v>384800</v>
       </c>
       <c r="E41" s="3">
-        <v>650100</v>
+        <v>662100</v>
       </c>
       <c r="F41" s="3">
-        <v>1220900</v>
+        <v>1243300</v>
       </c>
       <c r="G41" s="3">
-        <v>240100</v>
+        <v>244500</v>
       </c>
       <c r="H41" s="3">
-        <v>386700</v>
+        <v>393800</v>
       </c>
       <c r="I41" s="3">
-        <v>647700</v>
+        <v>659600</v>
       </c>
       <c r="J41" s="3">
-        <v>1192900</v>
+        <v>1214800</v>
       </c>
       <c r="K41" s="3">
         <v>383800</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>47500</v>
+        <v>48300</v>
       </c>
       <c r="E42" s="3">
         <v>200</v>
       </c>
       <c r="F42" s="3">
-        <v>80000</v>
+        <v>81500</v>
       </c>
       <c r="G42" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="H42" s="3">
-        <v>12500</v>
+        <v>12700</v>
       </c>
       <c r="I42" s="3">
-        <v>14200</v>
+        <v>14500</v>
       </c>
       <c r="J42" s="3">
-        <v>45400</v>
+        <v>46200</v>
       </c>
       <c r="K42" s="3">
         <v>30200</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>90500</v>
+        <v>92200</v>
       </c>
       <c r="E43" s="3">
-        <v>68500</v>
+        <v>69800</v>
       </c>
       <c r="F43" s="3">
-        <v>76700</v>
+        <v>78100</v>
       </c>
       <c r="G43" s="3">
-        <v>85800</v>
+        <v>87300</v>
       </c>
       <c r="H43" s="3">
-        <v>88100</v>
+        <v>89700</v>
       </c>
       <c r="I43" s="3">
-        <v>80500</v>
+        <v>82000</v>
       </c>
       <c r="J43" s="3">
-        <v>55900</v>
+        <v>57000</v>
       </c>
       <c r="K43" s="3">
         <v>64200</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>268600</v>
+        <v>273500</v>
       </c>
       <c r="E44" s="3">
-        <v>240600</v>
+        <v>245100</v>
       </c>
       <c r="F44" s="3">
-        <v>221700</v>
+        <v>225800</v>
       </c>
       <c r="G44" s="3">
-        <v>220500</v>
+        <v>224500</v>
       </c>
       <c r="H44" s="3">
-        <v>186200</v>
+        <v>189700</v>
       </c>
       <c r="I44" s="3">
-        <v>228100</v>
+        <v>232200</v>
       </c>
       <c r="J44" s="3">
-        <v>163200</v>
+        <v>166200</v>
       </c>
       <c r="K44" s="3">
         <v>233900</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>69800</v>
+        <v>71100</v>
       </c>
       <c r="E45" s="3">
-        <v>24100</v>
+        <v>24500</v>
       </c>
       <c r="F45" s="3">
-        <v>29700</v>
+        <v>30300</v>
       </c>
       <c r="G45" s="3">
-        <v>32800</v>
+        <v>33400</v>
       </c>
       <c r="H45" s="3">
-        <v>21700</v>
+        <v>22100</v>
       </c>
       <c r="I45" s="3">
-        <v>25700</v>
+        <v>26200</v>
       </c>
       <c r="J45" s="3">
-        <v>17700</v>
+        <v>18100</v>
       </c>
       <c r="K45" s="3">
         <v>49900</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>854300</v>
+        <v>869900</v>
       </c>
       <c r="E46" s="3">
-        <v>983600</v>
+        <v>1001700</v>
       </c>
       <c r="F46" s="3">
-        <v>1018600</v>
+        <v>1037300</v>
       </c>
       <c r="G46" s="3">
-        <v>588700</v>
+        <v>599500</v>
       </c>
       <c r="H46" s="3">
-        <v>695200</v>
+        <v>708000</v>
       </c>
       <c r="I46" s="3">
-        <v>996200</v>
+        <v>1014500</v>
       </c>
       <c r="J46" s="3">
-        <v>1475200</v>
+        <v>1502300</v>
       </c>
       <c r="K46" s="3">
         <v>762100</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>158000</v>
+        <v>160900</v>
       </c>
       <c r="E47" s="3">
-        <v>133300</v>
+        <v>135700</v>
       </c>
       <c r="F47" s="3">
-        <v>43400</v>
+        <v>44200</v>
       </c>
       <c r="G47" s="3">
-        <v>18600</v>
+        <v>18900</v>
       </c>
       <c r="H47" s="3">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="I47" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="J47" s="3">
-        <v>62800</v>
+        <v>63900</v>
       </c>
       <c r="K47" s="3">
         <v>88800</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4857500</v>
+        <v>4946700</v>
       </c>
       <c r="E48" s="3">
-        <v>5407100</v>
+        <v>5506400</v>
       </c>
       <c r="F48" s="3">
-        <v>5459800</v>
+        <v>5560000</v>
       </c>
       <c r="G48" s="3">
-        <v>5521900</v>
+        <v>5623300</v>
       </c>
       <c r="H48" s="3">
-        <v>5387200</v>
+        <v>5486100</v>
       </c>
       <c r="I48" s="3">
-        <v>5709900</v>
+        <v>5814800</v>
       </c>
       <c r="J48" s="3">
-        <v>4924400</v>
+        <v>5014800</v>
       </c>
       <c r="K48" s="3">
         <v>6326700</v>
@@ -1916,22 +1916,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>125100</v>
+        <v>127400</v>
       </c>
       <c r="E49" s="3">
-        <v>125100</v>
+        <v>127400</v>
       </c>
       <c r="F49" s="3">
-        <v>125100</v>
+        <v>127400</v>
       </c>
       <c r="G49" s="3">
-        <v>125100</v>
+        <v>127400</v>
       </c>
       <c r="H49" s="3">
-        <v>125100</v>
+        <v>127400</v>
       </c>
       <c r="I49" s="3">
-        <v>125100</v>
+        <v>127400</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>26500</v>
+        <v>27000</v>
       </c>
       <c r="E52" s="3">
-        <v>10800</v>
+        <v>11000</v>
       </c>
       <c r="F52" s="3">
-        <v>66300</v>
+        <v>67500</v>
       </c>
       <c r="G52" s="3">
-        <v>25000</v>
+        <v>25500</v>
       </c>
       <c r="H52" s="3">
-        <v>35800</v>
+        <v>36400</v>
       </c>
       <c r="I52" s="3">
-        <v>37100</v>
+        <v>37700</v>
       </c>
       <c r="J52" s="3">
-        <v>18100</v>
+        <v>18500</v>
       </c>
       <c r="K52" s="3">
         <v>32800</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6021300</v>
+        <v>6131900</v>
       </c>
       <c r="E54" s="3">
-        <v>6659900</v>
+        <v>6782200</v>
       </c>
       <c r="F54" s="3">
-        <v>6659700</v>
+        <v>6782000</v>
       </c>
       <c r="G54" s="3">
-        <v>6279300</v>
+        <v>6394600</v>
       </c>
       <c r="H54" s="3">
-        <v>6252300</v>
+        <v>6367100</v>
       </c>
       <c r="I54" s="3">
-        <v>6875500</v>
+        <v>7001700</v>
       </c>
       <c r="J54" s="3">
-        <v>6480500</v>
+        <v>6599500</v>
       </c>
       <c r="K54" s="3">
         <v>7277400</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>101200</v>
+        <v>103000</v>
       </c>
       <c r="E57" s="3">
-        <v>95900</v>
+        <v>97700</v>
       </c>
       <c r="F57" s="3">
-        <v>330200</v>
+        <v>336200</v>
       </c>
       <c r="G57" s="3">
-        <v>90600</v>
+        <v>92300</v>
       </c>
       <c r="H57" s="3">
-        <v>52600</v>
+        <v>53600</v>
       </c>
       <c r="I57" s="3">
-        <v>81200</v>
+        <v>82600</v>
       </c>
       <c r="J57" s="3">
-        <v>59000</v>
+        <v>60100</v>
       </c>
       <c r="K57" s="3">
         <v>129600</v>
@@ -2177,16 +2177,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="E58" s="3">
-        <v>9800</v>
+        <v>9900</v>
       </c>
       <c r="F58" s="3">
+        <v>107200</v>
+      </c>
+      <c r="G58" s="3">
         <v>105300</v>
-      </c>
-      <c r="G58" s="3">
-        <v>103400</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>17</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>177300</v>
+        <v>180500</v>
       </c>
       <c r="E59" s="3">
-        <v>173400</v>
+        <v>176600</v>
       </c>
       <c r="F59" s="3">
-        <v>160800</v>
+        <v>163700</v>
       </c>
       <c r="G59" s="3">
-        <v>105400</v>
+        <v>107300</v>
       </c>
       <c r="H59" s="3">
-        <v>138800</v>
+        <v>141300</v>
       </c>
       <c r="I59" s="3">
-        <v>73000</v>
+        <v>74400</v>
       </c>
       <c r="J59" s="3">
-        <v>63500</v>
+        <v>64600</v>
       </c>
       <c r="K59" s="3">
         <v>185800</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>284900</v>
+        <v>290100</v>
       </c>
       <c r="E60" s="3">
-        <v>279100</v>
+        <v>284200</v>
       </c>
       <c r="F60" s="3">
-        <v>353900</v>
+        <v>360400</v>
       </c>
       <c r="G60" s="3">
-        <v>299500</v>
+        <v>305000</v>
       </c>
       <c r="H60" s="3">
-        <v>191400</v>
+        <v>194900</v>
       </c>
       <c r="I60" s="3">
-        <v>154200</v>
+        <v>157000</v>
       </c>
       <c r="J60" s="3">
-        <v>122500</v>
+        <v>124800</v>
       </c>
       <c r="K60" s="3">
         <v>315400</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>684200</v>
+        <v>696800</v>
       </c>
       <c r="E61" s="3">
-        <v>681600</v>
+        <v>694200</v>
       </c>
       <c r="F61" s="3">
-        <v>606600</v>
+        <v>617800</v>
       </c>
       <c r="G61" s="3">
-        <v>578400</v>
+        <v>589000</v>
       </c>
       <c r="H61" s="3">
-        <v>813800</v>
+        <v>828800</v>
       </c>
       <c r="I61" s="3">
-        <v>802000</v>
+        <v>816700</v>
       </c>
       <c r="J61" s="3">
-        <v>799100</v>
+        <v>813700</v>
       </c>
       <c r="K61" s="3">
         <v>785000</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>728700</v>
+        <v>742100</v>
       </c>
       <c r="E62" s="3">
-        <v>782700</v>
+        <v>797100</v>
       </c>
       <c r="F62" s="3">
-        <v>719000</v>
+        <v>732200</v>
       </c>
       <c r="G62" s="3">
-        <v>709400</v>
+        <v>722400</v>
       </c>
       <c r="H62" s="3">
-        <v>726200</v>
+        <v>739500</v>
       </c>
       <c r="I62" s="3">
-        <v>890000</v>
+        <v>906300</v>
       </c>
       <c r="J62" s="3">
-        <v>735000</v>
+        <v>748500</v>
       </c>
       <c r="K62" s="3">
         <v>954500</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1693600</v>
+        <v>1724700</v>
       </c>
       <c r="E66" s="3">
-        <v>1837500</v>
+        <v>1871200</v>
       </c>
       <c r="F66" s="3">
-        <v>1734800</v>
+        <v>1766700</v>
       </c>
       <c r="G66" s="3">
-        <v>1667300</v>
+        <v>1697900</v>
       </c>
       <c r="H66" s="3">
-        <v>1817000</v>
+        <v>1850400</v>
       </c>
       <c r="I66" s="3">
-        <v>1954200</v>
+        <v>1990100</v>
       </c>
       <c r="J66" s="3">
-        <v>1776500</v>
+        <v>1809100</v>
       </c>
       <c r="K66" s="3">
         <v>2280900</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3502400</v>
+        <v>-3566700</v>
       </c>
       <c r="E72" s="3">
-        <v>-3024500</v>
+        <v>-3080100</v>
       </c>
       <c r="F72" s="3">
-        <v>-2840800</v>
+        <v>-2893000</v>
       </c>
       <c r="G72" s="3">
-        <v>-3011900</v>
+        <v>-3067200</v>
       </c>
       <c r="H72" s="3">
-        <v>-3120700</v>
+        <v>-3178000</v>
       </c>
       <c r="I72" s="3">
-        <v>-2631900</v>
+        <v>-2680300</v>
       </c>
       <c r="J72" s="3">
-        <v>-2604200</v>
+        <v>-2652000</v>
       </c>
       <c r="K72" s="3">
         <v>-2109400</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4327700</v>
+        <v>4407200</v>
       </c>
       <c r="E76" s="3">
-        <v>4822500</v>
+        <v>4911000</v>
       </c>
       <c r="F76" s="3">
-        <v>4924900</v>
+        <v>5015300</v>
       </c>
       <c r="G76" s="3">
-        <v>4612000</v>
+        <v>4696700</v>
       </c>
       <c r="H76" s="3">
-        <v>4435300</v>
+        <v>4516700</v>
       </c>
       <c r="I76" s="3">
-        <v>4921300</v>
+        <v>5011700</v>
       </c>
       <c r="J76" s="3">
-        <v>4704100</v>
+        <v>4790400</v>
       </c>
       <c r="K76" s="3">
         <v>4996500</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-477900</v>
+        <v>-486700</v>
       </c>
       <c r="E81" s="3">
-        <v>-183700</v>
+        <v>-187100</v>
       </c>
       <c r="F81" s="3">
-        <v>168600</v>
+        <v>171700</v>
       </c>
       <c r="G81" s="3">
-        <v>108800</v>
+        <v>110800</v>
       </c>
       <c r="H81" s="3">
-        <v>-488800</v>
+        <v>-497800</v>
       </c>
       <c r="I81" s="3">
-        <v>-13400</v>
+        <v>-13700</v>
       </c>
       <c r="J81" s="3">
-        <v>-464800</v>
+        <v>-473400</v>
       </c>
       <c r="K81" s="3">
         <v>-2052200</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>327400</v>
+        <v>333400</v>
       </c>
       <c r="E83" s="3">
-        <v>274000</v>
+        <v>279000</v>
       </c>
       <c r="F83" s="3">
-        <v>297500</v>
+        <v>302900</v>
       </c>
       <c r="G83" s="3">
-        <v>209800</v>
+        <v>213700</v>
       </c>
       <c r="H83" s="3">
-        <v>142800</v>
+        <v>145400</v>
       </c>
       <c r="I83" s="3">
-        <v>97400</v>
+        <v>99200</v>
       </c>
       <c r="J83" s="3">
-        <v>101100</v>
+        <v>103000</v>
       </c>
       <c r="K83" s="3">
         <v>119000</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>284500</v>
+        <v>289700</v>
       </c>
       <c r="E89" s="3">
-        <v>489500</v>
+        <v>498400</v>
       </c>
       <c r="F89" s="3">
-        <v>634800</v>
+        <v>646500</v>
       </c>
       <c r="G89" s="3">
-        <v>223900</v>
+        <v>228000</v>
       </c>
       <c r="H89" s="3">
-        <v>91200</v>
+        <v>92900</v>
       </c>
       <c r="I89" s="3">
-        <v>37800</v>
+        <v>38500</v>
       </c>
       <c r="J89" s="3">
-        <v>153500</v>
+        <v>156300</v>
       </c>
       <c r="K89" s="3">
         <v>297500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-391500</v>
+        <v>-398700</v>
       </c>
       <c r="E91" s="3">
-        <v>-381000</v>
+        <v>-388000</v>
       </c>
       <c r="F91" s="3">
-        <v>-255100</v>
+        <v>-259800</v>
       </c>
       <c r="G91" s="3">
-        <v>-289700</v>
+        <v>-295100</v>
       </c>
       <c r="H91" s="3">
-        <v>-312900</v>
+        <v>-318700</v>
       </c>
       <c r="I91" s="3">
-        <v>-467200</v>
+        <v>-475800</v>
       </c>
       <c r="J91" s="3">
-        <v>-402100</v>
+        <v>-409400</v>
       </c>
       <c r="K91" s="3">
         <v>-462200</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-501000</v>
+        <v>-510200</v>
       </c>
       <c r="E94" s="3">
-        <v>-359100</v>
+        <v>-365700</v>
       </c>
       <c r="F94" s="3">
-        <v>-329900</v>
+        <v>-335900</v>
       </c>
       <c r="G94" s="3">
-        <v>-255100</v>
+        <v>-259800</v>
       </c>
       <c r="H94" s="3">
-        <v>-347700</v>
+        <v>-354000</v>
       </c>
       <c r="I94" s="3">
-        <v>-562300</v>
+        <v>-572700</v>
       </c>
       <c r="J94" s="3">
-        <v>650100</v>
+        <v>662100</v>
       </c>
       <c r="K94" s="3">
         <v>-523200</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-14300</v>
+        <v>-14600</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3430,22 +3430,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-55800</v>
+        <v>-56900</v>
       </c>
       <c r="E100" s="3">
-        <v>-90700</v>
+        <v>-92300</v>
       </c>
       <c r="F100" s="3">
-        <v>65500</v>
+        <v>66700</v>
       </c>
       <c r="G100" s="3">
-        <v>-115400</v>
+        <v>-117500</v>
       </c>
       <c r="H100" s="3">
-        <v>-4500</v>
+        <v>-4600</v>
       </c>
       <c r="I100" s="3">
-        <v>-20700</v>
+        <v>-21100</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-272300</v>
+        <v>-277300</v>
       </c>
       <c r="E102" s="3">
-        <v>39700</v>
+        <v>40400</v>
       </c>
       <c r="F102" s="3">
-        <v>370400</v>
+        <v>377200</v>
       </c>
       <c r="G102" s="3">
-        <v>-146600</v>
+        <v>-149300</v>
       </c>
       <c r="H102" s="3">
-        <v>-260900</v>
+        <v>-265700</v>
       </c>
       <c r="I102" s="3">
-        <v>-545200</v>
+        <v>-555200</v>
       </c>
       <c r="J102" s="3">
-        <v>803600</v>
+        <v>818400</v>
       </c>
       <c r="K102" s="3">
         <v>-280100</v>
